--- a/WHL_per_team_adj.xlsx
+++ b/WHL_per_team_adj.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinrsmall/Documents/GitHub/Prospect-Prospecting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{24BF3CDD-F3CC-0949-A7CE-FD3BA25CFF33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D27F1F-5824-9343-8028-619C137AAE08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12160" windowWidth="20480" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="23420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WHL_per_team" sheetId="1" r:id="rId1"/>
@@ -1951,7 +1951,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2806,11 +2806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2893,11 +2893,11 @@
         <v>15.8821917808219</v>
       </c>
       <c r="J2" s="1">
-        <f>1-NORMSDIST((I2-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J2:J65" si="0">1-NORMSDIST((I2-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>0.9752471079768178</v>
       </c>
       <c r="K2" s="1">
-        <f>J2*F2</f>
+        <f t="shared" ref="K2:K65" si="1">J2*F2</f>
         <v>0.32508236932560558</v>
       </c>
     </row>
@@ -2930,11 +2930,11 @@
         <v>17.139861858022002</v>
       </c>
       <c r="J3" s="1">
-        <f>1-NORMSDIST((I3-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.85185900995862407</v>
       </c>
       <c r="K3" s="1">
-        <f>J3*F3</f>
+        <f t="shared" si="1"/>
         <v>0.22485618536978896</v>
       </c>
     </row>
@@ -2967,11 +2967,11 @@
         <v>17.157719335868499</v>
       </c>
       <c r="J4" s="1">
-        <f>1-NORMSDIST((I4-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.84881868848438624</v>
       </c>
       <c r="K4" s="1">
-        <f>J4*F4</f>
+        <f t="shared" si="1"/>
         <v>0.22440034293265379</v>
       </c>
     </row>
@@ -3004,11 +3004,11 @@
         <v>17.9869863013698</v>
       </c>
       <c r="J5" s="1">
-        <f>1-NORMSDIST((I5-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.66455015228371594</v>
       </c>
       <c r="K5" s="1">
-        <f>J5*F5</f>
+        <f t="shared" si="1"/>
         <v>0.22151671742790507</v>
       </c>
     </row>
@@ -3041,11 +3041,11 @@
         <v>17.104644025859599</v>
       </c>
       <c r="J6" s="1">
-        <f>1-NORMSDIST((I6-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.85773435243494622</v>
       </c>
       <c r="K6" s="1">
-        <f>J6*F6</f>
+        <f t="shared" si="1"/>
         <v>0.21855731095698125</v>
       </c>
     </row>
@@ -3078,11 +3078,11 @@
         <v>17.9029577650122</v>
       </c>
       <c r="J7" s="1">
-        <f>1-NORMSDIST((I7-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.68664615744790469</v>
       </c>
       <c r="K7" s="1">
-        <f>J7*F7</f>
+        <f t="shared" si="1"/>
         <v>0.20712879956073127</v>
       </c>
     </row>
@@ -3115,11 +3115,11 @@
         <v>18.304109589041001</v>
       </c>
       <c r="J8" s="1">
-        <f>1-NORMSDIST((I8-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.57651748953927884</v>
       </c>
       <c r="K8" s="1">
-        <f>J8*F8</f>
+        <f t="shared" si="1"/>
         <v>0.19217249651309273</v>
       </c>
     </row>
@@ -3152,11 +3152,11 @@
         <v>18.819084609220099</v>
       </c>
       <c r="J9" s="1">
-        <f>1-NORMSDIST((I9-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.42715437059392969</v>
       </c>
       <c r="K9" s="1">
-        <f>J9*F9</f>
+        <f t="shared" si="1"/>
         <v>0.19103888936110397</v>
       </c>
     </row>
@@ -3189,11 +3189,11 @@
         <v>17.938567085227799</v>
       </c>
       <c r="J10" s="1">
-        <f>1-NORMSDIST((I10-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.677358126183496</v>
       </c>
       <c r="K10" s="1">
-        <f>J10*F10</f>
+        <f t="shared" si="1"/>
         <v>0.1897770612152033</v>
       </c>
     </row>
@@ -3226,11 +3226,11 @@
         <v>17.9871666242448</v>
       </c>
       <c r="J11" s="1">
-        <f>1-NORMSDIST((I11-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.66450208171566083</v>
       </c>
       <c r="K11" s="1">
-        <f>J11*F11</f>
+        <f t="shared" si="1"/>
         <v>0.18100243270613114</v>
       </c>
     </row>
@@ -3263,11 +3263,11 @@
         <v>18.522350436209699</v>
       </c>
       <c r="J12" s="1">
-        <f>1-NORMSDIST((I12-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.51331682533737433</v>
       </c>
       <c r="K12" s="1">
-        <f>J12*F12</f>
+        <f t="shared" si="1"/>
         <v>0.17173467318272412</v>
       </c>
     </row>
@@ -3300,11 +3300,11 @@
         <v>18.206417027049099</v>
       </c>
       <c r="J13" s="1">
-        <f>1-NORMSDIST((I13-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.6042786370572657</v>
       </c>
       <c r="K13" s="1">
-        <f>J13*F13</f>
+        <f t="shared" si="1"/>
         <v>0.16740151431991818</v>
       </c>
     </row>
@@ -3337,11 +3337,11 @@
         <v>18.293435147860201</v>
       </c>
       <c r="J14" s="1">
-        <f>1-NORMSDIST((I14-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.57957204691319042</v>
       </c>
       <c r="K14" s="1">
-        <f>J14*F14</f>
+        <f t="shared" si="1"/>
         <v>0.16623384291308527</v>
       </c>
     </row>
@@ -3374,11 +3374,11 @@
         <v>19.192562281455899</v>
       </c>
       <c r="J15" s="1">
-        <f>1-NORMSDIST((I15-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.32392233574672424</v>
       </c>
       <c r="K15" s="1">
-        <f>J15*F15</f>
+        <f t="shared" si="1"/>
         <v>0.16404650479877012</v>
       </c>
     </row>
@@ -3411,11 +3411,11 @@
         <v>17.274767678451099</v>
       </c>
       <c r="J16" s="1">
-        <f>1-NORMSDIST((I16-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.82786941412622062</v>
       </c>
       <c r="K16" s="1">
-        <f>J16*F16</f>
+        <f t="shared" si="1"/>
         <v>0.16075134254878037</v>
       </c>
     </row>
@@ -3448,11 +3448,11 @@
         <v>18.971030671475699</v>
       </c>
       <c r="J17" s="1">
-        <f>1-NORMSDIST((I17-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.38409392751434801</v>
       </c>
       <c r="K17" s="1">
-        <f>J17*F17</f>
+        <f t="shared" si="1"/>
         <v>0.15733968115045563</v>
       </c>
     </row>
@@ -3485,11 +3485,11 @@
         <v>18.8838290848201</v>
       </c>
       <c r="J18" s="1">
-        <f>1-NORMSDIST((I18-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.40866785589916277</v>
       </c>
       <c r="K18" s="1">
-        <f>J18*F18</f>
+        <f t="shared" si="1"/>
         <v>0.15731147591097444</v>
       </c>
     </row>
@@ -3522,11 +3522,11 @@
         <v>18.061284544380499</v>
       </c>
       <c r="J19" s="1">
-        <f>1-NORMSDIST((I19-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.64452374181493732</v>
       </c>
       <c r="K19" s="1">
-        <f>J19*F19</f>
+        <f t="shared" si="1"/>
         <v>0.15345803376546122</v>
       </c>
     </row>
@@ -3559,11 +3559,11 @@
         <v>18.765266338295699</v>
       </c>
       <c r="J20" s="1">
-        <f>1-NORMSDIST((I20-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.44264569593287995</v>
       </c>
       <c r="K20" s="1">
-        <f>J20*F20</f>
+        <f t="shared" si="1"/>
         <v>0.15263644687340663</v>
       </c>
     </row>
@@ -3596,11 +3596,11 @@
         <v>18.334535892151798</v>
       </c>
       <c r="J21" s="1">
-        <f>1-NORMSDIST((I21-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.56778615113949005</v>
       </c>
       <c r="K21" s="1">
-        <f>J21*F21</f>
+        <f t="shared" si="1"/>
         <v>0.14416445243776113</v>
       </c>
     </row>
@@ -3633,11 +3633,11 @@
         <v>16.480011073495799</v>
       </c>
       <c r="J22" s="1">
-        <f>1-NORMSDIST((I22-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.93662041419406916</v>
       </c>
       <c r="K22" s="1">
-        <f>J22*F22</f>
+        <f t="shared" si="1"/>
         <v>0.14146870839389522</v>
       </c>
     </row>
@@ -3670,11 +3670,11 @@
         <v>17.846998545928599</v>
       </c>
       <c r="J23" s="1">
-        <f>1-NORMSDIST((I23-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.70100409215171988</v>
       </c>
       <c r="K23" s="1">
-        <f>J23*F23</f>
+        <f t="shared" si="1"/>
         <v>0.14128764648019146</v>
       </c>
     </row>
@@ -3707,11 +3707,11 @@
         <v>18.111144139509101</v>
       </c>
       <c r="J24" s="1">
-        <f>1-NORMSDIST((I24-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.63085300297778413</v>
       </c>
       <c r="K24" s="1">
-        <f>J24*F24</f>
+        <f t="shared" si="1"/>
         <v>0.13690852405049739</v>
       </c>
     </row>
@@ -3744,11 +3744,11 @@
         <v>16.897602739726</v>
       </c>
       <c r="J25" s="1">
-        <f>1-NORMSDIST((I25-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.88907256654299016</v>
       </c>
       <c r="K25" s="1">
-        <f>J25*F25</f>
+        <f t="shared" si="1"/>
         <v>0.13678039485276697</v>
       </c>
     </row>
@@ -3781,11 +3781,11 @@
         <v>18.924168772734198</v>
       </c>
       <c r="J26" s="1">
-        <f>1-NORMSDIST((I26-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.39724883498698982</v>
       </c>
       <c r="K26" s="1">
-        <f>J26*F26</f>
+        <f t="shared" si="1"/>
         <v>0.13469931761053064</v>
       </c>
     </row>
@@ -3818,11 +3818,11 @@
         <v>18.1905961935446</v>
       </c>
       <c r="J27" s="1">
-        <f>1-NORMSDIST((I27-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.60872898003765874</v>
       </c>
       <c r="K27" s="1">
-        <f>J27*F27</f>
+        <f t="shared" si="1"/>
         <v>0.13456114295569277</v>
       </c>
     </row>
@@ -3855,11 +3855,11 @@
         <v>18.732038883786199</v>
       </c>
       <c r="J28" s="1">
-        <f>1-NORMSDIST((I28-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.45225559779614377</v>
       </c>
       <c r="K28" s="1">
-        <f>J28*F28</f>
+        <f t="shared" si="1"/>
         <v>0.13313151796596423</v>
       </c>
     </row>
@@ -3892,11 +3892,11 @@
         <v>16.761456309511299</v>
       </c>
       <c r="J29" s="1">
-        <f>1-NORMSDIST((I29-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.90677907205158348</v>
       </c>
       <c r="K29" s="1">
-        <f>J29*F29</f>
+        <f t="shared" si="1"/>
         <v>0.1330599725293079</v>
       </c>
     </row>
@@ -3929,11 +3929,11 @@
         <v>18.362203452900701</v>
       </c>
       <c r="J30" s="1">
-        <f>1-NORMSDIST((I30-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.55981751864416496</v>
       </c>
       <c r="K30" s="1">
-        <f>J30*F30</f>
+        <f t="shared" si="1"/>
         <v>0.13172176909274422</v>
       </c>
     </row>
@@ -3966,11 +3966,11 @@
         <v>18.1981445743153</v>
       </c>
       <c r="J31" s="1">
-        <f>1-NORMSDIST((I31-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.60660738410155468</v>
       </c>
       <c r="K31" s="1">
-        <f>J31*F31</f>
+        <f t="shared" si="1"/>
         <v>0.13132737181580004</v>
       </c>
     </row>
@@ -4003,11 +4003,11 @@
         <v>18.082600936273099</v>
       </c>
       <c r="J32" s="1">
-        <f>1-NORMSDIST((I32-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.63870065302436441</v>
       </c>
       <c r="K32" s="1">
-        <f>J32*F32</f>
+        <f t="shared" si="1"/>
         <v>0.13101551856910032</v>
       </c>
     </row>
@@ -4040,11 +4040,11 @@
         <v>18.735522675303599</v>
       </c>
       <c r="J33" s="1">
-        <f>1-NORMSDIST((I33-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.45124661729329563</v>
       </c>
       <c r="K33" s="1">
-        <f>J33*F33</f>
+        <f t="shared" si="1"/>
         <v>0.12892760494094127</v>
       </c>
     </row>
@@ -4077,11 +4077,11 @@
         <v>18.400532032286801</v>
       </c>
       <c r="J34" s="1">
-        <f>1-NORMSDIST((I34-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.54873889316942048</v>
       </c>
       <c r="K34" s="1">
-        <f>J34*F34</f>
+        <f t="shared" si="1"/>
         <v>0.1286865545928286</v>
       </c>
     </row>
@@ -4114,11 +4114,11 @@
         <v>18.760071774991001</v>
       </c>
       <c r="J35" s="1">
-        <f>1-NORMSDIST((I35-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.44414596862085065</v>
       </c>
       <c r="K35" s="1">
-        <f>J35*F35</f>
+        <f t="shared" si="1"/>
         <v>0.12818847061821265</v>
       </c>
     </row>
@@ -4151,11 +4151,11 @@
         <v>17.384357419207301</v>
       </c>
       <c r="J36" s="1">
-        <f>1-NORMSDIST((I36-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.80665432674470594</v>
       </c>
       <c r="K36" s="1">
-        <f>J36*F36</f>
+        <f t="shared" si="1"/>
         <v>0.12772026840124484</v>
       </c>
     </row>
@@ -4188,11 +4188,11 @@
         <v>17.9918197016314</v>
       </c>
       <c r="J37" s="1">
-        <f>1-NORMSDIST((I37-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.66326073254590556</v>
       </c>
       <c r="K37" s="1">
-        <f>J37*F37</f>
+        <f t="shared" si="1"/>
         <v>0.1243613873523573</v>
       </c>
     </row>
@@ -4225,11 +4225,11 @@
         <v>18.025216552843901</v>
       </c>
       <c r="J38" s="1">
-        <f>1-NORMSDIST((I38-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.65429956003378109</v>
       </c>
       <c r="K38" s="1">
-        <f>J38*F38</f>
+        <f t="shared" si="1"/>
         <v>0.12069603534603682</v>
       </c>
     </row>
@@ -4262,11 +4262,11 @@
         <v>17.996322364393599</v>
       </c>
       <c r="J39" s="1">
-        <f>1-NORMSDIST((I39-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.66205781507512007</v>
       </c>
       <c r="K39" s="1">
-        <f>J39*F39</f>
+        <f t="shared" si="1"/>
         <v>0.12010783370831769</v>
       </c>
     </row>
@@ -4299,11 +4299,11 @@
         <v>17.441045225658399</v>
       </c>
       <c r="J40" s="1">
-        <f>1-NORMSDIST((I40-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.79508015901525586</v>
       </c>
       <c r="K40" s="1">
-        <f>J40*F40</f>
+        <f t="shared" si="1"/>
         <v>0.11556397660105437</v>
       </c>
     </row>
@@ -4336,11 +4336,11 @@
         <v>18.6583293814484</v>
       </c>
       <c r="J41" s="1">
-        <f>1-NORMSDIST((I41-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.47366553068920247</v>
       </c>
       <c r="K41" s="1">
-        <f>J41*F41</f>
+        <f t="shared" si="1"/>
         <v>0.11552817821687854</v>
       </c>
     </row>
@@ -4373,11 +4373,11 @@
         <v>18.797396104597301</v>
       </c>
       <c r="J42" s="1">
-        <f>1-NORMSDIST((I42-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.43338518517814006</v>
       </c>
       <c r="K42" s="1">
-        <f>J42*F42</f>
+        <f t="shared" si="1"/>
         <v>0.11404873294161576</v>
       </c>
     </row>
@@ -4410,11 +4410,11 @@
         <v>17.030175864381899</v>
       </c>
       <c r="J43" s="1">
-        <f>1-NORMSDIST((I43-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.86963263378795841</v>
       </c>
       <c r="K43" s="1">
-        <f>J43*F43</f>
+        <f t="shared" si="1"/>
         <v>0.11343034353755924</v>
       </c>
     </row>
@@ -4447,11 +4447,11 @@
         <v>16.871984497314799</v>
       </c>
       <c r="J44" s="1">
-        <f>1-NORMSDIST((I44-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.89257629318967102</v>
       </c>
       <c r="K44" s="1">
-        <f>J44*F44</f>
+        <f t="shared" si="1"/>
         <v>0.11157203664870888</v>
       </c>
     </row>
@@ -4484,11 +4484,11 @@
         <v>18.1242252462288</v>
       </c>
       <c r="J45" s="1">
-        <f>1-NORMSDIST((I45-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.62723795455682219</v>
       </c>
       <c r="K45" s="1">
-        <f>J45*F45</f>
+        <f t="shared" si="1"/>
         <v>0.11107338778610372</v>
       </c>
     </row>
@@ -4521,11 +4521,11 @@
         <v>18.2029868178988</v>
       </c>
       <c r="J46" s="1">
-        <f>1-NORMSDIST((I46-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.60524471935500346</v>
       </c>
       <c r="K46" s="1">
-        <f>J46*F46</f>
+        <f t="shared" si="1"/>
         <v>0.11004449442818194</v>
       </c>
     </row>
@@ -4558,11 +4558,11 @@
         <v>17.921106963909601</v>
       </c>
       <c r="J47" s="1">
-        <f>1-NORMSDIST((I47-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.68192657926092115</v>
       </c>
       <c r="K47" s="1">
-        <f>J47*F47</f>
+        <f t="shared" si="1"/>
         <v>0.10998815794530975</v>
       </c>
     </row>
@@ -4595,11 +4595,11 @@
         <v>18.168183951572001</v>
       </c>
       <c r="J48" s="1">
-        <f>1-NORMSDIST((I48-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.6150090439642909</v>
       </c>
       <c r="K48" s="1">
-        <f>J48*F48</f>
+        <f t="shared" si="1"/>
         <v>0.109065643264603</v>
       </c>
     </row>
@@ -4632,11 +4632,11 @@
         <v>19.4221280167089</v>
       </c>
       <c r="J49" s="1">
-        <f>1-NORMSDIST((I49-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.26610157803994394</v>
       </c>
       <c r="K49" s="1">
-        <f>J49*F49</f>
+        <f t="shared" si="1"/>
         <v>0.1089640082491148</v>
       </c>
     </row>
@@ -4669,11 +4669,11 @@
         <v>15.9749866224315</v>
       </c>
       <c r="J50" s="1">
-        <f>1-NORMSDIST((I50-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.97104285584797878</v>
       </c>
       <c r="K50" s="1">
-        <f>J50*F50</f>
+        <f t="shared" si="1"/>
         <v>0.10789365064977531</v>
       </c>
     </row>
@@ -4706,11 +4706,11 @@
         <v>18.6405852455466</v>
       </c>
       <c r="J51" s="1">
-        <f>1-NORMSDIST((I51-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.47883330780753086</v>
       </c>
       <c r="K51" s="1">
-        <f>J51*F51</f>
+        <f t="shared" si="1"/>
         <v>0.10732470692237725</v>
       </c>
     </row>
@@ -4743,11 +4743,11 @@
         <v>18.650482733762701</v>
       </c>
       <c r="J52" s="1">
-        <f>1-NORMSDIST((I52-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.47595028255154692</v>
       </c>
       <c r="K52" s="1">
-        <f>J52*F52</f>
+        <f t="shared" si="1"/>
         <v>0.10663366986127529</v>
       </c>
     </row>
@@ -4780,11 +4780,11 @@
         <v>18.847011306062502</v>
       </c>
       <c r="J53" s="1">
-        <f>1-NORMSDIST((I53-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.41915830874214</v>
       </c>
       <c r="K53" s="1">
-        <f>J53*F53</f>
+        <f t="shared" si="1"/>
         <v>0.10613879920938281</v>
       </c>
     </row>
@@ -4817,11 +4817,11 @@
         <v>17.030560189743099</v>
       </c>
       <c r="J54" s="1">
-        <f>1-NORMSDIST((I54-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.86957304958084536</v>
       </c>
       <c r="K54" s="1">
-        <f>J54*F54</f>
+        <f t="shared" si="1"/>
         <v>0.10540279388858713</v>
       </c>
     </row>
@@ -4854,11 +4854,11 @@
         <v>18.001223091529301</v>
       </c>
       <c r="J55" s="1">
-        <f>1-NORMSDIST((I55-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.66074666885107236</v>
       </c>
       <c r="K55" s="1">
-        <f>J55*F55</f>
+        <f t="shared" si="1"/>
         <v>0.10511878822630691</v>
       </c>
     </row>
@@ -4891,11 +4891,11 @@
         <v>19.1159812336771</v>
       </c>
       <c r="J56" s="1">
-        <f>1-NORMSDIST((I56-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.34430115676023276</v>
       </c>
       <c r="K56" s="1">
-        <f>J56*F56</f>
+        <f t="shared" si="1"/>
         <v>0.10382004111539307</v>
       </c>
     </row>
@@ -4928,11 +4928,11 @@
         <v>18.8963136144217</v>
       </c>
       <c r="J57" s="1">
-        <f>1-NORMSDIST((I57-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.40512505832830592</v>
       </c>
       <c r="K57" s="1">
-        <f>J57*F57</f>
+        <f t="shared" si="1"/>
         <v>0.10371201493204632</v>
       </c>
     </row>
@@ -4965,11 +4965,11 @@
         <v>18.290319991438299</v>
       </c>
       <c r="J58" s="1">
-        <f>1-NORMSDIST((I58-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.58046257428039416</v>
       </c>
       <c r="K58" s="1">
-        <f>J58*F58</f>
+        <f t="shared" si="1"/>
         <v>0.1024345719318342</v>
       </c>
     </row>
@@ -5002,11 +5002,11 @@
         <v>18.180761746068502</v>
       </c>
       <c r="J59" s="1">
-        <f>1-NORMSDIST((I59-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.61148825776460924</v>
       </c>
       <c r="K59" s="1">
-        <f>J59*F59</f>
+        <f t="shared" si="1"/>
         <v>0.10191470962743446</v>
       </c>
     </row>
@@ -5039,11 +5039,11 @@
         <v>16.8063356164383</v>
       </c>
       <c r="J60" s="1">
-        <f>1-NORMSDIST((I60-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.90118913640485243</v>
       </c>
       <c r="K60" s="1">
-        <f>J60*F60</f>
+        <f t="shared" si="1"/>
         <v>0.10013212626720572</v>
       </c>
     </row>
@@ -5076,11 +5076,11 @@
         <v>18.424039220197901</v>
       </c>
       <c r="J61" s="1">
-        <f>1-NORMSDIST((I61-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.54192489801885657</v>
       </c>
       <c r="K61" s="1">
-        <f>J61*F61</f>
+        <f t="shared" si="1"/>
         <v>9.9664349060938864E-2</v>
       </c>
     </row>
@@ -5113,11 +5113,11 @@
         <v>18.540610328001399</v>
       </c>
       <c r="J62" s="1">
-        <f>1-NORMSDIST((I62-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.50799129831817336</v>
       </c>
       <c r="K62" s="1">
-        <f>J62*F62</f>
+        <f t="shared" si="1"/>
         <v>9.9348851700602064E-2</v>
       </c>
     </row>
@@ -5150,11 +5150,11 @@
         <v>16.869374255083098</v>
       </c>
       <c r="J63" s="1">
-        <f>1-NORMSDIST((I63-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.89292875902759528</v>
       </c>
       <c r="K63" s="1">
-        <f>J63*F63</f>
+        <f t="shared" si="1"/>
         <v>9.9214306558621596E-2</v>
       </c>
     </row>
@@ -5187,11 +5187,11 @@
         <v>16.906849315068399</v>
       </c>
       <c r="J64" s="1">
-        <f>1-NORMSDIST((I64-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.8877880513651456</v>
       </c>
       <c r="K64" s="1">
-        <f>J64*F64</f>
+        <f t="shared" si="1"/>
         <v>9.8643116818349405E-2</v>
       </c>
     </row>
@@ -5224,11 +5224,11 @@
         <v>19.460995269888901</v>
       </c>
       <c r="J65" s="1">
-        <f>1-NORMSDIST((I65-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="0"/>
         <v>0.25685521082790763</v>
       </c>
       <c r="K65" s="1">
-        <f>J65*F65</f>
+        <f t="shared" si="1"/>
         <v>9.84355298981201E-2</v>
       </c>
     </row>
@@ -5261,11 +5261,11 @@
         <v>17.182459221809602</v>
       </c>
       <c r="J66" s="1">
-        <f>1-NORMSDIST((I66-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J66:J129" si="2">1-NORMSDIST((I66-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>0.84453847344054978</v>
       </c>
       <c r="K66" s="1">
-        <f>J66*F66</f>
+        <f t="shared" ref="K66:K129" si="3">J66*F66</f>
         <v>9.8392831857151392E-2</v>
       </c>
     </row>
@@ -5298,11 +5298,11 @@
         <v>16.177397260273899</v>
       </c>
       <c r="J67" s="1">
-        <f>1-NORMSDIST((I67-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.95979546662023874</v>
       </c>
       <c r="K67" s="1">
-        <f>J67*F67</f>
+        <f t="shared" si="3"/>
         <v>9.5979546662023879E-2</v>
       </c>
     </row>
@@ -5335,11 +5335,11 @@
         <v>19.5056731194666</v>
       </c>
       <c r="J68" s="1">
-        <f>1-NORMSDIST((I68-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.24643686304314549</v>
       </c>
       <c r="K68" s="1">
-        <f>J68*F68</f>
+        <f t="shared" si="3"/>
         <v>9.5054218602355939E-2</v>
       </c>
     </row>
@@ -5372,11 +5372,11 @@
         <v>15.1229452054794</v>
       </c>
       <c r="J69" s="1">
-        <f>1-NORMSDIST((I69-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.99412338830122626</v>
       </c>
       <c r="K69" s="1">
-        <f>J69*F69</f>
+        <f t="shared" si="3"/>
         <v>9.4678417933450082E-2</v>
       </c>
     </row>
@@ -5409,11 +5409,11 @@
         <v>17.838037221052002</v>
       </c>
       <c r="J70" s="1">
-        <f>1-NORMSDIST((I70-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.70327535218522941</v>
       </c>
       <c r="K70" s="1">
-        <f>J70*F70</f>
+        <f t="shared" si="3"/>
         <v>9.4671682024934298E-2</v>
       </c>
     </row>
@@ -5446,11 +5446,11 @@
         <v>19.521416283123202</v>
       </c>
       <c r="J71" s="1">
-        <f>1-NORMSDIST((I71-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.24282044276819814</v>
       </c>
       <c r="K71" s="1">
-        <f>J71*F71</f>
+        <f t="shared" si="3"/>
         <v>9.4318684381035481E-2</v>
       </c>
     </row>
@@ -5483,11 +5483,11 @@
         <v>17.644736063225299</v>
       </c>
       <c r="J72" s="1">
-        <f>1-NORMSDIST((I72-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.75022910410539789</v>
       </c>
       <c r="K72" s="1">
-        <f>J72*F72</f>
+        <f t="shared" si="3"/>
         <v>9.3778638013174737E-2</v>
       </c>
     </row>
@@ -5520,11 +5520,11 @@
         <v>17.956587587031599</v>
       </c>
       <c r="J73" s="1">
-        <f>1-NORMSDIST((I73-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.67261481368917453</v>
       </c>
       <c r="K73" s="1">
-        <f>J73*F73</f>
+        <f t="shared" si="3"/>
         <v>9.2319680310278637E-2</v>
       </c>
     </row>
@@ -5557,11 +5557,11 @@
         <v>17.269178082191701</v>
       </c>
       <c r="J74" s="1">
-        <f>1-NORMSDIST((I74-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.82891011190457276</v>
       </c>
       <c r="K74" s="1">
-        <f>J74*F74</f>
+        <f t="shared" si="3"/>
         <v>9.2101123544952437E-2</v>
       </c>
     </row>
@@ -5594,11 +5594,11 @@
         <v>18.805516410375901</v>
       </c>
       <c r="J75" s="1">
-        <f>1-NORMSDIST((I75-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.4310503049023916</v>
       </c>
       <c r="K75" s="1">
-        <f>J75*F75</f>
+        <f t="shared" si="3"/>
         <v>9.0520564029502232E-2</v>
       </c>
     </row>
@@ -5631,11 +5631,11 @@
         <v>18.453995500851899</v>
       </c>
       <c r="J76" s="1">
-        <f>1-NORMSDIST((I76-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.53322388959290856</v>
       </c>
       <c r="K76" s="1">
-        <f>J76*F76</f>
+        <f t="shared" si="3"/>
         <v>9.0122347536829475E-2</v>
       </c>
     </row>
@@ -5668,11 +5668,11 @@
         <v>19.263208364760501</v>
       </c>
       <c r="J77" s="1">
-        <f>1-NORMSDIST((I77-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.30557803254330596</v>
       </c>
       <c r="K77" s="1">
-        <f>J77*F77</f>
+        <f t="shared" si="3"/>
         <v>8.9875891924501586E-2</v>
       </c>
     </row>
@@ -5705,11 +5705,11 @@
         <v>18.418240847152301</v>
       </c>
       <c r="J78" s="1">
-        <f>1-NORMSDIST((I78-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.54360688800777202</v>
       </c>
       <c r="K78" s="1">
-        <f>J78*F78</f>
+        <f t="shared" si="3"/>
         <v>8.8907668599401496E-2</v>
       </c>
     </row>
@@ -5742,11 +5742,11 @@
         <v>17.522185055208599</v>
       </c>
       <c r="J79" s="1">
-        <f>1-NORMSDIST((I79-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.77781537319725991</v>
       </c>
       <c r="K79" s="1">
-        <f>J79*F79</f>
+        <f t="shared" si="3"/>
         <v>8.7694870507533662E-2</v>
       </c>
     </row>
@@ -5779,11 +5779,11 @@
         <v>19.663234102177402</v>
       </c>
       <c r="J80" s="1">
-        <f>1-NORMSDIST((I80-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.21157330761722637</v>
       </c>
       <c r="K80" s="1">
-        <f>J80*F80</f>
+        <f t="shared" si="3"/>
         <v>8.7118420783563591E-2</v>
       </c>
     </row>
@@ -5816,11 +5816,11 @@
         <v>18.9548488471019</v>
       </c>
       <c r="J81" s="1">
-        <f>1-NORMSDIST((I81-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.38862220253753255</v>
       </c>
       <c r="K81" s="1">
-        <f>J81*F81</f>
+        <f t="shared" si="3"/>
         <v>8.6868492331918692E-2</v>
       </c>
     </row>
@@ -5853,11 +5853,11 @@
         <v>18.515863628023698</v>
       </c>
       <c r="J82" s="1">
-        <f>1-NORMSDIST((I82-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.51520819108395699</v>
       </c>
       <c r="K82" s="1">
-        <f>J82*F82</f>
+        <f t="shared" si="3"/>
         <v>8.6832841193925009E-2</v>
       </c>
     </row>
@@ -5890,11 +5890,11 @@
         <v>19.156831607021601</v>
       </c>
       <c r="J83" s="1">
-        <f>1-NORMSDIST((I83-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.33336958676307227</v>
       </c>
       <c r="K83" s="1">
-        <f>J83*F83</f>
+        <f t="shared" si="3"/>
         <v>8.5779308874708374E-2</v>
       </c>
     </row>
@@ -5927,11 +5927,11 @@
         <v>18.910526616074002</v>
       </c>
       <c r="J84" s="1">
-        <f>1-NORMSDIST((I84-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.40110122265936687</v>
       </c>
       <c r="K84" s="1">
-        <f>J84*F84</f>
+        <f t="shared" si="3"/>
         <v>8.5651823588718701E-2</v>
       </c>
     </row>
@@ -5964,11 +5964,11 @@
         <v>18.211750140628101</v>
       </c>
       <c r="J85" s="1">
-        <f>1-NORMSDIST((I85-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.60277535064933563</v>
       </c>
       <c r="K85" s="1">
-        <f>J85*F85</f>
+        <f t="shared" si="3"/>
         <v>8.4326085323999836E-2</v>
       </c>
     </row>
@@ -6001,11 +6001,11 @@
         <v>16.938788792374101</v>
       </c>
       <c r="J86" s="1">
-        <f>1-NORMSDIST((I86-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.88326939994709641</v>
       </c>
       <c r="K86" s="1">
-        <f>J86*F86</f>
+        <f t="shared" si="3"/>
         <v>8.4295419911963557E-2</v>
       </c>
     </row>
@@ -6038,11 +6038,11 @@
         <v>18.8199738575635</v>
       </c>
       <c r="J87" s="1">
-        <f>1-NORMSDIST((I87-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.42689927794503257</v>
       </c>
       <c r="K87" s="1">
-        <f>J87*F87</f>
+        <f t="shared" si="3"/>
         <v>8.3601108597568738E-2</v>
       </c>
     </row>
@@ -6075,11 +6075,11 @@
         <v>18.775733397261199</v>
       </c>
       <c r="J88" s="1">
-        <f>1-NORMSDIST((I88-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.43962516114168781</v>
       </c>
       <c r="K88" s="1">
-        <f>J88*F88</f>
+        <f t="shared" si="3"/>
         <v>8.3590699653700973E-2</v>
       </c>
     </row>
@@ -6112,11 +6112,11 @@
         <v>16.386285444444699</v>
       </c>
       <c r="J89" s="1">
-        <f>1-NORMSDIST((I89-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.94470553147780012</v>
       </c>
       <c r="K89" s="1">
-        <f>J89*F89</f>
+        <f t="shared" si="3"/>
         <v>8.3356370424511717E-2</v>
       </c>
     </row>
@@ -6149,11 +6149,11 @@
         <v>19.576570506575099</v>
       </c>
       <c r="J90" s="1">
-        <f>1-NORMSDIST((I90-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.2303804218515042</v>
       </c>
       <c r="K90" s="1">
-        <f>J90*F90</f>
+        <f t="shared" si="3"/>
         <v>8.3192930113043156E-2</v>
       </c>
     </row>
@@ -6186,11 +6186,11 @@
         <v>17.9254814802438</v>
       </c>
       <c r="J91" s="1">
-        <f>1-NORMSDIST((I91-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.68078454458041215</v>
       </c>
       <c r="K91" s="1">
-        <f>J91*F91</f>
+        <f t="shared" si="3"/>
         <v>8.3149257353332326E-2</v>
       </c>
     </row>
@@ -6223,11 +6223,11 @@
         <v>16.799922456633102</v>
       </c>
       <c r="J92" s="1">
-        <f>1-NORMSDIST((I92-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.90200261609547483</v>
       </c>
       <c r="K92" s="1">
-        <f>J92*F92</f>
+        <f t="shared" si="3"/>
         <v>8.2942769296135574E-2</v>
       </c>
     </row>
@@ -6260,11 +6260,11 @@
         <v>18.829034563657999</v>
       </c>
       <c r="J93" s="1">
-        <f>1-NORMSDIST((I93-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.42430185526322306</v>
       </c>
       <c r="K93" s="1">
-        <f>J93*F93</f>
+        <f t="shared" si="3"/>
         <v>8.2790605905019049E-2</v>
       </c>
     </row>
@@ -6297,11 +6297,11 @@
         <v>16.490809697098801</v>
       </c>
       <c r="J94" s="1">
-        <f>1-NORMSDIST((I94-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.93563260229067358</v>
       </c>
       <c r="K94" s="1">
-        <f>J94*F94</f>
+        <f t="shared" si="3"/>
         <v>8.2666334338934958E-2</v>
       </c>
     </row>
@@ -6334,11 +6334,11 @@
         <v>18.446404109589</v>
       </c>
       <c r="J95" s="1">
-        <f>1-NORMSDIST((I95-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.53543053035548305</v>
       </c>
       <c r="K95" s="1">
-        <f>J95*F95</f>
+        <f t="shared" si="3"/>
         <v>8.2373927746996936E-2</v>
       </c>
     </row>
@@ -6371,11 +6371,11 @@
         <v>17.822600064212299</v>
       </c>
       <c r="J96" s="1">
-        <f>1-NORMSDIST((I96-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.70716927952358799</v>
       </c>
       <c r="K96" s="1">
-        <f>J96*F96</f>
+        <f t="shared" si="3"/>
         <v>8.2228985991114278E-2</v>
       </c>
     </row>
@@ -6408,11 +6408,11 @@
         <v>17.445989783006102</v>
       </c>
       <c r="J97" s="1">
-        <f>1-NORMSDIST((I97-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.79405144265561245</v>
       </c>
       <c r="K97" s="1">
-        <f>J97*F97</f>
+        <f t="shared" si="3"/>
         <v>8.1631456721605017E-2</v>
       </c>
     </row>
@@ -6445,11 +6445,11 @@
         <v>19.550564587617899</v>
       </c>
       <c r="J98" s="1">
-        <f>1-NORMSDIST((I98-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.23620118825814373</v>
       </c>
       <c r="K98" s="1">
-        <f>J98*F98</f>
+        <f t="shared" si="3"/>
         <v>8.1063129698061079E-2</v>
       </c>
     </row>
@@ -6482,11 +6482,11 @@
         <v>18.7041234032238</v>
       </c>
       <c r="J99" s="1">
-        <f>1-NORMSDIST((I99-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.4603511095323235</v>
       </c>
       <c r="K99" s="1">
-        <f>J99*F99</f>
+        <f t="shared" si="3"/>
         <v>8.0763352549530404E-2</v>
       </c>
     </row>
@@ -6519,11 +6519,11 @@
         <v>18.895163146458898</v>
       </c>
       <c r="J100" s="1">
-        <f>1-NORMSDIST((I100-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.40545121210956458</v>
       </c>
       <c r="K100" s="1">
-        <f>J100*F100</f>
+        <f t="shared" si="3"/>
         <v>8.0686808380012812E-2</v>
       </c>
     </row>
@@ -6556,11 +6556,11 @@
         <v>16.100599315068401</v>
       </c>
       <c r="J101" s="1">
-        <f>1-NORMSDIST((I101-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.96442211149217005</v>
       </c>
       <c r="K101" s="1">
-        <f>J101*F101</f>
+        <f t="shared" si="3"/>
         <v>8.0368509291014134E-2</v>
       </c>
     </row>
@@ -6593,11 +6593,11 @@
         <v>18.441829193377401</v>
       </c>
       <c r="J102" s="1">
-        <f>1-NORMSDIST((I102-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.53675983036208041</v>
       </c>
       <c r="K102" s="1">
-        <f>J102*F102</f>
+        <f t="shared" si="3"/>
         <v>8.0263152203675123E-2</v>
       </c>
     </row>
@@ -6630,11 +6630,11 @@
         <v>18.129651423604301</v>
       </c>
       <c r="J103" s="1">
-        <f>1-NORMSDIST((I103-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.62573507971100195</v>
       </c>
       <c r="K103" s="1">
-        <f>J103*F103</f>
+        <f t="shared" si="3"/>
         <v>7.968162063735576E-2</v>
       </c>
     </row>
@@ -6667,11 +6667,11 @@
         <v>17.6533228779711</v>
       </c>
       <c r="J104" s="1">
-        <f>1-NORMSDIST((I104-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.7482302859190253</v>
       </c>
       <c r="K104" s="1">
-        <f>J104*F104</f>
+        <f t="shared" si="3"/>
         <v>7.7403133026105353E-2</v>
       </c>
     </row>
@@ -6704,11 +6704,11 @@
         <v>17.973540314725799</v>
       </c>
       <c r="J105" s="1">
-        <f>1-NORMSDIST((I105-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.66812695465792904</v>
       </c>
       <c r="K105" s="1">
-        <f>J105*F105</f>
+        <f t="shared" si="3"/>
         <v>7.7362068434075643E-2</v>
       </c>
     </row>
@@ -6741,11 +6741,11 @@
         <v>19.1681840297611</v>
       </c>
       <c r="J106" s="1">
-        <f>1-NORMSDIST((I106-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.33035614938493274</v>
       </c>
       <c r="K106" s="1">
-        <f>J106*F106</f>
+        <f t="shared" si="3"/>
         <v>7.6717778767116829E-2</v>
       </c>
     </row>
@@ -6778,11 +6778,11 @@
         <v>19.028334835222001</v>
       </c>
       <c r="J107" s="1">
-        <f>1-NORMSDIST((I107-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.36818877748174517</v>
       </c>
       <c r="K107" s="1">
-        <f>J107*F107</f>
+        <f t="shared" si="3"/>
         <v>7.6705995308696789E-2</v>
       </c>
     </row>
@@ -6815,11 +6815,11 @@
         <v>18.808258058012601</v>
       </c>
       <c r="J108" s="1">
-        <f>1-NORMSDIST((I108-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.4302625221070191</v>
       </c>
       <c r="K108" s="1">
-        <f>J108*F108</f>
+        <f t="shared" si="3"/>
         <v>7.5769500748405605E-2</v>
       </c>
     </row>
@@ -6852,11 +6852,11 @@
         <v>18.7103287397345</v>
       </c>
       <c r="J109" s="1">
-        <f>1-NORMSDIST((I109-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.45855001568655829</v>
       </c>
       <c r="K109" s="1">
-        <f>J109*F109</f>
+        <f t="shared" si="3"/>
         <v>7.5556536675625952E-2</v>
       </c>
     </row>
@@ -6889,11 +6889,11 @@
         <v>17.170523460183301</v>
       </c>
       <c r="J110" s="1">
-        <f>1-NORMSDIST((I110-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.84661334796260579</v>
       </c>
       <c r="K110" s="1">
-        <f>J110*F110</f>
+        <f t="shared" si="3"/>
         <v>7.5440793382806459E-2</v>
       </c>
     </row>
@@ -6926,11 +6926,11 @@
         <v>19.160459208002202</v>
       </c>
       <c r="J111" s="1">
-        <f>1-NORMSDIST((I111-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.33240547880928473</v>
       </c>
       <c r="K111" s="1">
-        <f>J111*F111</f>
+        <f t="shared" si="3"/>
         <v>7.4968044156987615E-2</v>
       </c>
     </row>
@@ -6963,11 +6963,11 @@
         <v>18.9851505227284</v>
       </c>
       <c r="J112" s="1">
-        <f>1-NORMSDIST((I112-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.38015553070155883</v>
       </c>
       <c r="K112" s="1">
-        <f>J112*F112</f>
+        <f t="shared" si="3"/>
         <v>7.454030013756055E-2</v>
       </c>
     </row>
@@ -7000,11 +7000,11 @@
         <v>19.737975701468901</v>
       </c>
       <c r="J113" s="1">
-        <f>1-NORMSDIST((I113-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.1960999072672005</v>
       </c>
       <c r="K113" s="1">
-        <f>J113*F113</f>
+        <f t="shared" si="3"/>
         <v>7.4382723446179466E-2</v>
       </c>
     </row>
@@ -7037,11 +7037,11 @@
         <v>19.3785934293055</v>
       </c>
       <c r="J114" s="1">
-        <f>1-NORMSDIST((I114-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.27665471862103874</v>
       </c>
       <c r="K114" s="1">
-        <f>J114*F114</f>
+        <f t="shared" si="3"/>
         <v>7.4325148286249088E-2</v>
       </c>
     </row>
@@ -7074,11 +7074,11 @@
         <v>16.938350813356099</v>
       </c>
       <c r="J115" s="1">
-        <f>1-NORMSDIST((I115-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.88333222315597659</v>
       </c>
       <c r="K115" s="1">
-        <f>J115*F115</f>
+        <f t="shared" si="3"/>
         <v>7.361101859633136E-2</v>
       </c>
     </row>
@@ -7111,11 +7111,11 @@
         <v>19.6666345290196</v>
       </c>
       <c r="J116" s="1">
-        <f>1-NORMSDIST((I116-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.21085417304841803</v>
       </c>
       <c r="K116" s="1">
-        <f>J116*F116</f>
+        <f t="shared" si="3"/>
         <v>7.322550779505721E-2</v>
       </c>
     </row>
@@ -7148,11 +7148,11 @@
         <v>19.4529358831706</v>
       </c>
       <c r="J117" s="1">
-        <f>1-NORMSDIST((I117-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.25875867372902928</v>
       </c>
       <c r="K117" s="1">
-        <f>J117*F117</f>
+        <f t="shared" si="3"/>
         <v>7.3201466910185836E-2</v>
       </c>
     </row>
@@ -7185,11 +7185,11 @@
         <v>18.057238583406999</v>
       </c>
       <c r="J118" s="1">
-        <f>1-NORMSDIST((I118-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.64562524367555163</v>
       </c>
       <c r="K118" s="1">
-        <f>J118*F118</f>
+        <f t="shared" si="3"/>
         <v>7.3170860949895639E-2</v>
       </c>
     </row>
@@ -7222,11 +7222,11 @@
         <v>18.8577901114698</v>
       </c>
       <c r="J119" s="1">
-        <f>1-NORMSDIST((I119-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.41608080594871732</v>
       </c>
       <c r="K119" s="1">
-        <f>J119*F119</f>
+        <f t="shared" si="3"/>
         <v>7.2757299400868572E-2</v>
       </c>
     </row>
@@ -7259,11 +7259,11 @@
         <v>17.896998059453999</v>
       </c>
       <c r="J120" s="1">
-        <f>1-NORMSDIST((I120-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.68818934650457508</v>
       </c>
       <c r="K120" s="1">
-        <f>J120*F120</f>
+        <f t="shared" si="3"/>
         <v>7.269605772935625E-2</v>
       </c>
     </row>
@@ -7296,11 +7296,11 @@
         <v>18.9980548784009</v>
       </c>
       <c r="J121" s="1">
-        <f>1-NORMSDIST((I121-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.37656699164628094</v>
       </c>
       <c r="K121" s="1">
-        <f>J121*F121</f>
+        <f t="shared" si="3"/>
         <v>7.2038902749722952E-2</v>
       </c>
     </row>
@@ -7333,11 +7333,11 @@
         <v>17.800059234346499</v>
       </c>
       <c r="J122" s="1">
-        <f>1-NORMSDIST((I122-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.71281205856493113</v>
       </c>
       <c r="K122" s="1">
-        <f>J122*F122</f>
+        <f t="shared" si="3"/>
         <v>7.172951532728862E-2</v>
       </c>
     </row>
@@ -7370,11 +7370,11 @@
         <v>17.8771029537671</v>
       </c>
       <c r="J123" s="1">
-        <f>1-NORMSDIST((I123-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.69331692876904127</v>
       </c>
       <c r="K123" s="1">
-        <f>J123*F123</f>
+        <f t="shared" si="3"/>
         <v>7.1722440907141541E-2</v>
       </c>
     </row>
@@ -7407,11 +7407,11 @@
         <v>18.995078734106499</v>
       </c>
       <c r="J124" s="1">
-        <f>1-NORMSDIST((I124-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.37739368685201791</v>
       </c>
       <c r="K124" s="1">
-        <f>J124*F124</f>
+        <f t="shared" si="3"/>
         <v>7.1608032889869777E-2</v>
       </c>
     </row>
@@ -7444,11 +7444,11 @@
         <v>17.916573381051101</v>
       </c>
       <c r="J125" s="1">
-        <f>1-NORMSDIST((I125-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.68310831805017935</v>
       </c>
       <c r="K125" s="1">
-        <f>J125*F125</f>
+        <f t="shared" si="3"/>
         <v>7.1563728557637318E-2</v>
       </c>
     </row>
@@ -7481,11 +7481,11 @@
         <v>18.664816189634301</v>
       </c>
       <c r="J126" s="1">
-        <f>1-NORMSDIST((I126-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.47177738139087844</v>
       </c>
       <c r="K126" s="1">
-        <f>J126*F126</f>
+        <f t="shared" si="3"/>
         <v>7.1275719490708017E-2</v>
       </c>
     </row>
@@ -7518,11 +7518,11 @@
         <v>17.9431337009636</v>
       </c>
       <c r="J127" s="1">
-        <f>1-NORMSDIST((I127-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.67615880093328862</v>
       </c>
       <c r="K127" s="1">
-        <f>J127*F127</f>
+        <f t="shared" si="3"/>
         <v>7.1174610624556128E-2</v>
       </c>
     </row>
@@ -7555,11 +7555,11 @@
         <v>17.762781052828899</v>
       </c>
       <c r="J128" s="1">
-        <f>1-NORMSDIST((I128-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.72202952400103226</v>
       </c>
       <c r="K128" s="1">
-        <f>J128*F128</f>
+        <f t="shared" si="3"/>
         <v>7.1019297442724477E-2</v>
       </c>
     </row>
@@ -7592,11 +7592,11 @@
         <v>18.378614226252001</v>
       </c>
       <c r="J129" s="1">
-        <f>1-NORMSDIST((I129-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="2"/>
         <v>0.55507930568074659</v>
       </c>
       <c r="K129" s="1">
-        <f>J129*F129</f>
+        <f t="shared" si="3"/>
         <v>7.052237080370094E-2</v>
       </c>
     </row>
@@ -7629,11 +7629,11 @@
         <v>18.164918443626899</v>
       </c>
       <c r="J130" s="1">
-        <f>1-NORMSDIST((I130-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J130:J193" si="4">1-NORMSDIST((I130-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>0.61592159217760023</v>
       </c>
       <c r="K130" s="1">
-        <f>J130*F130</f>
+        <f t="shared" ref="K130:K193" si="5">J130*F130</f>
         <v>6.9846778494366976E-2</v>
       </c>
     </row>
@@ -7666,11 +7666,11 @@
         <v>19.180957748432899</v>
       </c>
       <c r="J131" s="1">
-        <f>1-NORMSDIST((I131-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.32697855102333606</v>
       </c>
       <c r="K131" s="1">
-        <f>J131*F131</f>
+        <f t="shared" si="5"/>
         <v>6.9604345019818784E-2</v>
       </c>
     </row>
@@ -7703,11 +7703,11 @@
         <v>18.929507571703699</v>
       </c>
       <c r="J132" s="1">
-        <f>1-NORMSDIST((I132-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.3957439220452752</v>
       </c>
       <c r="K132" s="1">
-        <f>J132*F132</f>
+        <f t="shared" si="5"/>
         <v>6.925518635792316E-2</v>
       </c>
     </row>
@@ -7740,11 +7740,11 @@
         <v>19.028136954373199</v>
       </c>
       <c r="J133" s="1">
-        <f>1-NORMSDIST((I133-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.36824333143844179</v>
       </c>
       <c r="K133" s="1">
-        <f>J133*F133</f>
+        <f t="shared" si="5"/>
         <v>6.9153677265434726E-2</v>
       </c>
     </row>
@@ -7777,11 +7777,11 @@
         <v>18.757077124087999</v>
       </c>
       <c r="J134" s="1">
-        <f>1-NORMSDIST((I134-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.44501123679777699</v>
       </c>
       <c r="K134" s="1">
-        <f>J134*F134</f>
+        <f t="shared" si="5"/>
         <v>6.9127959114217472E-2</v>
       </c>
     </row>
@@ -7814,11 +7814,11 @@
         <v>18.1067891433288</v>
       </c>
       <c r="J135" s="1">
-        <f>1-NORMSDIST((I135-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.63205398911382271</v>
       </c>
       <c r="K135" s="1">
-        <f>J135*F135</f>
+        <f t="shared" si="5"/>
         <v>6.9047914777139924E-2</v>
       </c>
     </row>
@@ -7851,11 +7851,11 @@
         <v>19.151566035904999</v>
       </c>
       <c r="J136" s="1">
-        <f>1-NORMSDIST((I136-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.33477097758851704</v>
       </c>
       <c r="K136" s="1">
-        <f>J136*F136</f>
+        <f t="shared" si="5"/>
         <v>6.8965694953857556E-2</v>
       </c>
     </row>
@@ -7888,11 +7888,11 @@
         <v>18.797395484021401</v>
       </c>
       <c r="J137" s="1">
-        <f>1-NORMSDIST((I137-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.43338536370601188</v>
       </c>
       <c r="K137" s="1">
-        <f>J137*F137</f>
+        <f t="shared" si="5"/>
         <v>6.8593366917498261E-2</v>
       </c>
     </row>
@@ -7925,11 +7925,11 @@
         <v>18.8166374240013</v>
       </c>
       <c r="J138" s="1">
-        <f>1-NORMSDIST((I138-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.42785653500260445</v>
       </c>
       <c r="K138" s="1">
-        <f>J138*F138</f>
+        <f t="shared" si="5"/>
         <v>6.8313228277726554E-2</v>
       </c>
     </row>
@@ -7962,11 +7962,11 @@
         <v>19.042529965753399</v>
       </c>
       <c r="J139" s="1">
-        <f>1-NORMSDIST((I139-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.36428230454581367</v>
       </c>
       <c r="K139" s="1">
-        <f>J139*F139</f>
+        <f t="shared" si="5"/>
         <v>6.8302932102340064E-2</v>
       </c>
     </row>
@@ -7999,11 +7999,11 @@
         <v>19.332246547953702</v>
       </c>
       <c r="J140" s="1">
-        <f>1-NORMSDIST((I140-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.28811036750008101</v>
       </c>
       <c r="K140" s="1">
-        <f>J140*F140</f>
+        <f t="shared" si="5"/>
         <v>6.828049171967232E-2</v>
       </c>
     </row>
@@ -8036,11 +8036,11 @@
         <v>18.0553535392493</v>
       </c>
       <c r="J141" s="1">
-        <f>1-NORMSDIST((I141-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.64613802680347798</v>
       </c>
       <c r="K141" s="1">
-        <f>J141*F141</f>
+        <f t="shared" si="5"/>
         <v>6.7690650427030541E-2</v>
       </c>
     </row>
@@ -8073,11 +8073,11 @@
         <v>19.260805405850999</v>
       </c>
       <c r="J142" s="1">
-        <f>1-NORMSDIST((I142-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.30619438797370102</v>
       </c>
       <c r="K142" s="1">
-        <f>J142*F142</f>
+        <f t="shared" si="5"/>
         <v>6.7583445994195052E-2</v>
       </c>
     </row>
@@ -8110,11 +8110,11 @@
         <v>19.744075455907399</v>
       </c>
       <c r="J143" s="1">
-        <f>1-NORMSDIST((I143-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.19486813900995548</v>
       </c>
       <c r="K143" s="1">
-        <f>J143*F143</f>
+        <f t="shared" si="5"/>
         <v>6.74543558111384E-2</v>
       </c>
     </row>
@@ -8147,11 +8147,11 @@
         <v>18.448163144112002</v>
       </c>
       <c r="J144" s="1">
-        <f>1-NORMSDIST((I144-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.53491931444163976</v>
       </c>
       <c r="K144" s="1">
-        <f>J144*F144</f>
+        <f t="shared" si="5"/>
         <v>6.686491430520497E-2</v>
       </c>
     </row>
@@ -8184,11 +8184,11 @@
         <v>17.172581419997599</v>
       </c>
       <c r="J145" s="1">
-        <f>1-NORMSDIST((I145-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.84625691376269929</v>
       </c>
       <c r="K145" s="1">
-        <f>J145*F145</f>
+        <f t="shared" si="5"/>
         <v>6.6273131800693316E-2</v>
       </c>
     </row>
@@ -8221,11 +8221,11 @@
         <v>19.629448091895402</v>
       </c>
       <c r="J146" s="1">
-        <f>1-NORMSDIST((I146-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.21879612759062139</v>
       </c>
       <c r="K146" s="1">
-        <f>J146*F146</f>
+        <f t="shared" si="5"/>
         <v>6.597287816663755E-2</v>
       </c>
     </row>
@@ -8258,11 +8258,11 @@
         <v>19.2962817431508</v>
       </c>
       <c r="J147" s="1">
-        <f>1-NORMSDIST((I147-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.29715128880405173</v>
       </c>
       <c r="K147" s="1">
-        <f>J147*F147</f>
+        <f t="shared" si="5"/>
         <v>6.5812030406266459E-2</v>
       </c>
     </row>
@@ -8295,11 +8295,11 @@
         <v>19.524040358033901</v>
       </c>
       <c r="J148" s="1">
-        <f>1-NORMSDIST((I148-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.24222046170261868</v>
       </c>
       <c r="K148" s="1">
-        <f>J148*F148</f>
+        <f t="shared" si="5"/>
         <v>6.5745553890710684E-2</v>
       </c>
     </row>
@@ -8332,11 +8332,11 @@
         <v>18.205407146938501</v>
       </c>
       <c r="J149" s="1">
-        <f>1-NORMSDIST((I149-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.60456312599963824</v>
       </c>
       <c r="K149" s="1">
-        <f>J149*F149</f>
+        <f t="shared" si="5"/>
         <v>6.5713383260830219E-2</v>
       </c>
     </row>
@@ -8369,11 +8369,11 @@
         <v>18.5183402536492</v>
       </c>
       <c r="J150" s="1">
-        <f>1-NORMSDIST((I150-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.5144861167078334</v>
       </c>
       <c r="K150" s="1">
-        <f>J150*F150</f>
+        <f t="shared" si="5"/>
         <v>6.536503941779806E-2</v>
       </c>
     </row>
@@ -8406,11 +8406,11 @@
         <v>18.764915596114999</v>
       </c>
       <c r="J151" s="1">
-        <f>1-NORMSDIST((I151-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.44274697022583143</v>
       </c>
       <c r="K151" s="1">
-        <f>J151*F151</f>
+        <f t="shared" si="5"/>
         <v>6.5323323475942177E-2</v>
       </c>
     </row>
@@ -8443,11 +8443,11 @@
         <v>17.838295992643801</v>
       </c>
       <c r="J152" s="1">
-        <f>1-NORMSDIST((I152-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.70320987705970117</v>
       </c>
       <c r="K152" s="1">
-        <f>J152*F152</f>
+        <f t="shared" si="5"/>
         <v>6.4911680959357024E-2</v>
       </c>
     </row>
@@ -8480,11 +8480,11 @@
         <v>19.7103847519287</v>
       </c>
       <c r="J153" s="1">
-        <f>1-NORMSDIST((I153-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.20173029320669611</v>
       </c>
       <c r="K153" s="1">
-        <f>J153*F153</f>
+        <f t="shared" si="5"/>
         <v>6.4689883053624053E-2</v>
       </c>
     </row>
@@ -8517,11 +8517,11 @@
         <v>17.9838831617407</v>
       </c>
       <c r="J154" s="1">
-        <f>1-NORMSDIST((I154-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.66537696629965659</v>
       </c>
       <c r="K154" s="1">
-        <f>J154*F154</f>
+        <f t="shared" si="5"/>
         <v>6.4689427279133266E-2</v>
       </c>
     </row>
@@ -8554,11 +8554,11 @@
         <v>16.126626712328701</v>
       </c>
       <c r="J155" s="1">
-        <f>1-NORMSDIST((I155-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.96290561468351377</v>
       </c>
       <c r="K155" s="1">
-        <f>J155*F155</f>
+        <f t="shared" si="5"/>
         <v>6.4193707645567519E-2</v>
       </c>
     </row>
@@ -8591,11 +8591,11 @@
         <v>19.482931459322799</v>
       </c>
       <c r="J156" s="1">
-        <f>1-NORMSDIST((I156-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.25171147831292251</v>
       </c>
       <c r="K156" s="1">
-        <f>J156*F156</f>
+        <f t="shared" si="5"/>
         <v>6.3926724650900713E-2</v>
       </c>
     </row>
@@ -8628,11 +8628,11 @@
         <v>17.727093326589198</v>
       </c>
       <c r="J157" s="1">
-        <f>1-NORMSDIST((I157-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.73071625897046422</v>
       </c>
       <c r="K157" s="1">
-        <f>J157*F157</f>
+        <f t="shared" si="5"/>
         <v>6.3792689275199252E-2</v>
       </c>
     </row>
@@ -8665,11 +8665,11 @@
         <v>19.012351759819101</v>
       </c>
       <c r="J158" s="1">
-        <f>1-NORMSDIST((I158-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.37260363955290154</v>
       </c>
       <c r="K158" s="1">
-        <f>J158*F158</f>
+        <f t="shared" si="5"/>
         <v>6.3615255533422149E-2</v>
       </c>
     </row>
@@ -8702,11 +8702,11 @@
         <v>18.148014960178401</v>
       </c>
       <c r="J159" s="1">
-        <f>1-NORMSDIST((I159-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.62063490962763801</v>
       </c>
       <c r="K159" s="1">
-        <f>J159*F159</f>
+        <f t="shared" si="5"/>
         <v>6.3589642379880559E-2</v>
       </c>
     </row>
@@ -8739,11 +8739,11 @@
         <v>18.143024772126001</v>
       </c>
       <c r="J160" s="1">
-        <f>1-NORMSDIST((I160-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.62202297318383093</v>
       </c>
       <c r="K160" s="1">
-        <f>J160*F160</f>
+        <f t="shared" si="5"/>
         <v>6.3539981131681272E-2</v>
       </c>
     </row>
@@ -8776,11 +8776,11 @@
         <v>19.0144944055087</v>
       </c>
       <c r="J161" s="1">
-        <f>1-NORMSDIST((I161-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.37201080862259683</v>
       </c>
       <c r="K161" s="1">
-        <f>J161*F161</f>
+        <f t="shared" si="5"/>
         <v>6.3320988701718303E-2</v>
       </c>
     </row>
@@ -8813,11 +8813,11 @@
         <v>18.6536426965191</v>
       </c>
       <c r="J162" s="1">
-        <f>1-NORMSDIST((I162-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.47503007934869446</v>
       </c>
       <c r="K162" s="1">
-        <f>J162*F162</f>
+        <f t="shared" si="5"/>
         <v>6.2813894789909688E-2</v>
       </c>
     </row>
@@ -8850,11 +8850,11 @@
         <v>19.693946460303199</v>
       </c>
       <c r="J163" s="1">
-        <f>1-NORMSDIST((I163-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.20513034350878723</v>
       </c>
       <c r="K163" s="1">
-        <f>J163*F163</f>
+        <f t="shared" si="5"/>
         <v>6.2393812817255971E-2</v>
       </c>
     </row>
@@ -8887,11 +8887,11 @@
         <v>18.006534103746802</v>
       </c>
       <c r="J164" s="1">
-        <f>1-NORMSDIST((I164-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.65932355402896337</v>
       </c>
       <c r="K164" s="1">
-        <f>J164*F164</f>
+        <f t="shared" si="5"/>
         <v>6.2015581814605432E-2</v>
       </c>
     </row>
@@ -8924,11 +8924,11 @@
         <v>15.439383561643799</v>
       </c>
       <c r="J165" s="1">
-        <f>1-NORMSDIST((I165-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.98893263400319908</v>
       </c>
       <c r="K165" s="1">
-        <f>J165*F165</f>
+        <f t="shared" si="5"/>
         <v>6.1808289625199943E-2</v>
       </c>
     </row>
@@ -8961,11 +8961,11 @@
         <v>19.9527571672389</v>
       </c>
       <c r="J166" s="1">
-        <f>1-NORMSDIST((I166-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.15559920777622438</v>
       </c>
       <c r="K166" s="1">
-        <f>J166*F166</f>
+        <f t="shared" si="5"/>
         <v>6.1363067855412338E-2</v>
       </c>
     </row>
@@ -8998,11 +8998,11 @@
         <v>19.779249845856398</v>
       </c>
       <c r="J167" s="1">
-        <f>1-NORMSDIST((I167-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.18785733111124903</v>
       </c>
       <c r="K167" s="1">
-        <f>J167*F167</f>
+        <f t="shared" si="5"/>
         <v>6.123983481159645E-2</v>
       </c>
     </row>
@@ -9035,11 +9035,11 @@
         <v>19.0710453506072</v>
       </c>
       <c r="J168" s="1">
-        <f>1-NORMSDIST((I168-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.35647775334589193</v>
       </c>
       <c r="K168" s="1">
-        <f>J168*F168</f>
+        <f t="shared" si="5"/>
         <v>6.09764578091656E-2</v>
       </c>
     </row>
@@ -9072,11 +9072,11 @@
         <v>17.405654398465298</v>
       </c>
       <c r="J169" s="1">
-        <f>1-NORMSDIST((I169-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.80235360933781363</v>
       </c>
       <c r="K169" s="1">
-        <f>J169*F169</f>
+        <f t="shared" si="5"/>
         <v>6.0938248810466861E-2</v>
       </c>
     </row>
@@ -9109,11 +9109,11 @@
         <v>15.991237692636901</v>
       </c>
       <c r="J170" s="1">
-        <f>1-NORMSDIST((I170-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.97024869584792262</v>
       </c>
       <c r="K170" s="1">
-        <f>J170*F170</f>
+        <f t="shared" si="5"/>
         <v>6.0640543490495163E-2</v>
       </c>
     </row>
@@ -9146,11 +9146,11 @@
         <v>19.643202212774298</v>
       </c>
       <c r="J171" s="1">
-        <f>1-NORMSDIST((I171-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.21583877385793326</v>
       </c>
       <c r="K171" s="1">
-        <f>J171*F171</f>
+        <f t="shared" si="5"/>
         <v>6.0185811941154292E-2</v>
       </c>
     </row>
@@ -9183,11 +9183,11 @@
         <v>19.088947332836501</v>
       </c>
       <c r="J172" s="1">
-        <f>1-NORMSDIST((I172-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.35160834187543411</v>
       </c>
       <c r="K172" s="1">
-        <f>J172*F172</f>
+        <f t="shared" si="5"/>
         <v>5.97734181188238E-2</v>
       </c>
     </row>
@@ -9220,11 +9220,11 @@
         <v>19.761523492065901</v>
       </c>
       <c r="J173" s="1">
-        <f>1-NORMSDIST((I173-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.19137079415711911</v>
       </c>
       <c r="K173" s="1">
-        <f>J173*F173</f>
+        <f t="shared" si="5"/>
         <v>5.96072965407419E-2</v>
       </c>
     </row>
@@ -9257,11 +9257,11 @@
         <v>18.6610136710128</v>
       </c>
       <c r="J174" s="1">
-        <f>1-NORMSDIST((I174-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.4728841262443253</v>
       </c>
       <c r="K174" s="1">
-        <f>J174*F174</f>
+        <f t="shared" si="5"/>
         <v>5.936640545924405E-2</v>
       </c>
     </row>
@@ -9294,11 +9294,11 @@
         <v>17.836682357185499</v>
       </c>
       <c r="J175" s="1">
-        <f>1-NORMSDIST((I175-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.70361805568463909</v>
       </c>
       <c r="K175" s="1">
-        <f>J175*F175</f>
+        <f t="shared" si="5"/>
         <v>5.8634837973719899E-2</v>
       </c>
     </row>
@@ -9331,11 +9331,11 @@
         <v>18.042683792408599</v>
       </c>
       <c r="J176" s="1">
-        <f>1-NORMSDIST((I176-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.64957762494340721</v>
       </c>
       <c r="K176" s="1">
-        <f>J176*F176</f>
+        <f t="shared" si="5"/>
         <v>5.7998002227089875E-2</v>
       </c>
     </row>
@@ -9368,11 +9368,11 @@
         <v>17.797928377521501</v>
       </c>
       <c r="J177" s="1">
-        <f>1-NORMSDIST((I177-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.71334281465682348</v>
       </c>
       <c r="K177" s="1">
-        <f>J177*F177</f>
+        <f t="shared" si="5"/>
         <v>5.7243559200856192E-2</v>
       </c>
     </row>
@@ -9405,11 +9405,11 @@
         <v>17.704245413102001</v>
       </c>
       <c r="J178" s="1">
-        <f>1-NORMSDIST((I178-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.73620526981991707</v>
       </c>
       <c r="K178" s="1">
-        <f>J178*F178</f>
+        <f t="shared" si="5"/>
         <v>5.7180991830673128E-2</v>
       </c>
     </row>
@@ -9442,11 +9442,11 @@
         <v>18.082285590398101</v>
       </c>
       <c r="J179" s="1">
-        <f>1-NORMSDIST((I179-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.63878703592754382</v>
       </c>
       <c r="K179" s="1">
-        <f>J179*F179</f>
+        <f t="shared" si="5"/>
         <v>5.6697074194752381E-2</v>
       </c>
     </row>
@@ -9479,11 +9479,11 @@
         <v>18.5702990916683</v>
       </c>
       <c r="J180" s="1">
-        <f>1-NORMSDIST((I180-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.4993299036612715</v>
       </c>
       <c r="K180" s="1">
-        <f>J180*F180</f>
+        <f t="shared" si="5"/>
         <v>5.6692478144947787E-2</v>
       </c>
     </row>
@@ -9516,11 +9516,11 @@
         <v>17.701378736352599</v>
       </c>
       <c r="J181" s="1">
-        <f>1-NORMSDIST((I181-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.73688991355624056</v>
       </c>
       <c r="K181" s="1">
-        <f>J181*F181</f>
+        <f t="shared" si="5"/>
         <v>5.6683839504326178E-2</v>
       </c>
     </row>
@@ -9553,11 +9553,11 @@
         <v>16.681276894222901</v>
       </c>
       <c r="J182" s="1">
-        <f>1-NORMSDIST((I182-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.91617834432074996</v>
       </c>
       <c r="K182" s="1">
-        <f>J182*F182</f>
+        <f t="shared" si="5"/>
         <v>5.6670825421901987E-2</v>
       </c>
     </row>
@@ -9590,11 +9590,11 @@
         <v>19.163750158838599</v>
       </c>
       <c r="J183" s="1">
-        <f>1-NORMSDIST((I183-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.33153180043242969</v>
       </c>
       <c r="K183" s="1">
-        <f>J183*F183</f>
+        <f t="shared" si="5"/>
         <v>5.657090245473978E-2</v>
       </c>
     </row>
@@ -9627,11 +9627,11 @@
         <v>19.976255206111801</v>
       </c>
       <c r="J184" s="1">
-        <f>1-NORMSDIST((I184-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.15152956000742845</v>
       </c>
       <c r="K184" s="1">
-        <f>J184*F184</f>
+        <f t="shared" si="5"/>
         <v>5.598382758895129E-2</v>
       </c>
     </row>
@@ -9664,11 +9664,11 @@
         <v>16.3920782572504</v>
       </c>
       <c r="J185" s="1">
-        <f>1-NORMSDIST((I185-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.94423066756083396</v>
       </c>
       <c r="K185" s="1">
-        <f>J185*F185</f>
+        <f t="shared" si="5"/>
         <v>5.5954409929530845E-2</v>
       </c>
     </row>
@@ -9701,11 +9701,11 @@
         <v>17.8772478182021</v>
       </c>
       <c r="J186" s="1">
-        <f>1-NORMSDIST((I186-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.69327972749918065</v>
       </c>
       <c r="K186" s="1">
-        <f>J186*F186</f>
+        <f t="shared" si="5"/>
         <v>5.5909655443482253E-2</v>
       </c>
     </row>
@@ -9738,11 +9738,11 @@
         <v>19.869972547952301</v>
       </c>
       <c r="J187" s="1">
-        <f>1-NORMSDIST((I187-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.17050593194537456</v>
       </c>
       <c r="K187" s="1">
-        <f>J187*F187</f>
+        <f t="shared" si="5"/>
         <v>5.5494855208635958E-2</v>
       </c>
     </row>
@@ -9775,11 +9775,11 @@
         <v>20.119287615815601</v>
       </c>
       <c r="J188" s="1">
-        <f>1-NORMSDIST((I188-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.12829263623720877</v>
       </c>
       <c r="K188" s="1">
-        <f>J188*F188</f>
+        <f t="shared" si="5"/>
         <v>5.5459837540043293E-2</v>
       </c>
     </row>
@@ -9812,11 +9812,11 @@
         <v>19.153847860997001</v>
       </c>
       <c r="J189" s="1">
-        <f>1-NORMSDIST((I189-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.33416340357152041</v>
       </c>
       <c r="K189" s="1">
-        <f>J189*F189</f>
+        <f t="shared" si="5"/>
         <v>5.5255365944896939E-2</v>
       </c>
     </row>
@@ -9849,11 +9849,11 @@
         <v>20.010771378004499</v>
       </c>
       <c r="J190" s="1">
-        <f>1-NORMSDIST((I190-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.14568109883490377</v>
       </c>
       <c r="K190" s="1">
-        <f>J190*F190</f>
+        <f t="shared" si="5"/>
         <v>5.5230746261584376E-2</v>
       </c>
     </row>
@@ -9886,11 +9886,11 @@
         <v>18.198848175971101</v>
       </c>
       <c r="J191" s="1">
-        <f>1-NORMSDIST((I191-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.60640946289127906</v>
       </c>
       <c r="K191" s="1">
-        <f>J191*F191</f>
+        <f t="shared" si="5"/>
         <v>5.512813299011627E-2</v>
       </c>
     </row>
@@ -9923,11 +9923,11 @@
         <v>19.898380251096999</v>
       </c>
       <c r="J192" s="1">
-        <f>1-NORMSDIST((I192-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.16529076393886399</v>
       </c>
       <c r="K192" s="1">
-        <f>J192*F192</f>
+        <f t="shared" si="5"/>
         <v>5.5096921312954607E-2</v>
       </c>
     </row>
@@ -9960,11 +9960,11 @@
         <v>19.7683930371286</v>
       </c>
       <c r="J193" s="1">
-        <f>1-NORMSDIST((I193-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="4"/>
         <v>0.19000445912491026</v>
       </c>
       <c r="K193" s="1">
-        <f>J193*F193</f>
+        <f t="shared" si="5"/>
         <v>5.4959967515469825E-2</v>
       </c>
     </row>
@@ -9997,11 +9997,11 @@
         <v>16.717899293335101</v>
       </c>
       <c r="J194" s="1">
-        <f>1-NORMSDIST((I194-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J194:J257" si="6">1-NORMSDIST((I194-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>0.9119774522860763</v>
       </c>
       <c r="K194" s="1">
-        <f>J194*F194</f>
+        <f t="shared" ref="K194:K257" si="7">J194*F194</f>
         <v>5.4718647137164574E-2</v>
       </c>
     </row>
@@ -10034,11 +10034,11 @@
         <v>18.895344493943</v>
       </c>
       <c r="J195" s="1">
-        <f>1-NORMSDIST((I195-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.4053997963453192</v>
       </c>
       <c r="K195" s="1">
-        <f>J195*F195</f>
+        <f t="shared" si="7"/>
         <v>5.4696797919606181E-2</v>
       </c>
     </row>
@@ -10071,11 +10071,11 @@
         <v>19.6778799826171</v>
       </c>
       <c r="J196" s="1">
-        <f>1-NORMSDIST((I196-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.20848617546987336</v>
       </c>
       <c r="K196" s="1">
-        <f>J196*F196</f>
+        <f t="shared" si="7"/>
         <v>5.455713002949953E-2</v>
       </c>
     </row>
@@ -10108,11 +10108,11 @@
         <v>19.934778609825901</v>
       </c>
       <c r="J197" s="1">
-        <f>1-NORMSDIST((I197-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.1587611720071328</v>
       </c>
       <c r="K197" s="1">
-        <f>J197*F197</f>
+        <f t="shared" si="7"/>
         <v>5.443240183101683E-2</v>
       </c>
     </row>
@@ -10145,11 +10145,11 @@
         <v>17.698569965246602</v>
       </c>
       <c r="J198" s="1">
-        <f>1-NORMSDIST((I198-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.73755984605659486</v>
       </c>
       <c r="K198" s="1">
-        <f>J198*F198</f>
+        <f t="shared" si="7"/>
         <v>5.4232341621808386E-2</v>
       </c>
     </row>
@@ -10182,11 +10182,11 @@
         <v>19.204377030012701</v>
       </c>
       <c r="J199" s="1">
-        <f>1-NORMSDIST((I199-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.32082290564593485</v>
       </c>
       <c r="K199" s="1">
-        <f>J199*F199</f>
+        <f t="shared" si="7"/>
         <v>5.418342406464649E-2</v>
       </c>
     </row>
@@ -10219,11 +10219,11 @@
         <v>19.960459208013798</v>
       </c>
       <c r="J200" s="1">
-        <f>1-NORMSDIST((I200-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.15425741484925126</v>
       </c>
       <c r="K200" s="1">
-        <f>J200*F200</f>
+        <f t="shared" si="7"/>
         <v>5.3990095197237936E-2</v>
       </c>
     </row>
@@ -10256,11 +10256,11 @@
         <v>18.660365296445999</v>
       </c>
       <c r="J201" s="1">
-        <f>1-NORMSDIST((I201-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.47307286050968966</v>
       </c>
       <c r="K201" s="1">
-        <f>J201*F201</f>
+        <f t="shared" si="7"/>
         <v>5.389437651376193E-2</v>
       </c>
     </row>
@@ -10293,11 +10293,11 @@
         <v>19.0675559156617</v>
       </c>
       <c r="J202" s="1">
-        <f>1-NORMSDIST((I202-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.35742965422405482</v>
       </c>
       <c r="K202" s="1">
-        <f>J202*F202</f>
+        <f t="shared" si="7"/>
         <v>5.3685086405193989E-2</v>
       </c>
     </row>
@@ -10330,11 +10330,11 @@
         <v>18.6784526625799</v>
       </c>
       <c r="J203" s="1">
-        <f>1-NORMSDIST((I203-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.4678102598590832</v>
       </c>
       <c r="K203" s="1">
-        <f>J203*F203</f>
+        <f t="shared" si="7"/>
         <v>5.3346784019018149E-2</v>
       </c>
     </row>
@@ -10367,11 +10367,11 @@
         <v>17.143396933391202</v>
       </c>
       <c r="J204" s="1">
-        <f>1-NORMSDIST((I204-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.85126041759437321</v>
       </c>
       <c r="K204" s="1">
-        <f>J204*F204</f>
+        <f t="shared" si="7"/>
         <v>5.3203776099648326E-2</v>
       </c>
     </row>
@@ -10404,11 +10404,11 @@
         <v>20.041973632211398</v>
       </c>
       <c r="J205" s="1">
-        <f>1-NORMSDIST((I205-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.14052644325322183</v>
       </c>
       <c r="K205" s="1">
-        <f>J205*F205</f>
+        <f t="shared" si="7"/>
         <v>5.3028846510649645E-2</v>
       </c>
     </row>
@@ -10441,11 +10441,11 @@
         <v>18.095890410958901</v>
       </c>
       <c r="J206" s="1">
-        <f>1-NORMSDIST((I206-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.6350538795058065</v>
       </c>
       <c r="K206" s="1">
-        <f>J206*F206</f>
+        <f t="shared" si="7"/>
         <v>5.2921156625483856E-2</v>
       </c>
     </row>
@@ -10478,11 +10478,11 @@
         <v>20.196083596651398</v>
       </c>
       <c r="J207" s="1">
-        <f>1-NORMSDIST((I207-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.11689312438222965</v>
       </c>
       <c r="K207" s="1">
-        <f>J207*F207</f>
+        <f t="shared" si="7"/>
         <v>5.2757073836227478E-2</v>
       </c>
     </row>
@@ -10515,11 +10515,11 @@
         <v>17.1350417102155</v>
       </c>
       <c r="J208" s="1">
-        <f>1-NORMSDIST((I208-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.85267260206287798</v>
       </c>
       <c r="K208" s="1">
-        <f>J208*F208</f>
+        <f t="shared" si="7"/>
         <v>5.2674755339791629E-2</v>
       </c>
     </row>
@@ -10552,11 +10552,11 @@
         <v>18.666387814038401</v>
       </c>
       <c r="J209" s="1">
-        <f>1-NORMSDIST((I209-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.47132001424699355</v>
       </c>
       <c r="K209" s="1">
-        <f>J209*F209</f>
+        <f t="shared" si="7"/>
         <v>5.2368890471888113E-2</v>
       </c>
     </row>
@@ -10589,11 +10589,11 @@
         <v>18.255675792326599</v>
       </c>
       <c r="J210" s="1">
-        <f>1-NORMSDIST((I210-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.59033751854249639</v>
       </c>
       <c r="K210" s="1">
-        <f>J210*F210</f>
+        <f t="shared" si="7"/>
         <v>5.1897803827911766E-2</v>
       </c>
     </row>
@@ -10626,11 +10626,11 @@
         <v>18.850177682470001</v>
       </c>
       <c r="J211" s="1">
-        <f>1-NORMSDIST((I211-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.41825374098645907</v>
       </c>
       <c r="K211" s="1">
-        <f>J211*F211</f>
+        <f t="shared" si="7"/>
         <v>5.1819047555844273E-2</v>
       </c>
     </row>
@@ -10663,11 +10663,11 @@
         <v>18.6531155366105</v>
       </c>
       <c r="J212" s="1">
-        <f>1-NORMSDIST((I212-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.4751835828689781</v>
       </c>
       <c r="K212" s="1">
-        <f>J212*F212</f>
+        <f t="shared" si="7"/>
         <v>5.1797262587613309E-2</v>
       </c>
     </row>
@@ -10700,11 +10700,11 @@
         <v>17.611940948277301</v>
       </c>
       <c r="J213" s="1">
-        <f>1-NORMSDIST((I213-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.75778487683341988</v>
       </c>
       <c r="K213" s="1">
-        <f>J213*F213</f>
+        <f t="shared" si="7"/>
         <v>5.1375245887011499E-2</v>
       </c>
     </row>
@@ -10737,11 +10737,11 @@
         <v>18.228178784719901</v>
       </c>
       <c r="J214" s="1">
-        <f>1-NORMSDIST((I214-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.59813496781120268</v>
       </c>
       <c r="K214" s="1">
-        <f>J214*F214</f>
+        <f t="shared" si="7"/>
         <v>5.1268711526674504E-2</v>
       </c>
     </row>
@@ -10774,11 +10774,11 @@
         <v>19.768399387679601</v>
       </c>
       <c r="J215" s="1">
-        <f>1-NORMSDIST((I215-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.19000319879708161</v>
       </c>
       <c r="K215" s="1">
-        <f>J215*F215</f>
+        <f t="shared" si="7"/>
         <v>5.0845926438655466E-2</v>
       </c>
     </row>
@@ -10811,11 +10811,11 @@
         <v>17.765459954248701</v>
       </c>
       <c r="J216" s="1">
-        <f>1-NORMSDIST((I216-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.721371976737049</v>
       </c>
       <c r="K216" s="1">
-        <f>J216*F216</f>
+        <f t="shared" si="7"/>
         <v>5.0622594858740259E-2</v>
       </c>
     </row>
@@ -10848,11 +10848,11 @@
         <v>17.186241198123302</v>
       </c>
       <c r="J217" s="1">
-        <f>1-NORMSDIST((I217-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.84387718121516286</v>
       </c>
       <c r="K217" s="1">
-        <f>J217*F217</f>
+        <f t="shared" si="7"/>
         <v>5.0488378363300314E-2</v>
       </c>
     </row>
@@ -10885,11 +10885,11 @@
         <v>18.882986915695</v>
       </c>
       <c r="J218" s="1">
-        <f>1-NORMSDIST((I218-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.40890711486190101</v>
       </c>
       <c r="K218" s="1">
-        <f>J218*F218</f>
+        <f t="shared" si="7"/>
         <v>5.019076500109964E-2</v>
       </c>
     </row>
@@ -10922,11 +10922,11 @@
         <v>18.0185708711202</v>
       </c>
       <c r="J219" s="1">
-        <f>1-NORMSDIST((I219-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.65608985646083195</v>
       </c>
       <c r="K219" s="1">
-        <f>J219*F219</f>
+        <f t="shared" si="7"/>
         <v>4.9829609351455591E-2</v>
       </c>
     </row>
@@ -10959,11 +10959,11 @@
         <v>19.5514807068786</v>
       </c>
       <c r="J220" s="1">
-        <f>1-NORMSDIST((I220-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.23599477111457079</v>
       </c>
       <c r="K220" s="1">
-        <f>J220*F220</f>
+        <f t="shared" si="7"/>
         <v>4.9165577315535502E-2</v>
       </c>
     </row>
@@ -10996,11 +10996,11 @@
         <v>17.601064068942399</v>
       </c>
       <c r="J221" s="1">
-        <f>1-NORMSDIST((I221-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.76026319790463692</v>
       </c>
       <c r="K221" s="1">
-        <f>J221*F221</f>
+        <f t="shared" si="7"/>
         <v>4.9154948140385998E-2</v>
       </c>
     </row>
@@ -11033,11 +11033,11 @@
         <v>18.4367841037189</v>
       </c>
       <c r="J222" s="1">
-        <f>1-NORMSDIST((I222-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.53822526889943045</v>
       </c>
       <c r="K222" s="1">
-        <f>J222*F222</f>
+        <f t="shared" si="7"/>
         <v>4.9115613891963221E-2</v>
       </c>
     </row>
@@ -11070,11 +11070,11 @@
         <v>18.5150838773544</v>
       </c>
       <c r="J223" s="1">
-        <f>1-NORMSDIST((I223-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.51543552164459938</v>
       </c>
       <c r="K223" s="1">
-        <f>J223*F223</f>
+        <f t="shared" si="7"/>
         <v>4.9089097299485636E-2</v>
       </c>
     </row>
@@ -11107,11 +11107,11 @@
         <v>17.692097618584899</v>
       </c>
       <c r="J224" s="1">
-        <f>1-NORMSDIST((I224-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.7391002624192532</v>
       </c>
       <c r="K224" s="1">
-        <f>J224*F224</f>
+        <f t="shared" si="7"/>
         <v>4.8947037246308153E-2</v>
       </c>
     </row>
@@ -11144,11 +11144,11 @@
         <v>19.218075660162601</v>
       </c>
       <c r="J225" s="1">
-        <f>1-NORMSDIST((I225-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.3172448498259729</v>
       </c>
       <c r="K225" s="1">
-        <f>J225*F225</f>
+        <f t="shared" si="7"/>
         <v>4.8806899973226327E-2</v>
       </c>
     </row>
@@ -11181,11 +11181,11 @@
         <v>16.663717674503701</v>
       </c>
       <c r="J226" s="1">
-        <f>1-NORMSDIST((I226-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.91813831235419541</v>
       </c>
       <c r="K226" s="1">
-        <f>J226*F226</f>
+        <f t="shared" si="7"/>
         <v>4.8750706850665182E-2</v>
       </c>
     </row>
@@ -11218,11 +11218,11 @@
         <v>16.727558734779102</v>
       </c>
       <c r="J227" s="1">
-        <f>1-NORMSDIST((I227-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.91084370299950579</v>
       </c>
       <c r="K227" s="1">
-        <f>J227*F227</f>
+        <f t="shared" si="7"/>
         <v>4.857833082664028E-2</v>
       </c>
     </row>
@@ -11255,11 +11255,11 @@
         <v>17.814493765009999</v>
       </c>
       <c r="J228" s="1">
-        <f>1-NORMSDIST((I228-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.70920449871212476</v>
       </c>
       <c r="K228" s="1">
-        <f>J228*F228</f>
+        <f t="shared" si="7"/>
         <v>4.8470811063058894E-2</v>
       </c>
     </row>
@@ -11292,11 +11292,11 @@
         <v>19.304242123288301</v>
       </c>
       <c r="J229" s="1">
-        <f>1-NORMSDIST((I229-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.29513904071572816</v>
       </c>
       <c r="K229" s="1">
-        <f>J229*F229</f>
+        <f t="shared" si="7"/>
         <v>4.8326860468072289E-2</v>
       </c>
     </row>
@@ -11329,11 +11329,11 @@
         <v>16.307249892799</v>
       </c>
       <c r="J230" s="1">
-        <f>1-NORMSDIST((I230-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.95087043449526254</v>
       </c>
       <c r="K230" s="1">
-        <f>J230*F230</f>
+        <f t="shared" si="7"/>
         <v>4.8145338455456273E-2</v>
       </c>
     </row>
@@ -11366,11 +11366,11 @@
         <v>19.540408384309998</v>
       </c>
       <c r="J231" s="1">
-        <f>1-NORMSDIST((I231-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.23849620146696837</v>
       </c>
       <c r="K231" s="1">
-        <f>J231*F231</f>
+        <f t="shared" si="7"/>
         <v>4.7699240293393674E-2</v>
       </c>
     </row>
@@ -11403,11 +11403,11 @@
         <v>18.118692489950501</v>
       </c>
       <c r="J232" s="1">
-        <f>1-NORMSDIST((I232-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.62876835647957008</v>
       </c>
       <c r="K232" s="1">
-        <f>J232*F232</f>
+        <f t="shared" si="7"/>
         <v>4.7033853437448148E-2</v>
       </c>
     </row>
@@ -11440,11 +11440,11 @@
         <v>18.522260273972599</v>
       </c>
       <c r="J233" s="1">
-        <f>1-NORMSDIST((I233-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.51334311619088457</v>
       </c>
       <c r="K233" s="1">
-        <f>J233*F233</f>
+        <f t="shared" si="7"/>
         <v>4.6667556017353139E-2</v>
       </c>
     </row>
@@ -11477,11 +11477,11 @@
         <v>18.3087623277309</v>
       </c>
       <c r="J234" s="1">
-        <f>1-NORMSDIST((I234-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.57518462783245583</v>
       </c>
       <c r="K234" s="1">
-        <f>J234*F234</f>
+        <f t="shared" si="7"/>
         <v>4.6636591445874752E-2</v>
       </c>
     </row>
@@ -11514,11 +11514,11 @@
         <v>17.077879944194098</v>
       </c>
       <c r="J235" s="1">
-        <f>1-NORMSDIST((I235-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.86209251902383921</v>
       </c>
       <c r="K235" s="1">
-        <f>J235*F235</f>
+        <f t="shared" si="7"/>
         <v>4.6485380927755969E-2</v>
       </c>
     </row>
@@ -11551,11 +11551,11 @@
         <v>18.0885555247852</v>
       </c>
       <c r="J236" s="1">
-        <f>1-NORMSDIST((I236-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.63706818556572165</v>
       </c>
       <c r="K236" s="1">
-        <f>J236*F236</f>
+        <f t="shared" si="7"/>
         <v>4.6452888530833826E-2</v>
       </c>
     </row>
@@ -11588,11 +11588,11 @@
         <v>17.888947332837802</v>
       </c>
       <c r="J237" s="1">
-        <f>1-NORMSDIST((I237-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.69026873920212928</v>
       </c>
       <c r="K237" s="1">
-        <f>J237*F237</f>
+        <f t="shared" si="7"/>
         <v>4.6238097362822021E-2</v>
       </c>
     </row>
@@ -11625,11 +11625,11 @@
         <v>17.878196718219701</v>
       </c>
       <c r="J238" s="1">
-        <f>1-NORMSDIST((I238-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.69303600021091993</v>
       </c>
       <c r="K238" s="1">
-        <f>J238*F238</f>
+        <f t="shared" si="7"/>
         <v>4.6202400014061278E-2</v>
       </c>
     </row>
@@ -11662,11 +11662,11 @@
         <v>19.149444642785401</v>
       </c>
       <c r="J239" s="1">
-        <f>1-NORMSDIST((I239-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.33533622222503279</v>
       </c>
       <c r="K239" s="1">
-        <f>J239*F239</f>
+        <f t="shared" si="7"/>
         <v>4.6026540305396546E-2</v>
       </c>
     </row>
@@ -11699,11 +11699,11 @@
         <v>17.777448788973601</v>
       </c>
       <c r="J240" s="1">
-        <f>1-NORMSDIST((I240-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.71842002325857901</v>
       </c>
       <c r="K240" s="1">
-        <f>J240*F240</f>
+        <f t="shared" si="7"/>
         <v>4.6019787966741679E-2</v>
       </c>
     </row>
@@ -11736,11 +11736,11 @@
         <v>15.6971676343107</v>
       </c>
       <c r="J241" s="1">
-        <f>1-NORMSDIST((I241-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.9821145919289328</v>
       </c>
       <c r="K241" s="1">
-        <f>J241*F241</f>
+        <f t="shared" si="7"/>
         <v>4.5679748461810783E-2</v>
       </c>
     </row>
@@ -11773,11 +11773,11 @@
         <v>20.0196012667455</v>
       </c>
       <c r="J242" s="1">
-        <f>1-NORMSDIST((I242-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.14420965911628947</v>
       </c>
       <c r="K242" s="1">
-        <f>J242*F242</f>
+        <f t="shared" si="7"/>
         <v>4.5599892210684279E-2</v>
       </c>
     </row>
@@ -11810,11 +11810,11 @@
         <v>19.659931506849301</v>
       </c>
       <c r="J243" s="1">
-        <f>1-NORMSDIST((I243-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.21227312501327578</v>
       </c>
       <c r="K243" s="1">
-        <f>J243*F243</f>
+        <f t="shared" si="7"/>
         <v>4.5487098217130463E-2</v>
       </c>
     </row>
@@ -11847,11 +11847,11 @@
         <v>19.164806586522801</v>
       </c>
       <c r="J244" s="1">
-        <f>1-NORMSDIST((I244-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.33125153500321536</v>
       </c>
       <c r="K244" s="1">
-        <f>J244*F244</f>
+        <f t="shared" si="7"/>
         <v>4.5358094004589365E-2</v>
       </c>
     </row>
@@ -11884,11 +11884,11 @@
         <v>17.420093355514702</v>
       </c>
       <c r="J245" s="1">
-        <f>1-NORMSDIST((I245-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.79940518105882585</v>
       </c>
       <c r="K245" s="1">
-        <f>J245*F245</f>
+        <f t="shared" si="7"/>
         <v>4.48645764879953E-2</v>
       </c>
     </row>
@@ -11921,11 +11921,11 @@
         <v>17.710791883481701</v>
       </c>
       <c r="J246" s="1">
-        <f>1-NORMSDIST((I246-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.73463838813427129</v>
       </c>
       <c r="K246" s="1">
-        <f>J246*F246</f>
+        <f t="shared" si="7"/>
         <v>4.4717119277738249E-2</v>
       </c>
     </row>
@@ -11958,11 +11958,11 @@
         <v>16.487928082191701</v>
       </c>
       <c r="J247" s="1">
-        <f>1-NORMSDIST((I247-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.93589736296770976</v>
       </c>
       <c r="K247" s="1">
-        <f>J247*F247</f>
+        <f t="shared" si="7"/>
         <v>4.4566541093700451E-2</v>
       </c>
     </row>
@@ -11995,11 +11995,11 @@
         <v>15.761472602739699</v>
       </c>
       <c r="J248" s="1">
-        <f>1-NORMSDIST((I248-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.97993921071799217</v>
       </c>
       <c r="K248" s="1">
-        <f>J248*F248</f>
+        <f t="shared" si="7"/>
         <v>4.4542691396272316E-2</v>
       </c>
     </row>
@@ -12032,11 +12032,11 @@
         <v>18.840462487733099</v>
       </c>
       <c r="J249" s="1">
-        <f>1-NORMSDIST((I249-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.4210305208759646</v>
       </c>
       <c r="K249" s="1">
-        <f>J249*F249</f>
+        <f t="shared" si="7"/>
         <v>4.4499160742988084E-2</v>
       </c>
     </row>
@@ -12069,11 +12069,11 @@
         <v>18.044748356964799</v>
       </c>
       <c r="J250" s="1">
-        <f>1-NORMSDIST((I250-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.64901796136690515</v>
       </c>
       <c r="K250" s="1">
-        <f>J250*F250</f>
+        <f t="shared" si="7"/>
         <v>4.4480981775924938E-2</v>
       </c>
     </row>
@@ -12106,11 +12106,11 @@
         <v>16.896575342465699</v>
       </c>
       <c r="J251" s="1">
-        <f>1-NORMSDIST((I251-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.88921463761127906</v>
       </c>
       <c r="K251" s="1">
-        <f>J251*F251</f>
+        <f t="shared" si="7"/>
         <v>4.4460731880563958E-2</v>
       </c>
     </row>
@@ -12143,11 +12143,11 @@
         <v>19.1980270754113</v>
       </c>
       <c r="J252" s="1">
-        <f>1-NORMSDIST((I252-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.32248719076569632</v>
       </c>
       <c r="K252" s="1">
-        <f>J252*F252</f>
+        <f t="shared" si="7"/>
         <v>4.4297691039243886E-2</v>
       </c>
     </row>
@@ -12180,11 +12180,11 @@
         <v>19.778984287421999</v>
       </c>
       <c r="J253" s="1">
-        <f>1-NORMSDIST((I253-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.18790967061700581</v>
       </c>
       <c r="K253" s="1">
-        <f>J253*F253</f>
+        <f t="shared" si="7"/>
         <v>4.4214040145177678E-2</v>
       </c>
     </row>
@@ -12217,11 +12217,11 @@
         <v>19.044748356964799</v>
       </c>
       <c r="J254" s="1">
-        <f>1-NORMSDIST((I254-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.36367306738879202</v>
       </c>
       <c r="K254" s="1">
-        <f>J254*F254</f>
+        <f t="shared" si="7"/>
         <v>4.4203356257200926E-2</v>
       </c>
     </row>
@@ -12254,11 +12254,11 @@
         <v>16.571853956664199</v>
       </c>
       <c r="J255" s="1">
-        <f>1-NORMSDIST((I255-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.92783298562493111</v>
       </c>
       <c r="K255" s="1">
-        <f>J255*F255</f>
+        <f t="shared" si="7"/>
         <v>4.4182523124996702E-2</v>
       </c>
     </row>
@@ -12291,11 +12291,11 @@
         <v>15.9763056506849</v>
       </c>
       <c r="J256" s="1">
-        <f>1-NORMSDIST((I256-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.97097906117383903</v>
       </c>
       <c r="K256" s="1">
-        <f>J256*F256</f>
+        <f t="shared" si="7"/>
         <v>4.4135411871538084E-2</v>
       </c>
     </row>
@@ -12328,11 +12328,11 @@
         <v>17.313604983334599</v>
       </c>
       <c r="J257" s="1">
-        <f>1-NORMSDIST((I257-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="6"/>
         <v>0.82052729880392516</v>
       </c>
       <c r="K257" s="1">
-        <f>J257*F257</f>
+        <f t="shared" si="7"/>
         <v>4.3814564499238651E-2</v>
       </c>
     </row>
@@ -12365,11 +12365,11 @@
         <v>19.672464507550298</v>
       </c>
       <c r="J258" s="1">
-        <f>1-NORMSDIST((I258-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J258:J321" si="8">1-NORMSDIST((I258-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>0.20962456920810701</v>
       </c>
       <c r="K258" s="1">
-        <f>J258*F258</f>
+        <f t="shared" ref="K258:K321" si="9">J258*F258</f>
         <v>4.3671785251688897E-2</v>
       </c>
     </row>
@@ -12402,11 +12402,11 @@
         <v>19.4665349490907</v>
       </c>
       <c r="J259" s="1">
-        <f>1-NORMSDIST((I259-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.25555108995826425</v>
       </c>
       <c r="K259" s="1">
-        <f>J259*F259</f>
+        <f t="shared" si="9"/>
         <v>4.360593995319572E-2</v>
       </c>
     </row>
@@ -12439,11 +12439,11 @@
         <v>15.2548801369863</v>
       </c>
       <c r="J260" s="1">
-        <f>1-NORMSDIST((I260-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.99230312349632344</v>
       </c>
       <c r="K260" s="1">
-        <f>J260*F260</f>
+        <f t="shared" si="9"/>
         <v>4.3143614065057526E-2</v>
       </c>
     </row>
@@ -12476,11 +12476,11 @@
         <v>18.205615282679499</v>
       </c>
       <c r="J261" s="1">
-        <f>1-NORMSDIST((I261-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.60450449753652302</v>
       </c>
       <c r="K261" s="1">
-        <f>J261*F261</f>
+        <f t="shared" si="9"/>
         <v>4.294294244794971E-2</v>
       </c>
     </row>
@@ -12513,11 +12513,11 @@
         <v>16.993758803393</v>
       </c>
       <c r="J262" s="1">
-        <f>1-NORMSDIST((I262-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.87519333413455014</v>
       </c>
       <c r="K262" s="1">
-        <f>J262*F262</f>
+        <f t="shared" si="9"/>
         <v>4.2841631740852065E-2</v>
       </c>
     </row>
@@ -12550,11 +12550,11 @@
         <v>16.682975326428402</v>
       </c>
       <c r="J263" s="1">
-        <f>1-NORMSDIST((I263-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.91598691082546424</v>
       </c>
       <c r="K263" s="1">
-        <f>J263*F263</f>
+        <f t="shared" si="9"/>
         <v>4.2803126674087096E-2</v>
       </c>
     </row>
@@ -12587,11 +12587,11 @@
         <v>17.940343713372201</v>
       </c>
       <c r="J264" s="1">
-        <f>1-NORMSDIST((I264-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.67689175066906881</v>
       </c>
       <c r="K264" s="1">
-        <f>J264*F264</f>
+        <f t="shared" si="9"/>
         <v>4.2686867159310603E-2</v>
       </c>
     </row>
@@ -12624,11 +12624,11 @@
         <v>18.469660815935899</v>
       </c>
       <c r="J265" s="1">
-        <f>1-NORMSDIST((I265-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.52866719343437152</v>
       </c>
       <c r="K265" s="1">
-        <f>J265*F265</f>
+        <f t="shared" si="9"/>
         <v>4.2463228388302909E-2</v>
       </c>
     </row>
@@ -12661,11 +12661,11 @@
         <v>19.529704698282</v>
       </c>
       <c r="J266" s="1">
-        <f>1-NORMSDIST((I266-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.24092808386743636</v>
       </c>
       <c r="K266" s="1">
-        <f>J266*F266</f>
+        <f t="shared" si="9"/>
         <v>4.2325203922657574E-2</v>
       </c>
     </row>
@@ -12698,11 +12698,11 @@
         <v>19.096650494460601</v>
       </c>
       <c r="J267" s="1">
-        <f>1-NORMSDIST((I267-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.34952046466035891</v>
       </c>
       <c r="K267" s="1">
-        <f>J267*F267</f>
+        <f t="shared" si="9"/>
         <v>4.2310372037832791E-2</v>
       </c>
     </row>
@@ -12735,11 +12735,11 @@
         <v>16.8071845128928</v>
       </c>
       <c r="J268" s="1">
-        <f>1-NORMSDIST((I268-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.90108108856391733</v>
       </c>
       <c r="K268" s="1">
-        <f>J268*F268</f>
+        <f t="shared" si="9"/>
         <v>4.2238176026433621E-2</v>
       </c>
     </row>
@@ -12772,11 +12772,11 @@
         <v>16.7002171506367</v>
       </c>
       <c r="J269" s="1">
-        <f>1-NORMSDIST((I269-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.91402493612404323</v>
       </c>
       <c r="K269" s="1">
-        <f>J269*F269</f>
+        <f t="shared" si="9"/>
         <v>4.1783997079956246E-2</v>
       </c>
     </row>
@@ -12809,11 +12809,11 @@
         <v>19.026009337542799</v>
       </c>
       <c r="J270" s="1">
-        <f>1-NORMSDIST((I270-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.36883006375898875</v>
       </c>
       <c r="K270" s="1">
-        <f>J270*F270</f>
+        <f t="shared" si="9"/>
         <v>4.1754346840640118E-2</v>
       </c>
     </row>
@@ -12846,11 +12846,11 @@
         <v>19.485992248939201</v>
       </c>
       <c r="J271" s="1">
-        <f>1-NORMSDIST((I271-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.25099811498598434</v>
       </c>
       <c r="K271" s="1">
-        <f>J271*F271</f>
+        <f t="shared" si="9"/>
         <v>4.163475840999719E-2</v>
       </c>
     </row>
@@ -12883,11 +12883,11 @@
         <v>20.3101210755671</v>
       </c>
       <c r="J272" s="1">
-        <f>1-NORMSDIST((I272-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.10132090180876308</v>
       </c>
       <c r="K272" s="1">
-        <f>J272*F272</f>
+        <f t="shared" si="9"/>
         <v>4.1524959757689738E-2</v>
       </c>
     </row>
@@ -12920,11 +12920,11 @@
         <v>17.781389773082999</v>
       </c>
       <c r="J273" s="1">
-        <f>1-NORMSDIST((I273-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.71744636994471089</v>
       </c>
       <c r="K273" s="1">
-        <f>J273*F273</f>
+        <f t="shared" si="9"/>
         <v>4.1164955652565331E-2</v>
       </c>
     </row>
@@ -12957,11 +12957,11 @@
         <v>16.7758374411627</v>
       </c>
       <c r="J274" s="1">
-        <f>1-NORMSDIST((I274-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.90501386715038146</v>
       </c>
       <c r="K274" s="1">
-        <f>J274*F274</f>
+        <f t="shared" si="9"/>
         <v>4.1136993961380923E-2</v>
       </c>
     </row>
@@ -12994,11 +12994,11 @@
         <v>19.079391569787798</v>
       </c>
       <c r="J275" s="1">
-        <f>1-NORMSDIST((I275-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.35420457880544243</v>
       </c>
       <c r="K275" s="1">
-        <f>J275*F275</f>
+        <f t="shared" si="9"/>
         <v>4.1113031468488652E-2</v>
       </c>
     </row>
@@ -13031,11 +13031,11 @@
         <v>19.256620001600901</v>
       </c>
       <c r="J276" s="1">
-        <f>1-NORMSDIST((I276-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.30726924816397072</v>
       </c>
       <c r="K276" s="1">
-        <f>J276*F276</f>
+        <f t="shared" si="9"/>
         <v>4.0839583616730193E-2</v>
       </c>
     </row>
@@ -13068,11 +13068,11 @@
         <v>17.986216113355699</v>
       </c>
       <c r="J277" s="1">
-        <f>1-NORMSDIST((I277-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.66475543908462753</v>
       </c>
       <c r="K277" s="1">
-        <f>J277*F277</f>
+        <f t="shared" si="9"/>
         <v>4.0818316435020971E-2</v>
       </c>
     </row>
@@ -13105,11 +13105,11 @@
         <v>17.923326551185301</v>
       </c>
       <c r="J278" s="1">
-        <f>1-NORMSDIST((I278-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.68134733719182583</v>
       </c>
       <c r="K278" s="1">
-        <f>J278*F278</f>
+        <f t="shared" si="9"/>
         <v>4.0677452966676145E-2</v>
       </c>
     </row>
@@ -13142,11 +13142,11 @@
         <v>16.9531116730546</v>
       </c>
       <c r="J279" s="1">
-        <f>1-NORMSDIST((I279-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.88120171184944007</v>
       </c>
       <c r="K279" s="1">
-        <f>J279*F279</f>
+        <f t="shared" si="9"/>
         <v>4.0670848239204881E-2</v>
       </c>
     </row>
@@ -13179,11 +13179,11 @@
         <v>18.147311801202498</v>
       </c>
       <c r="J280" s="1">
-        <f>1-NORMSDIST((I280-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.62083059393334694</v>
       </c>
       <c r="K280" s="1">
-        <f>J280*F280</f>
+        <f t="shared" si="9"/>
         <v>4.0342782277257169E-2</v>
       </c>
     </row>
@@ -13216,11 +13216,11 @@
         <v>18.997630738677799</v>
       </c>
       <c r="J281" s="1">
-        <f>1-NORMSDIST((I281-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.3766847721071116</v>
       </c>
       <c r="K281" s="1">
-        <f>J281*F281</f>
+        <f t="shared" si="9"/>
         <v>4.0296510504481513E-2</v>
       </c>
     </row>
@@ -13253,11 +13253,11 @@
         <v>19.727530639592601</v>
       </c>
       <c r="J282" s="1">
-        <f>1-NORMSDIST((I282-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.19822009100672011</v>
       </c>
       <c r="K282" s="1">
-        <f>J282*F282</f>
+        <f t="shared" si="9"/>
         <v>4.0232790748888546E-2</v>
       </c>
     </row>
@@ -13290,11 +13290,11 @@
         <v>17.4539792432134</v>
       </c>
       <c r="J283" s="1">
-        <f>1-NORMSDIST((I283-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.79238277509448696</v>
       </c>
       <c r="K283" s="1">
-        <f>J283*F283</f>
+        <f t="shared" si="9"/>
         <v>4.006429761713691E-2</v>
       </c>
     </row>
@@ -13327,11 +13327,11 @@
         <v>19.245826580275999</v>
       </c>
       <c r="J284" s="1">
-        <f>1-NORMSDIST((I284-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.31004875690457734</v>
       </c>
       <c r="K284" s="1">
-        <f>J284*F284</f>
+        <f t="shared" si="9"/>
         <v>4.0006291213493805E-2</v>
       </c>
     </row>
@@ -13364,11 +13364,11 @@
         <v>17.039303864933899</v>
       </c>
       <c r="J285" s="1">
-        <f>1-NORMSDIST((I285-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.86821237590230771</v>
       </c>
       <c r="K285" s="1">
-        <f>J285*F285</f>
+        <f t="shared" si="9"/>
         <v>3.9826255775335197E-2</v>
       </c>
     </row>
@@ -13401,11 +13401,11 @@
         <v>19.897282477615601</v>
       </c>
       <c r="J286" s="1">
-        <f>1-NORMSDIST((I286-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.16549035875285478</v>
       </c>
       <c r="K286" s="1">
-        <f>J286*F286</f>
+        <f t="shared" si="9"/>
         <v>3.9781336238666955E-2</v>
       </c>
     </row>
@@ -13438,11 +13438,11 @@
         <v>19.738788792374098</v>
       </c>
       <c r="J287" s="1">
-        <f>1-NORMSDIST((I287-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.19593544159459175</v>
       </c>
       <c r="K287" s="1">
-        <f>J287*F287</f>
+        <f t="shared" si="9"/>
         <v>3.9744911640183907E-2</v>
       </c>
     </row>
@@ -13475,11 +13475,11 @@
         <v>19.639237268781599</v>
       </c>
       <c r="J288" s="1">
-        <f>1-NORMSDIST((I288-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.2166889145060571</v>
       </c>
       <c r="K288" s="1">
-        <f>J288*F288</f>
+        <f t="shared" si="9"/>
         <v>3.9587397842452583E-2</v>
       </c>
     </row>
@@ -13512,11 +13512,11 @@
         <v>20.167682306372502</v>
       </c>
       <c r="J289" s="1">
-        <f>1-NORMSDIST((I289-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.12102232500519405</v>
       </c>
       <c r="K289" s="1">
-        <f>J289*F289</f>
+        <f t="shared" si="9"/>
         <v>3.9517493879246919E-2</v>
       </c>
     </row>
@@ -13549,11 +13549,11 @@
         <v>19.8419769948012</v>
       </c>
       <c r="J290" s="1">
-        <f>1-NORMSDIST((I290-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.17574736883900532</v>
       </c>
       <c r="K290" s="1">
-        <f>J290*F290</f>
+        <f t="shared" si="9"/>
         <v>3.9468688764691756E-2</v>
       </c>
     </row>
@@ -13586,11 +13586,11 @@
         <v>17.477503900929001</v>
       </c>
       <c r="J291" s="1">
-        <f>1-NORMSDIST((I291-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.78742328338648204</v>
       </c>
       <c r="K291" s="1">
-        <f>J291*F291</f>
+        <f t="shared" si="9"/>
         <v>3.9371164169324104E-2</v>
       </c>
     </row>
@@ -13623,11 +13623,11 @@
         <v>19.690350787164402</v>
       </c>
       <c r="J292" s="1">
-        <f>1-NORMSDIST((I292-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.20587857654931285</v>
       </c>
       <c r="K292" s="1">
-        <f>J292*F292</f>
+        <f t="shared" si="9"/>
         <v>3.9359139634427394E-2</v>
       </c>
     </row>
@@ -13660,11 +13660,11 @@
         <v>19.955931753912498</v>
       </c>
       <c r="J293" s="1">
-        <f>1-NORMSDIST((I293-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.15504522480716443</v>
       </c>
       <c r="K293" s="1">
-        <f>J293*F293</f>
+        <f t="shared" si="9"/>
         <v>3.8761306201791107E-2</v>
       </c>
     </row>
@@ -13697,11 +13697,11 @@
         <v>17.462534505236</v>
       </c>
       <c r="J294" s="1">
-        <f>1-NORMSDIST((I294-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.79058710736063054</v>
       </c>
       <c r="K294" s="1">
-        <f>J294*F294</f>
+        <f t="shared" si="9"/>
         <v>3.8754269968658314E-2</v>
       </c>
     </row>
@@ -13734,11 +13734,11 @@
         <v>20.165551227063499</v>
       </c>
       <c r="J295" s="1">
-        <f>1-NORMSDIST((I295-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.12133624591253644</v>
       </c>
       <c r="K295" s="1">
-        <f>J295*F295</f>
+        <f t="shared" si="9"/>
         <v>3.8667594851247794E-2</v>
       </c>
     </row>
@@ -13771,11 +13771,11 @@
         <v>19.952272833506701</v>
       </c>
       <c r="J296" s="1">
-        <f>1-NORMSDIST((I296-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.15568384134786706</v>
       </c>
       <c r="K296" s="1">
-        <f>J296*F296</f>
+        <f t="shared" si="9"/>
         <v>3.8282911806852511E-2</v>
       </c>
     </row>
@@ -13808,11 +13808,11 @@
         <v>16.704641623474501</v>
       </c>
       <c r="J297" s="1">
-        <f>1-NORMSDIST((I297-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.91351598352877206</v>
       </c>
       <c r="K297" s="1">
-        <f>J297*F297</f>
+        <f t="shared" si="9"/>
         <v>3.8063165980365445E-2</v>
       </c>
     </row>
@@ -13845,11 +13845,11 @@
         <v>19.7622140699597</v>
       </c>
       <c r="J298" s="1">
-        <f>1-NORMSDIST((I298-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.19123316835707738</v>
       </c>
       <c r="K298" s="1">
-        <f>J298*F298</f>
+        <f t="shared" si="9"/>
         <v>3.7965408423831372E-2</v>
       </c>
     </row>
@@ -13882,11 +13882,11 @@
         <v>19.176815386417001</v>
       </c>
       <c r="J299" s="1">
-        <f>1-NORMSDIST((I299-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.32807233015450432</v>
       </c>
       <c r="K299" s="1">
-        <f>J299*F299</f>
+        <f t="shared" si="9"/>
         <v>3.7763721456633349E-2</v>
       </c>
     </row>
@@ -13919,11 +13919,11 @@
         <v>17.840096296631899</v>
       </c>
       <c r="J300" s="1">
-        <f>1-NORMSDIST((I300-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.70275417606822943</v>
       </c>
       <c r="K300" s="1">
-        <f>J300*F300</f>
+        <f t="shared" si="9"/>
         <v>3.7580437222899964E-2</v>
       </c>
     </row>
@@ -13956,11 +13956,11 @@
         <v>17.677505018343499</v>
       </c>
       <c r="J301" s="1">
-        <f>1-NORMSDIST((I301-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.74255615502252847</v>
       </c>
       <c r="K301" s="1">
-        <f>J301*F301</f>
+        <f t="shared" si="9"/>
         <v>3.7335225671523746E-2</v>
       </c>
     </row>
@@ -13993,11 +13993,11 @@
         <v>19.006360556452901</v>
       </c>
       <c r="J302" s="1">
-        <f>1-NORMSDIST((I302-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.37426289454532502</v>
       </c>
       <c r="K302" s="1">
-        <f>J302*F302</f>
+        <f t="shared" si="9"/>
         <v>3.7270993647667221E-2</v>
       </c>
     </row>
@@ -14030,11 +14030,11 @@
         <v>17.894892009317001</v>
       </c>
       <c r="J303" s="1">
-        <f>1-NORMSDIST((I303-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.68873389379887184</v>
       </c>
       <c r="K303" s="1">
-        <f>J303*F303</f>
+        <f t="shared" si="9"/>
         <v>3.7228859124263304E-2</v>
       </c>
     </row>
@@ -14067,11 +14067,11 @@
         <v>20.3019018974849</v>
       </c>
       <c r="J304" s="1">
-        <f>1-NORMSDIST((I304-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.10239003574804295</v>
       </c>
       <c r="K304" s="1">
-        <f>J304*F304</f>
+        <f t="shared" si="9"/>
         <v>3.6927553876343354E-2</v>
       </c>
     </row>
@@ -14104,11 +14104,11 @@
         <v>18.8140014475314</v>
       </c>
       <c r="J305" s="1">
-        <f>1-NORMSDIST((I305-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.42861312439245758</v>
       </c>
       <c r="K305" s="1">
-        <f>J305*F305</f>
+        <f t="shared" si="9"/>
         <v>3.6738267805067788E-2</v>
       </c>
     </row>
@@ -14141,11 +14141,11 @@
         <v>20.036554013350099</v>
       </c>
       <c r="J306" s="1">
-        <f>1-NORMSDIST((I306-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.14141277226429072</v>
       </c>
       <c r="K306" s="1">
-        <f>J306*F306</f>
+        <f t="shared" si="9"/>
         <v>3.6326216728441635E-2</v>
       </c>
     </row>
@@ -14178,11 +14178,11 @@
         <v>20.139015601269101</v>
       </c>
       <c r="J307" s="1">
-        <f>1-NORMSDIST((I307-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.12529310638990565</v>
       </c>
       <c r="K307" s="1">
-        <f>J307*F307</f>
+        <f t="shared" si="9"/>
         <v>3.5988445452419651E-2</v>
       </c>
     </row>
@@ -14215,11 +14215,11 @@
         <v>17.9308734465226</v>
       </c>
       <c r="J308" s="1">
-        <f>1-NORMSDIST((I308-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.67937452596306247</v>
       </c>
       <c r="K308" s="1">
-        <f>J308*F308</f>
+        <f t="shared" si="9"/>
         <v>3.5612374344837903E-2</v>
       </c>
     </row>
@@ -14252,11 +14252,11 @@
         <v>20.080333159192602</v>
       </c>
       <c r="J309" s="1">
-        <f>1-NORMSDIST((I309-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.13436097721765217</v>
       </c>
       <c r="K309" s="1">
-        <f>J309*F309</f>
+        <f t="shared" si="9"/>
         <v>3.556614102820202E-2</v>
       </c>
     </row>
@@ -14289,11 +14289,11 @@
         <v>17.752244107899799</v>
       </c>
       <c r="J310" s="1">
-        <f>1-NORMSDIST((I310-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.7246084885277666</v>
       </c>
       <c r="K310" s="1">
-        <f>J310*F310</f>
+        <f t="shared" si="9"/>
         <v>3.55200239474395E-2</v>
       </c>
     </row>
@@ -14326,11 +14326,11 @@
         <v>17.8748493785004</v>
       </c>
       <c r="J311" s="1">
-        <f>1-NORMSDIST((I311-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.69389539154839497</v>
       </c>
       <c r="K311" s="1">
-        <f>J311*F311</f>
+        <f t="shared" si="9"/>
         <v>3.5483287067815623E-2</v>
       </c>
     </row>
@@ -14363,11 +14363,11 @@
         <v>18.584075342465699</v>
       </c>
       <c r="J312" s="1">
-        <f>1-NORMSDIST((I312-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.49531068220317698</v>
       </c>
       <c r="K312" s="1">
-        <f>J312*F312</f>
+        <f t="shared" si="9"/>
         <v>3.5379334443084054E-2</v>
       </c>
     </row>
@@ -14400,11 +14400,11 @@
         <v>18.230495627042</v>
       </c>
       <c r="J313" s="1">
-        <f>1-NORMSDIST((I313-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.59747942890944972</v>
       </c>
       <c r="K313" s="1">
-        <f>J313*F313</f>
+        <f t="shared" si="9"/>
         <v>3.5145848759379393E-2</v>
       </c>
     </row>
@@ -14437,11 +14437,11 @@
         <v>19.182459221806401</v>
       </c>
       <c r="J314" s="1">
-        <f>1-NORMSDIST((I314-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.32658245727225566</v>
       </c>
       <c r="K314" s="1">
-        <f>J314*F314</f>
+        <f t="shared" si="9"/>
         <v>3.4891288170112507E-2</v>
       </c>
     </row>
@@ -14474,11 +14474,11 @@
         <v>17.014579734535001</v>
       </c>
       <c r="J315" s="1">
-        <f>1-NORMSDIST((I315-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.87203471903065877</v>
       </c>
       <c r="K315" s="1">
-        <f>J315*F315</f>
+        <f t="shared" si="9"/>
         <v>3.4881388761226352E-2</v>
       </c>
     </row>
@@ -14511,11 +14511,11 @@
         <v>17.9714247377308</v>
       </c>
       <c r="J316" s="1">
-        <f>1-NORMSDIST((I316-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.66868834280578371</v>
       </c>
       <c r="K316" s="1">
-        <f>J316*F316</f>
+        <f t="shared" si="9"/>
         <v>3.4827517854467881E-2</v>
       </c>
     </row>
@@ -14548,11 +14548,11 @@
         <v>18.995404834394499</v>
       </c>
       <c r="J317" s="1">
-        <f>1-NORMSDIST((I317-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.37730307721483736</v>
       </c>
       <c r="K317" s="1">
-        <f>J317*F317</f>
+        <f t="shared" si="9"/>
         <v>3.4300279746803393E-2</v>
       </c>
     </row>
@@ -14585,11 +14585,11 @@
         <v>17.964922249153801</v>
       </c>
       <c r="J318" s="1">
-        <f>1-NORMSDIST((I318-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.6704114626987433</v>
       </c>
       <c r="K318" s="1">
-        <f>J318*F318</f>
+        <f t="shared" si="9"/>
         <v>3.408871844230895E-2</v>
       </c>
     </row>
@@ -14622,11 +14622,11 @@
         <v>17.033040933599501</v>
       </c>
       <c r="J319" s="1">
-        <f>1-NORMSDIST((I319-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.86918799218850928</v>
       </c>
       <c r="K319" s="1">
-        <f>J319*F319</f>
+        <f t="shared" si="9"/>
         <v>3.3990591873293619E-2</v>
       </c>
     </row>
@@ -14659,11 +14659,11 @@
         <v>18.7030056669104</v>
       </c>
       <c r="J320" s="1">
-        <f>1-NORMSDIST((I320-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.46067561915099775</v>
       </c>
       <c r="K320" s="1">
-        <f>J320*F320</f>
+        <f t="shared" si="9"/>
         <v>3.3925723890964918E-2</v>
       </c>
     </row>
@@ -14696,11 +14696,11 @@
         <v>18.145244357458701</v>
       </c>
       <c r="J321" s="1">
-        <f>1-NORMSDIST((I321-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="8"/>
         <v>0.62140576980705475</v>
       </c>
       <c r="K321" s="1">
-        <f>J321*F321</f>
+        <f t="shared" si="9"/>
         <v>3.3818001077934895E-2</v>
       </c>
     </row>
@@ -14733,11 +14733,11 @@
         <v>18.1914572906926</v>
       </c>
       <c r="J322" s="1">
-        <f>1-NORMSDIST((I322-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J322:J385" si="10">1-NORMSDIST((I322-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>0.60848711669674627</v>
       </c>
       <c r="K322" s="1">
-        <f>J322*F322</f>
+        <f t="shared" ref="K322:K385" si="11">J322*F322</f>
         <v>3.3804839816485868E-2</v>
       </c>
     </row>
@@ -14770,11 +14770,11 @@
         <v>19.778963296184202</v>
       </c>
       <c r="J323" s="1">
-        <f>1-NORMSDIST((I323-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.18791380821096815</v>
       </c>
       <c r="K323" s="1">
-        <f>J323*F323</f>
+        <f t="shared" si="11"/>
         <v>3.3682663735928077E-2</v>
       </c>
     </row>
@@ -14807,11 +14807,11 @@
         <v>17.125383455778302</v>
       </c>
       <c r="J324" s="1">
-        <f>1-NORMSDIST((I324-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.85429379055387589</v>
       </c>
       <c r="K324" s="1">
-        <f>J324*F324</f>
+        <f t="shared" si="11"/>
         <v>3.3633613801333631E-2</v>
       </c>
     </row>
@@ -14844,11 +14844,11 @@
         <v>18.152961810913901</v>
       </c>
       <c r="J325" s="1">
-        <f>1-NORMSDIST((I325-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.61925736409949927</v>
       </c>
       <c r="K325" s="1">
-        <f>J325*F325</f>
+        <f t="shared" si="11"/>
         <v>3.3603112780592942E-2</v>
       </c>
     </row>
@@ -14881,11 +14881,11 @@
         <v>16.636452179775102</v>
       </c>
       <c r="J326" s="1">
-        <f>1-NORMSDIST((I326-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.92111295772062352</v>
       </c>
       <c r="K326" s="1">
-        <f>J326*F326</f>
+        <f t="shared" si="11"/>
         <v>3.3495016644386248E-2</v>
       </c>
     </row>
@@ -14918,11 +14918,11 @@
         <v>15.335145547945199</v>
       </c>
       <c r="J327" s="1">
-        <f>1-NORMSDIST((I327-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.99096742629741597</v>
       </c>
       <c r="K327" s="1">
-        <f>J327*F327</f>
+        <f t="shared" si="11"/>
         <v>3.3032247543247163E-2</v>
       </c>
     </row>
@@ -14955,11 +14955,11 @@
         <v>18.6011558219178</v>
       </c>
       <c r="J328" s="1">
-        <f>1-NORMSDIST((I328-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.49032815812275232</v>
       </c>
       <c r="K328" s="1">
-        <f>J328*F328</f>
+        <f t="shared" si="11"/>
         <v>3.2688543874850123E-2</v>
       </c>
     </row>
@@ -14992,11 +14992,11 @@
         <v>20.4107713468829</v>
       </c>
       <c r="J329" s="1">
-        <f>1-NORMSDIST((I329-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>8.8882370396802801E-2</v>
       </c>
       <c r="K329" s="1">
-        <f>J329*F329</f>
+        <f t="shared" si="11"/>
         <v>3.2603140232888295E-2</v>
       </c>
     </row>
@@ -15029,11 +15029,11 @@
         <v>17.5074831906872</v>
       </c>
       <c r="J330" s="1">
-        <f>1-NORMSDIST((I330-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.7810038013590932</v>
       </c>
       <c r="K330" s="1">
-        <f>J330*F330</f>
+        <f t="shared" si="11"/>
         <v>3.254182505662883E-2</v>
       </c>
     </row>
@@ -15066,11 +15066,11 @@
         <v>16.851375863903399</v>
       </c>
       <c r="J331" s="1">
-        <f>1-NORMSDIST((I331-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.89533642811208847</v>
       </c>
       <c r="K331" s="1">
-        <f>J331*F331</f>
+        <f t="shared" si="11"/>
         <v>3.247334195225185E-2</v>
       </c>
     </row>
@@ -15103,11 +15103,11 @@
         <v>18.182158422001301</v>
       </c>
       <c r="J332" s="1">
-        <f>1-NORMSDIST((I332-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.61109672760849676</v>
       </c>
       <c r="K332" s="1">
-        <f>J332*F332</f>
+        <f t="shared" si="11"/>
         <v>3.2375985568662065E-2</v>
       </c>
     </row>
@@ -15140,11 +15140,11 @@
         <v>18.733399294500401</v>
       </c>
       <c r="J333" s="1">
-        <f>1-NORMSDIST((I333-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.45186155670780215</v>
       </c>
       <c r="K333" s="1">
-        <f>J333*F333</f>
+        <f t="shared" si="11"/>
         <v>3.227582547912871E-2</v>
       </c>
     </row>
@@ -15177,11 +15177,11 @@
         <v>18.148504177732299</v>
       </c>
       <c r="J334" s="1">
-        <f>1-NORMSDIST((I334-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.62049874551102824</v>
       </c>
       <c r="K334" s="1">
-        <f>J334*F334</f>
+        <f t="shared" si="11"/>
         <v>3.2233701065507929E-2</v>
       </c>
     </row>
@@ -15214,11 +15214,11 @@
         <v>19.729452492909001</v>
       </c>
       <c r="J335" s="1">
-        <f>1-NORMSDIST((I335-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.19782894954590968</v>
       </c>
       <c r="K335" s="1">
-        <f>J335*F335</f>
+        <f t="shared" si="11"/>
         <v>3.175032523576312E-2</v>
       </c>
     </row>
@@ -15251,11 +15251,11 @@
         <v>18.987238944858898</v>
       </c>
       <c r="J336" s="1">
-        <f>1-NORMSDIST((I336-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.37957405741312289</v>
       </c>
       <c r="K336" s="1">
-        <f>J336*F336</f>
+        <f t="shared" si="11"/>
         <v>3.1631171451093565E-2</v>
       </c>
     </row>
@@ -15288,11 +15288,11 @@
         <v>17.974003196658799</v>
       </c>
       <c r="J337" s="1">
-        <f>1-NORMSDIST((I337-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.66800407420354802</v>
       </c>
       <c r="K337" s="1">
-        <f>J337*F337</f>
+        <f t="shared" si="11"/>
         <v>3.150962614167678E-2</v>
       </c>
     </row>
@@ -15325,11 +15325,11 @@
         <v>18.202679554287698</v>
       </c>
       <c r="J338" s="1">
-        <f>1-NORMSDIST((I338-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.605331225439669</v>
       </c>
       <c r="K338" s="1">
-        <f>J338*F338</f>
+        <f t="shared" si="11"/>
         <v>3.1364312198946538E-2</v>
       </c>
     </row>
@@ -15362,11 +15362,11 @@
         <v>18.9154389639497</v>
       </c>
       <c r="J339" s="1">
-        <f>1-NORMSDIST((I339-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.39971290288075167</v>
       </c>
       <c r="K339" s="1">
-        <f>J339*F339</f>
+        <f t="shared" si="11"/>
         <v>3.1281879355884917E-2</v>
       </c>
     </row>
@@ -15399,11 +15399,11 @@
         <v>17.735177546863699</v>
       </c>
       <c r="J340" s="1">
-        <f>1-NORMSDIST((I340-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.72876046750155976</v>
       </c>
       <c r="K340" s="1">
-        <f>J340*F340</f>
+        <f t="shared" si="11"/>
         <v>3.0792695809925014E-2</v>
       </c>
     </row>
@@ -15436,11 +15436,11 @@
         <v>20.1761239901994</v>
       </c>
       <c r="J341" s="1">
-        <f>1-NORMSDIST((I341-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.11978443017832929</v>
       </c>
       <c r="K341" s="1">
-        <f>J341*F341</f>
+        <f t="shared" si="11"/>
         <v>3.0373909080933431E-2</v>
       </c>
     </row>
@@ -15473,11 +15473,11 @@
         <v>19.4784507784941</v>
       </c>
       <c r="J342" s="1">
-        <f>1-NORMSDIST((I342-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.25275769656155489</v>
       </c>
       <c r="K342" s="1">
-        <f>J342*F342</f>
+        <f t="shared" si="11"/>
         <v>3.0330923587386587E-2</v>
       </c>
     </row>
@@ -15510,11 +15510,11 @@
         <v>20.077247199151898</v>
       </c>
       <c r="J343" s="1">
-        <f>1-NORMSDIST((I343-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.13484999787515073</v>
       </c>
       <c r="K343" s="1">
-        <f>J343*F343</f>
+        <f t="shared" si="11"/>
         <v>3.0142940701504164E-2</v>
       </c>
     </row>
@@ -15547,11 +15547,11 @@
         <v>17.618758355754601</v>
       </c>
       <c r="J344" s="1">
-        <f>1-NORMSDIST((I344-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.75622446350000216</v>
       </c>
       <c r="K344" s="1">
-        <f>J344*F344</f>
+        <f t="shared" si="11"/>
         <v>2.9850965664473757E-2</v>
       </c>
     </row>
@@ -15584,11 +15584,11 @@
         <v>19.948368408935</v>
       </c>
       <c r="J345" s="1">
-        <f>1-NORMSDIST((I345-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.15636721798810382</v>
       </c>
       <c r="K345" s="1">
-        <f>J345*F345</f>
+        <f t="shared" si="11"/>
         <v>2.9754086013930595E-2</v>
       </c>
     </row>
@@ -15621,11 +15621,11 @@
         <v>20.126586415961601</v>
       </c>
       <c r="J346" s="1">
-        <f>1-NORMSDIST((I346-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.12717713517310536</v>
       </c>
       <c r="K346" s="1">
-        <f>J346*F346</f>
+        <f t="shared" si="11"/>
         <v>2.9737937080278332E-2</v>
       </c>
     </row>
@@ -15658,11 +15658,11 @@
         <v>20.502957765012201</v>
       </c>
       <c r="J347" s="1">
-        <f>1-NORMSDIST((I347-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>7.8521356604737802E-2</v>
       </c>
       <c r="K347" s="1">
-        <f>J347*F347</f>
+        <f t="shared" si="11"/>
         <v>2.9526625830707139E-2</v>
       </c>
     </row>
@@ -15695,11 +15695,11 @@
         <v>17.526412638916099</v>
       </c>
       <c r="J348" s="1">
-        <f>1-NORMSDIST((I348-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.77689364653283044</v>
       </c>
       <c r="K348" s="1">
-        <f>J348*F348</f>
+        <f t="shared" si="11"/>
         <v>2.9455683280865563E-2</v>
       </c>
     </row>
@@ -15732,11 +15732,11 @@
         <v>18.466609589041099</v>
       </c>
       <c r="J349" s="1">
-        <f>1-NORMSDIST((I349-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.52955504146458532</v>
       </c>
       <c r="K349" s="1">
-        <f>J349*F349</f>
+        <f t="shared" si="11"/>
         <v>2.9419724525810265E-2</v>
       </c>
     </row>
@@ -15769,11 +15769,11 @@
         <v>19.952204260352499</v>
       </c>
       <c r="J350" s="1">
-        <f>1-NORMSDIST((I350-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.15569582642890001</v>
       </c>
       <c r="K350" s="1">
-        <f>J350*F350</f>
+        <f t="shared" si="11"/>
         <v>2.9307449680734111E-2</v>
       </c>
     </row>
@@ -15806,11 +15806,11 @@
         <v>20.094318350354701</v>
       </c>
       <c r="J351" s="1">
-        <f>1-NORMSDIST((I351-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.13216006895698063</v>
       </c>
       <c r="K351" s="1">
-        <f>J351*F351</f>
+        <f t="shared" si="11"/>
         <v>2.9248539851135048E-2</v>
       </c>
     </row>
@@ -15843,11 +15843,11 @@
         <v>19.987120271862501</v>
       </c>
       <c r="J352" s="1">
-        <f>1-NORMSDIST((I352-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.14967197024260259</v>
       </c>
       <c r="K352" s="1">
-        <f>J352*F352</f>
+        <f t="shared" si="11"/>
         <v>2.9121695567565161E-2</v>
       </c>
     </row>
@@ -15880,11 +15880,11 @@
         <v>17.627620304323099</v>
       </c>
       <c r="J353" s="1">
-        <f>1-NORMSDIST((I353-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.7541879978353625</v>
       </c>
       <c r="K353" s="1">
-        <f>J353*F353</f>
+        <f t="shared" si="11"/>
         <v>2.9007230685975435E-2</v>
       </c>
     </row>
@@ -15917,11 +15917,11 @@
         <v>20.1621637961114</v>
       </c>
       <c r="J354" s="1">
-        <f>1-NORMSDIST((I354-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.12183641263950862</v>
       </c>
       <c r="K354" s="1">
-        <f>J354*F354</f>
+        <f t="shared" si="11"/>
         <v>2.882151696848588E-2</v>
       </c>
     </row>
@@ -15954,11 +15954,11 @@
         <v>18.968060862665499</v>
       </c>
       <c r="J355" s="1">
-        <f>1-NORMSDIST((I355-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.38492382600495023</v>
       </c>
       <c r="K355" s="1">
-        <f>J355*F355</f>
+        <f t="shared" si="11"/>
         <v>2.8609203284151698E-2</v>
       </c>
     </row>
@@ -15991,11 +15991,11 @@
         <v>18.188339941546399</v>
       </c>
       <c r="J356" s="1">
-        <f>1-NORMSDIST((I356-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.60936251224278992</v>
       </c>
       <c r="K356" s="1">
-        <f>J356*F356</f>
+        <f t="shared" si="11"/>
         <v>2.8474883749663067E-2</v>
       </c>
     </row>
@@ -16028,11 +16028,11 @@
         <v>18.903175803997101</v>
       </c>
       <c r="J357" s="1">
-        <f>1-NORMSDIST((I357-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.40318102666931233</v>
       </c>
       <c r="K357" s="1">
-        <f>J357*F357</f>
+        <f t="shared" si="11"/>
         <v>2.8440155408208743E-2</v>
       </c>
     </row>
@@ -16065,11 +16065,11 @@
         <v>18.114093803344499</v>
       </c>
       <c r="J358" s="1">
-        <f>1-NORMSDIST((I358-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.6300388412098803</v>
       </c>
       <c r="K358" s="1">
-        <f>J358*F358</f>
+        <f t="shared" si="11"/>
         <v>2.842280486661113E-2</v>
       </c>
     </row>
@@ -16102,11 +16102,11 @@
         <v>20.403535501399102</v>
       </c>
       <c r="J359" s="1">
-        <f>1-NORMSDIST((I359-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>8.9736794927479435E-2</v>
       </c>
       <c r="K359" s="1">
-        <f>J359*F359</f>
+        <f t="shared" si="11"/>
         <v>2.8416651727035093E-2</v>
       </c>
     </row>
@@ -16139,11 +16139,11 @@
         <v>18.549582509473101</v>
       </c>
       <c r="J360" s="1">
-        <f>1-NORMSDIST((I360-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.50537396602043172</v>
       </c>
       <c r="K360" s="1">
-        <f>J360*F360</f>
+        <f t="shared" si="11"/>
         <v>2.8362824623595639E-2</v>
       </c>
     </row>
@@ -16176,11 +16176,11 @@
         <v>20.3139190368694</v>
       </c>
       <c r="J361" s="1">
-        <f>1-NORMSDIST((I361-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.10082962747017254</v>
       </c>
       <c r="K361" s="1">
-        <f>J361*F361</f>
+        <f t="shared" si="11"/>
         <v>2.8358332725986028E-2</v>
       </c>
     </row>
@@ -16213,11 +16213,11 @@
         <v>16.808524186643801</v>
       </c>
       <c r="J362" s="1">
-        <f>1-NORMSDIST((I362-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.90091039861045563</v>
       </c>
       <c r="K362" s="1">
-        <f>J362*F362</f>
+        <f t="shared" si="11"/>
         <v>2.8153449956576738E-2</v>
       </c>
     </row>
@@ -16250,11 +16250,11 @@
         <v>18.140285038979599</v>
       </c>
       <c r="J363" s="1">
-        <f>1-NORMSDIST((I363-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.62278438539707071</v>
       </c>
       <c r="K363" s="1">
-        <f>J363*F363</f>
+        <f t="shared" si="11"/>
         <v>2.8148446797607685E-2</v>
       </c>
     </row>
@@ -16287,11 +16287,11 @@
         <v>17.064340753424599</v>
       </c>
       <c r="J364" s="1">
-        <f>1-NORMSDIST((I364-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.86426214017601022</v>
       </c>
       <c r="K364" s="1">
-        <f>J364*F364</f>
+        <f t="shared" si="11"/>
         <v>2.7879423876645461E-2</v>
       </c>
     </row>
@@ -16324,11 +16324,11 @@
         <v>20.2872859589041</v>
       </c>
       <c r="J365" s="1">
-        <f>1-NORMSDIST((I365-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.10431146950877956</v>
       </c>
       <c r="K365" s="1">
-        <f>J365*F365</f>
+        <f t="shared" si="11"/>
         <v>2.7816391869007813E-2</v>
       </c>
     </row>
@@ -16361,11 +16361,11 @@
         <v>18.214636205131299</v>
       </c>
       <c r="J366" s="1">
-        <f>1-NORMSDIST((I366-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.60196119439442075</v>
       </c>
       <c r="K366" s="1">
-        <f>J366*F366</f>
+        <f t="shared" si="11"/>
         <v>2.7740147207116126E-2</v>
       </c>
     </row>
@@ -16398,11 +16398,11 @@
         <v>19.845835088557099</v>
       </c>
       <c r="J367" s="1">
-        <f>1-NORMSDIST((I367-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.17501903818396458</v>
       </c>
       <c r="K367" s="1">
-        <f>J367*F367</f>
+        <f t="shared" si="11"/>
         <v>2.7248473010677118E-2</v>
       </c>
     </row>
@@ -16435,11 +16435,11 @@
         <v>19.209386841147499</v>
       </c>
       <c r="J368" s="1">
-        <f>1-NORMSDIST((I368-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.31951239834935641</v>
       </c>
       <c r="K368" s="1">
-        <f>J368*F368</f>
+        <f t="shared" si="11"/>
         <v>2.7245243270100136E-2</v>
       </c>
     </row>
@@ -16472,11 +16472,11 @@
         <v>17.913211104418998</v>
       </c>
       <c r="J369" s="1">
-        <f>1-NORMSDIST((I369-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.68398353625122466</v>
       </c>
       <c r="K369" s="1">
-        <f>J369*F369</f>
+        <f t="shared" si="11"/>
         <v>2.7238282417084154E-2</v>
       </c>
     </row>
@@ -16509,11 +16509,11 @@
         <v>19.755164991347002</v>
       </c>
       <c r="J370" s="1">
-        <f>1-NORMSDIST((I370-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.19264083521704634</v>
       </c>
       <c r="K370" s="1">
-        <f>J370*F370</f>
+        <f t="shared" si="11"/>
         <v>2.7037310205901152E-2</v>
       </c>
     </row>
@@ -16546,11 +16546,11 @@
         <v>18.915608583384799</v>
       </c>
       <c r="J371" s="1">
-        <f>1-NORMSDIST((I371-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.39966498783972004</v>
       </c>
       <c r="K371" s="1">
-        <f>J371*F371</f>
+        <f t="shared" si="11"/>
         <v>2.7004391070251328E-2</v>
       </c>
     </row>
@@ -16583,11 +16583,11 @@
         <v>18.149041910590199</v>
       </c>
       <c r="J372" s="1">
-        <f>1-NORMSDIST((I372-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.62034906086763275</v>
       </c>
       <c r="K372" s="1">
-        <f>J372*F372</f>
+        <f t="shared" si="11"/>
         <v>2.6842026672157144E-2</v>
       </c>
     </row>
@@ -16620,11 +16620,11 @@
         <v>20.4364816943372</v>
       </c>
       <c r="J373" s="1">
-        <f>1-NORMSDIST((I373-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>8.5895415972076394E-2</v>
       </c>
       <c r="K373" s="1">
-        <f>J373*F373</f>
+        <f t="shared" si="11"/>
         <v>2.6667890879417188E-2</v>
       </c>
     </row>
@@ -16657,11 +16657,11 @@
         <v>17.6418699351618</v>
       </c>
       <c r="J374" s="1">
-        <f>1-NORMSDIST((I374-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.75089439406662395</v>
       </c>
       <c r="K374" s="1">
-        <f>J374*F374</f>
+        <f t="shared" si="11"/>
         <v>2.6627460782504383E-2</v>
       </c>
     </row>
@@ -16694,11 +16694,11 @@
         <v>18.788495178874001</v>
       </c>
       <c r="J375" s="1">
-        <f>1-NORMSDIST((I375-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.43594719252723835</v>
       </c>
       <c r="K375" s="1">
-        <f>J375*F375</f>
+        <f t="shared" si="11"/>
         <v>2.6622729314640492E-2</v>
       </c>
     </row>
@@ -16731,11 +16731,11 @@
         <v>18.7665520634263</v>
       </c>
       <c r="J376" s="1">
-        <f>1-NORMSDIST((I376-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.44227448410633108</v>
       </c>
       <c r="K376" s="1">
-        <f>J376*F376</f>
+        <f t="shared" si="11"/>
         <v>2.6584805055571797E-2</v>
       </c>
     </row>
@@ -16768,11 +16768,11 @@
         <v>18.1153092505998</v>
       </c>
       <c r="J377" s="1">
-        <f>1-NORMSDIST((I377-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.62970318542168968</v>
       </c>
       <c r="K377" s="1">
-        <f>J377*F377</f>
+        <f t="shared" si="11"/>
         <v>2.6553748782842286E-2</v>
       </c>
     </row>
@@ -16805,11 +16805,11 @@
         <v>19.407761309898</v>
       </c>
       <c r="J378" s="1">
-        <f>1-NORMSDIST((I378-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.26956153333298905</v>
       </c>
       <c r="K378" s="1">
-        <f>J378*F378</f>
+        <f t="shared" si="11"/>
         <v>2.6514249180293999E-2</v>
       </c>
     </row>
@@ -16842,11 +16842,11 @@
         <v>18.721608687301899</v>
       </c>
       <c r="J379" s="1">
-        <f>1-NORMSDIST((I379-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.45527822407631291</v>
       </c>
       <c r="K379" s="1">
-        <f>J379*F379</f>
+        <f t="shared" si="11"/>
         <v>2.6469664190483296E-2</v>
       </c>
     </row>
@@ -16879,11 +16879,11 @@
         <v>18.914951265654299</v>
       </c>
       <c r="J380" s="1">
-        <f>1-NORMSDIST((I380-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.39985067901816562</v>
       </c>
       <c r="K380" s="1">
-        <f>J380*F380</f>
+        <f t="shared" si="11"/>
         <v>2.6077218196836876E-2</v>
       </c>
     </row>
@@ -16916,11 +16916,11 @@
         <v>19.643178720343599</v>
       </c>
       <c r="J381" s="1">
-        <f>1-NORMSDIST((I381-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.21584380527146263</v>
       </c>
       <c r="K381" s="1">
-        <f>J381*F381</f>
+        <f t="shared" si="11"/>
         <v>2.580741149984872E-2</v>
       </c>
     </row>
@@ -16953,11 +16953,11 @@
         <v>17.276808120738899</v>
       </c>
       <c r="J382" s="1">
-        <f>1-NORMSDIST((I382-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.82748851031974646</v>
       </c>
       <c r="K382" s="1">
-        <f>J382*F382</f>
+        <f t="shared" si="11"/>
         <v>2.5658558459526942E-2</v>
       </c>
     </row>
@@ -16990,11 +16990,11 @@
         <v>19.4277677310724</v>
       </c>
       <c r="J383" s="1">
-        <f>1-NORMSDIST((I383-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.26474953071804141</v>
       </c>
       <c r="K383" s="1">
-        <f>J383*F383</f>
+        <f t="shared" si="11"/>
         <v>2.5334883322300609E-2</v>
       </c>
     </row>
@@ -17027,11 +17027,11 @@
         <v>17.657973592964598</v>
       </c>
       <c r="J384" s="1">
-        <f>1-NORMSDIST((I384-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.74714418810758731</v>
       </c>
       <c r="K384" s="1">
-        <f>J384*F384</f>
+        <f t="shared" si="11"/>
         <v>2.5326921630765626E-2</v>
       </c>
     </row>
@@ -17064,11 +17064,11 @@
         <v>20.121329469651599</v>
       </c>
       <c r="J385" s="1">
-        <f>1-NORMSDIST((I385-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="10"/>
         <v>0.12797989037519109</v>
       </c>
       <c r="K385" s="1">
-        <f>J385*F385</f>
+        <f t="shared" si="11"/>
         <v>2.5247733475377721E-2</v>
       </c>
     </row>
@@ -17101,11 +17101,11 @@
         <v>17.122131849315</v>
       </c>
       <c r="J386" s="1">
-        <f>1-NORMSDIST((I386-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J386:J449" si="12">1-NORMSDIST((I386-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>0.85483688102909394</v>
       </c>
       <c r="K386" s="1">
-        <f>J386*F386</f>
+        <f t="shared" ref="K386:K449" si="13">J386*F386</f>
         <v>2.5142261206738011E-2</v>
       </c>
     </row>
@@ -17138,11 +17138,11 @@
         <v>20.012346246797701</v>
       </c>
       <c r="J387" s="1">
-        <f>1-NORMSDIST((I387-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.14541792095036121</v>
       </c>
       <c r="K387" s="1">
-        <f>J387*F387</f>
+        <f t="shared" si="13"/>
         <v>2.513396164574137E-2</v>
       </c>
     </row>
@@ -17175,11 +17175,11 @@
         <v>17.695687287515099</v>
       </c>
       <c r="J388" s="1">
-        <f>1-NORMSDIST((I388-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.73824649709549894</v>
       </c>
       <c r="K388" s="1">
-        <f>J388*F388</f>
+        <f t="shared" si="13"/>
         <v>2.5110425071275422E-2</v>
       </c>
     </row>
@@ -17212,11 +17212,11 @@
         <v>16.785600385273899</v>
       </c>
       <c r="J389" s="1">
-        <f>1-NORMSDIST((I389-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.9038015656031797</v>
       </c>
       <c r="K389" s="1">
-        <f>J389*F389</f>
+        <f t="shared" si="13"/>
         <v>2.51055990445327E-2</v>
       </c>
     </row>
@@ -17249,11 +17249,11 @@
         <v>16.682987556193599</v>
       </c>
       <c r="J390" s="1">
-        <f>1-NORMSDIST((I390-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.9159855311961993</v>
       </c>
       <c r="K390" s="1">
-        <f>J390*F390</f>
+        <f t="shared" si="13"/>
         <v>2.4535326728469545E-2</v>
       </c>
     </row>
@@ -17286,11 +17286,11 @@
         <v>20.1346812847632</v>
       </c>
       <c r="J391" s="1">
-        <f>1-NORMSDIST((I391-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.12594788135513557</v>
       </c>
       <c r="K391" s="1">
-        <f>J391*F391</f>
+        <f t="shared" si="13"/>
         <v>2.4243488899345331E-2</v>
       </c>
     </row>
@@ -17323,11 +17323,11 @@
         <v>16.9822595789812</v>
       </c>
       <c r="J392" s="1">
-        <f>1-NORMSDIST((I392-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.87691426668564076</v>
       </c>
       <c r="K392" s="1">
-        <f>J392*F392</f>
+        <f t="shared" si="13"/>
         <v>2.4135255046393772E-2</v>
       </c>
     </row>
@@ -17360,11 +17360,11 @@
         <v>18.886234495814701</v>
       </c>
       <c r="J393" s="1">
-        <f>1-NORMSDIST((I393-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.40798467002698047</v>
       </c>
       <c r="K393" s="1">
-        <f>J393*F393</f>
+        <f t="shared" si="13"/>
         <v>2.3999098236881202E-2</v>
       </c>
     </row>
@@ -17397,11 +17397,11 @@
         <v>19.185116742248798</v>
       </c>
       <c r="J394" s="1">
-        <f>1-NORMSDIST((I394-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.32588187362412735</v>
       </c>
       <c r="K394" s="1">
-        <f>J394*F394</f>
+        <f t="shared" si="13"/>
         <v>2.399130357969036E-2</v>
       </c>
     </row>
@@ -17434,11 +17434,11 @@
         <v>19.7875774698241</v>
       </c>
       <c r="J395" s="1">
-        <f>1-NORMSDIST((I395-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.18622059132579838</v>
       </c>
       <c r="K395" s="1">
-        <f>J395*F395</f>
+        <f t="shared" si="13"/>
         <v>2.3982954943473887E-2</v>
       </c>
     </row>
@@ -17471,11 +17471,11 @@
         <v>18.6199732170648</v>
       </c>
       <c r="J396" s="1">
-        <f>1-NORMSDIST((I396-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.48484073788761795</v>
       </c>
       <c r="K396" s="1">
-        <f>J396*F396</f>
+        <f t="shared" si="13"/>
         <v>2.3874733305072074E-2</v>
       </c>
     </row>
@@ -17508,11 +17508,11 @@
         <v>16.995049296339801</v>
       </c>
       <c r="J397" s="1">
-        <f>1-NORMSDIST((I397-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.87499915942407891</v>
       </c>
       <c r="K397" s="1">
-        <f>J397*F397</f>
+        <f t="shared" si="13"/>
         <v>2.3648625930380487E-2</v>
       </c>
     </row>
@@ -17545,11 +17545,11 @@
         <v>18.208384232084001</v>
       </c>
       <c r="J398" s="1">
-        <f>1-NORMSDIST((I398-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.60372430485142337</v>
       </c>
       <c r="K398" s="1">
-        <f>J398*F398</f>
+        <f t="shared" si="13"/>
         <v>2.3582980658258725E-2</v>
       </c>
     </row>
@@ -17582,11 +17582,11 @@
         <v>19.358434627970599</v>
       </c>
       <c r="J399" s="1">
-        <f>1-NORMSDIST((I399-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.28160990936178454</v>
       </c>
       <c r="K399" s="1">
-        <f>J399*F399</f>
+        <f t="shared" si="13"/>
         <v>2.3191404300382232E-2</v>
       </c>
     </row>
@@ -17619,11 +17619,11 @@
         <v>19.8893085368749</v>
       </c>
       <c r="J400" s="1">
-        <f>1-NORMSDIST((I400-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.16694484018022882</v>
       </c>
       <c r="K400" s="1">
-        <f>J400*F400</f>
+        <f t="shared" si="13"/>
         <v>2.3147813974569387E-2</v>
       </c>
     </row>
@@ -17656,11 +17656,11 @@
         <v>20.650816741054999</v>
       </c>
       <c r="J401" s="1">
-        <f>1-NORMSDIST((I401-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>6.385165987470498E-2</v>
       </c>
       <c r="K401" s="1">
-        <f>J401*F401</f>
+        <f t="shared" si="13"/>
         <v>2.3134659374893098E-2</v>
       </c>
     </row>
@@ -17693,11 +17693,11 @@
         <v>18.522618709198401</v>
       </c>
       <c r="J402" s="1">
-        <f>1-NORMSDIST((I402-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.51323859794531912</v>
       </c>
       <c r="K402" s="1">
-        <f>J402*F402</f>
+        <f t="shared" si="13"/>
         <v>2.2980832743820224E-2</v>
       </c>
     </row>
@@ -17730,11 +17730,11 @@
         <v>18.638301423477799</v>
       </c>
       <c r="J403" s="1">
-        <f>1-NORMSDIST((I403-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.47949872189566212</v>
       </c>
       <c r="K403" s="1">
-        <f>J403*F403</f>
+        <f t="shared" si="13"/>
         <v>2.2833272471221997E-2</v>
       </c>
     </row>
@@ -17767,11 +17767,11 @@
         <v>18.052045037062399</v>
       </c>
       <c r="J404" s="1">
-        <f>1-NORMSDIST((I404-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.64703738797192267</v>
       </c>
       <c r="K404" s="1">
-        <f>J404*F404</f>
+        <f t="shared" si="13"/>
         <v>2.2760109124640483E-2</v>
       </c>
     </row>
@@ -17804,11 +17804,11 @@
         <v>17.887015153283901</v>
       </c>
       <c r="J405" s="1">
-        <f>1-NORMSDIST((I405-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.69076689344810871</v>
       </c>
       <c r="K405" s="1">
-        <f>J405*F405</f>
+        <f t="shared" si="13"/>
         <v>2.2525007395047012E-2</v>
       </c>
     </row>
@@ -17841,11 +17841,11 @@
         <v>17.8271074775957</v>
       </c>
       <c r="J406" s="1">
-        <f>1-NORMSDIST((I406-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.7060347663348312</v>
       </c>
       <c r="K406" s="1">
-        <f>J406*F406</f>
+        <f t="shared" si="13"/>
         <v>2.2237315475112734E-2</v>
       </c>
     </row>
@@ -17878,11 +17878,11 @@
         <v>18.1405211622669</v>
       </c>
       <c r="J407" s="1">
-        <f>1-NORMSDIST((I407-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.6227187820027078</v>
       </c>
       <c r="K407" s="1">
-        <f>J407*F407</f>
+        <f t="shared" si="13"/>
         <v>2.206483873237939E-2</v>
       </c>
     </row>
@@ -17915,11 +17915,11 @@
         <v>18.105697491039599</v>
       </c>
       <c r="J408" s="1">
-        <f>1-NORMSDIST((I408-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.63235483457554476</v>
       </c>
       <c r="K408" s="1">
-        <f>J408*F408</f>
+        <f t="shared" si="13"/>
         <v>2.1994950767844988E-2</v>
       </c>
     </row>
@@ -17952,11 +17952,11 @@
         <v>16.7262842465753</v>
       </c>
       <c r="J409" s="1">
-        <f>1-NORMSDIST((I409-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.91099391168022759</v>
       </c>
       <c r="K409" s="1">
-        <f>J409*F409</f>
+        <f t="shared" si="13"/>
         <v>2.1690331230481603E-2</v>
       </c>
     </row>
@@ -17989,11 +17989,11 @@
         <v>19.962067039079301</v>
       </c>
       <c r="J410" s="1">
-        <f>1-NORMSDIST((I410-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.15397827865843805</v>
       </c>
       <c r="K410" s="1">
-        <f>J410*F410</f>
+        <f t="shared" si="13"/>
         <v>2.1633311877631786E-2</v>
       </c>
     </row>
@@ -18026,11 +18026,11 @@
         <v>18.173134689649299</v>
       </c>
       <c r="J411" s="1">
-        <f>1-NORMSDIST((I411-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.61362434292527579</v>
       </c>
       <c r="K411" s="1">
-        <f>J411*F411</f>
+        <f t="shared" si="13"/>
         <v>2.1625527503974427E-2</v>
       </c>
     </row>
@@ -18063,11 +18063,11 @@
         <v>17.823560099455499</v>
       </c>
       <c r="J412" s="1">
-        <f>1-NORMSDIST((I412-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.70692780966232527</v>
       </c>
       <c r="K412" s="1">
-        <f>J412*F412</f>
+        <f t="shared" si="13"/>
         <v>2.1207834289869758E-2</v>
       </c>
     </row>
@@ -18100,11 +18100,11 @@
         <v>18.250749143835598</v>
       </c>
       <c r="J413" s="1">
-        <f>1-NORMSDIST((I413-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.59173731642316874</v>
       </c>
       <c r="K413" s="1">
-        <f>J413*F413</f>
+        <f t="shared" si="13"/>
         <v>2.1133475586541731E-2</v>
       </c>
     </row>
@@ -18137,11 +18137,11 @@
         <v>17.266139464680801</v>
       </c>
       <c r="J414" s="1">
-        <f>1-NORMSDIST((I414-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.82947416419395803</v>
       </c>
       <c r="K414" s="1">
-        <f>J414*F414</f>
+        <f t="shared" si="13"/>
         <v>2.0999345928960935E-2</v>
       </c>
     </row>
@@ -18174,11 +18174,11 @@
         <v>18.006531732884401</v>
       </c>
       <c r="J415" s="1">
-        <f>1-NORMSDIST((I415-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.65932418982264107</v>
       </c>
       <c r="K415" s="1">
-        <f>J415*F415</f>
+        <f t="shared" si="13"/>
         <v>2.0997585663141381E-2</v>
       </c>
     </row>
@@ -18211,11 +18211,11 @@
         <v>17.8056714201626</v>
       </c>
       <c r="J416" s="1">
-        <f>1-NORMSDIST((I416-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.71141194782506512</v>
       </c>
       <c r="K416" s="1">
-        <f>J416*F416</f>
+        <f t="shared" si="13"/>
         <v>2.0923880818384231E-2</v>
       </c>
     </row>
@@ -18248,11 +18248,11 @@
         <v>20.5645193922686</v>
       </c>
       <c r="J417" s="1">
-        <f>1-NORMSDIST((I417-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>7.2129962100292211E-2</v>
       </c>
       <c r="K417" s="1">
-        <f>J417*F417</f>
+        <f t="shared" si="13"/>
         <v>2.0707166153193887E-2</v>
       </c>
     </row>
@@ -18285,11 +18285,11 @@
         <v>17.4324304641342</v>
       </c>
       <c r="J418" s="1">
-        <f>1-NORMSDIST((I418-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.79686514657930607</v>
       </c>
       <c r="K418" s="1">
-        <f>J418*F418</f>
+        <f t="shared" si="13"/>
         <v>2.069779601504685E-2</v>
       </c>
     </row>
@@ -18322,11 +18322,11 @@
         <v>18.125961789203</v>
       </c>
       <c r="J419" s="1">
-        <f>1-NORMSDIST((I419-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.62675719802063001</v>
       </c>
       <c r="K419" s="1">
-        <f>J419*F419</f>
+        <f t="shared" si="13"/>
         <v>2.054941632854522E-2</v>
       </c>
     </row>
@@ -18359,11 +18359,11 @@
         <v>19.893089083592301</v>
       </c>
       <c r="J420" s="1">
-        <f>1-NORMSDIST((I420-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.16625422718728866</v>
       </c>
       <c r="K420" s="1">
-        <f>J420*F420</f>
+        <f t="shared" si="13"/>
         <v>2.0525213232998468E-2</v>
       </c>
     </row>
@@ -18396,11 +18396,11 @@
         <v>18.881017573813899</v>
       </c>
       <c r="J421" s="1">
-        <f>1-NORMSDIST((I421-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.40946673424293367</v>
       </c>
       <c r="K421" s="1">
-        <f>J421*F421</f>
+        <f t="shared" si="13"/>
         <v>2.0473336712146684E-2</v>
       </c>
     </row>
@@ -18433,11 +18433,11 @@
         <v>19.219247847223901</v>
       </c>
       <c r="J422" s="1">
-        <f>1-NORMSDIST((I422-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.31693946252458771</v>
       </c>
       <c r="K422" s="1">
-        <f>J422*F422</f>
+        <f t="shared" si="13"/>
         <v>2.0230178459016222E-2</v>
       </c>
     </row>
@@ -18470,11 +18470,11 @@
         <v>20.666634529055699</v>
       </c>
       <c r="J423" s="1">
-        <f>1-NORMSDIST((I423-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>6.2417781874827605E-2</v>
       </c>
       <c r="K423" s="1">
-        <f>J423*F423</f>
+        <f t="shared" si="13"/>
         <v>2.0044734829721009E-2</v>
       </c>
     </row>
@@ -18507,11 +18507,11 @@
         <v>19.864405814605799</v>
       </c>
       <c r="J424" s="1">
-        <f>1-NORMSDIST((I424-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.17154010436028022</v>
       </c>
       <c r="K424" s="1">
-        <f>J424*F424</f>
+        <f t="shared" si="13"/>
         <v>1.9985254876925845E-2</v>
       </c>
     </row>
@@ -18544,11 +18544,11 @@
         <v>17.237186953358101</v>
       </c>
       <c r="J425" s="1">
-        <f>1-NORMSDIST((I425-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.83478873180831581</v>
       </c>
       <c r="K425" s="1">
-        <f>J425*F425</f>
+        <f t="shared" si="13"/>
         <v>1.9875922185912276E-2</v>
       </c>
     </row>
@@ -18581,11 +18581,11 @@
         <v>18.376488813635401</v>
       </c>
       <c r="J426" s="1">
-        <f>1-NORMSDIST((I426-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.5556934256127144</v>
       </c>
       <c r="K426" s="1">
-        <f>J426*F426</f>
+        <f t="shared" si="13"/>
         <v>1.984619377188265E-2</v>
       </c>
     </row>
@@ -18618,11 +18618,11 @@
         <v>19.089258868666299</v>
       </c>
       <c r="J427" s="1">
-        <f>1-NORMSDIST((I427-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.35152381528220644</v>
       </c>
       <c r="K427" s="1">
-        <f>J427*F427</f>
+        <f t="shared" si="13"/>
         <v>1.9844086346576167E-2</v>
       </c>
     </row>
@@ -18655,11 +18655,11 @@
         <v>19.040158428645199</v>
       </c>
       <c r="J428" s="1">
-        <f>1-NORMSDIST((I428-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.36493397960778873</v>
       </c>
       <c r="K428" s="1">
-        <f>J428*F428</f>
+        <f t="shared" si="13"/>
         <v>1.9603891466534101E-2</v>
       </c>
     </row>
@@ -18692,11 +18692,11 @@
         <v>20.116357766928701</v>
       </c>
       <c r="J429" s="1">
-        <f>1-NORMSDIST((I429-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.12874232056789758</v>
       </c>
       <c r="K429" s="1">
-        <f>J429*F429</f>
+        <f t="shared" si="13"/>
         <v>1.9591222695114815E-2</v>
       </c>
     </row>
@@ -18729,11 +18729,11 @@
         <v>18.875496976669499</v>
       </c>
       <c r="J430" s="1">
-        <f>1-NORMSDIST((I430-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.41103647868605975</v>
       </c>
       <c r="K430" s="1">
-        <f>J430*F430</f>
+        <f t="shared" si="13"/>
         <v>1.9573165651717125E-2</v>
       </c>
     </row>
@@ -18766,11 +18766,11 @@
         <v>20.163281309397998</v>
       </c>
       <c r="J431" s="1">
-        <f>1-NORMSDIST((I431-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.12167124781289673</v>
       </c>
       <c r="K431" s="1">
-        <f>J431*F431</f>
+        <f t="shared" si="13"/>
         <v>1.9415624650994112E-2</v>
       </c>
     </row>
@@ -18803,11 +18803,11 @@
         <v>18.501408731669599</v>
       </c>
       <c r="J432" s="1">
-        <f>1-NORMSDIST((I432-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.51942152791169516</v>
       </c>
       <c r="K432" s="1">
-        <f>J432*F432</f>
+        <f t="shared" si="13"/>
         <v>1.9237834367099801E-2</v>
       </c>
     </row>
@@ -18840,11 +18840,11 @@
         <v>19.993583312921999</v>
       </c>
       <c r="J433" s="1">
-        <f>1-NORMSDIST((I433-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.14857422744498328</v>
       </c>
       <c r="K433" s="1">
-        <f>J433*F433</f>
+        <f t="shared" si="13"/>
         <v>1.9034420597933695E-2</v>
       </c>
     </row>
@@ -18877,11 +18877,11 @@
         <v>19.283359446241501</v>
       </c>
       <c r="J434" s="1">
-        <f>1-NORMSDIST((I434-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.30043110865746236</v>
       </c>
       <c r="K434" s="1">
-        <f>J434*F434</f>
+        <f t="shared" si="13"/>
         <v>1.901462713021913E-2</v>
       </c>
     </row>
@@ -18914,11 +18914,11 @@
         <v>19.965567187989301</v>
       </c>
       <c r="J435" s="1">
-        <f>1-NORMSDIST((I435-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.15337177284825643</v>
       </c>
       <c r="K435" s="1">
-        <f>J435*F435</f>
+        <f t="shared" si="13"/>
         <v>1.8876525889016164E-2</v>
       </c>
     </row>
@@ -18951,11 +18951,11 @@
         <v>17.545527711633099</v>
       </c>
       <c r="J436" s="1">
-        <f>1-NORMSDIST((I436-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.77269897363238316</v>
       </c>
       <c r="K436" s="1">
-        <f>J436*F436</f>
+        <f t="shared" si="13"/>
         <v>1.8846316430058109E-2</v>
       </c>
     </row>
@@ -18988,11 +18988,11 @@
         <v>19.998173014499098</v>
       </c>
       <c r="J437" s="1">
-        <f>1-NORMSDIST((I437-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.14779794679988145</v>
       </c>
       <c r="K437" s="1">
-        <f>J437*F437</f>
+        <f t="shared" si="13"/>
         <v>1.8780954565730663E-2</v>
       </c>
     </row>
@@ -19025,11 +19025,11 @@
         <v>18.8245973625068</v>
       </c>
       <c r="J438" s="1">
-        <f>1-NORMSDIST((I438-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.42557345939562874</v>
       </c>
       <c r="K438" s="1">
-        <f>J438*F438</f>
+        <f t="shared" si="13"/>
         <v>1.8775299679218902E-2</v>
       </c>
     </row>
@@ -19062,11 +19062,11 @@
         <v>18.883313926125599</v>
       </c>
       <c r="J439" s="1">
-        <f>1-NORMSDIST((I439-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.40881420766139209</v>
       </c>
       <c r="K439" s="1">
-        <f>J439*F439</f>
+        <f t="shared" si="13"/>
         <v>1.8752945305568435E-2</v>
       </c>
     </row>
@@ -19099,11 +19099,11 @@
         <v>19.702397260273901</v>
       </c>
       <c r="J440" s="1">
-        <f>1-NORMSDIST((I440-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.20337816903922779</v>
       </c>
       <c r="K440" s="1">
-        <f>J440*F440</f>
+        <f t="shared" si="13"/>
         <v>1.8488924458111615E-2</v>
       </c>
     </row>
@@ -19136,11 +19136,11 @@
         <v>20.9727783637328</v>
       </c>
       <c r="J441" s="1">
-        <f>1-NORMSDIST((I441-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>3.9315843929223493E-2</v>
       </c>
       <c r="K441" s="1">
-        <f>J441*F441</f>
+        <f t="shared" si="13"/>
         <v>1.833761377295871E-2</v>
       </c>
     </row>
@@ -19173,11 +19173,11 @@
         <v>18.931242114912699</v>
       </c>
       <c r="J442" s="1">
-        <f>1-NORMSDIST((I442-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.39525531814664006</v>
       </c>
       <c r="K442" s="1">
-        <f>J442*F442</f>
+        <f t="shared" si="13"/>
         <v>1.8172658305592615E-2</v>
       </c>
     </row>
@@ -19210,11 +19210,11 @@
         <v>20.050220286846098</v>
       </c>
       <c r="J443" s="1">
-        <f>1-NORMSDIST((I443-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.13918502721170134</v>
       </c>
       <c r="K443" s="1">
-        <f>J443*F443</f>
+        <f t="shared" si="13"/>
         <v>1.8154568766743564E-2</v>
       </c>
     </row>
@@ -19247,11 +19247,11 @@
         <v>20.601060545706201</v>
       </c>
       <c r="J444" s="1">
-        <f>1-NORMSDIST((I444-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>6.8529422652794714E-2</v>
       </c>
       <c r="K444" s="1">
-        <f>J444*F444</f>
+        <f t="shared" si="13"/>
         <v>1.8127137604932793E-2</v>
       </c>
     </row>
@@ -19284,11 +19284,11 @@
         <v>18.132438495609801</v>
       </c>
       <c r="J445" s="1">
-        <f>1-NORMSDIST((I445-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.62496240629549982</v>
       </c>
       <c r="K445" s="1">
-        <f>J445*F445</f>
+        <f t="shared" si="13"/>
         <v>1.8062497291777425E-2</v>
       </c>
     </row>
@@ -19321,11 +19321,11 @@
         <v>19.8584184232868</v>
       </c>
       <c r="J446" s="1">
-        <f>1-NORMSDIST((I446-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.1726568895709959</v>
       </c>
       <c r="K446" s="1">
-        <f>J446*F446</f>
+        <f t="shared" si="13"/>
         <v>1.7971720847538605E-2</v>
       </c>
     </row>
@@ -19358,11 +19358,11 @@
         <v>20.845390714851501</v>
       </c>
       <c r="J447" s="1">
-        <f>1-NORMSDIST((I447-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>4.7904638287064594E-2</v>
       </c>
       <c r="K447" s="1">
-        <f>J447*F447</f>
+        <f t="shared" si="13"/>
         <v>1.793875816707095E-2</v>
       </c>
     </row>
@@ -19395,11 +19395,11 @@
         <v>18.839107785404501</v>
       </c>
       <c r="J448" s="1">
-        <f>1-NORMSDIST((I448-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.42141803510766118</v>
       </c>
       <c r="K448" s="1">
-        <f>J448*F448</f>
+        <f t="shared" si="13"/>
         <v>1.7806395849619461E-2</v>
       </c>
     </row>
@@ -19432,11 +19432,11 @@
         <v>20.011665619213399</v>
       </c>
       <c r="J449" s="1">
-        <f>1-NORMSDIST((I449-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="12"/>
         <v>0.14553162203620085</v>
       </c>
       <c r="K449" s="1">
-        <f>J449*F449</f>
+        <f t="shared" si="13"/>
         <v>1.7774854599841228E-2</v>
       </c>
     </row>
@@ -19469,11 +19469,11 @@
         <v>20.931656366617599</v>
       </c>
       <c r="J450" s="1">
-        <f>1-NORMSDIST((I450-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J450:J513" si="14">1-NORMSDIST((I450-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>4.193969013928478E-2</v>
       </c>
       <c r="K450" s="1">
-        <f>J450*F450</f>
+        <f t="shared" ref="K450:K513" si="15">J450*F450</f>
         <v>1.7755489256047544E-2</v>
       </c>
     </row>
@@ -19506,11 +19506,11 @@
         <v>18.226621361301302</v>
       </c>
       <c r="J451" s="1">
-        <f>1-NORMSDIST((I451-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.59857547794036026</v>
       </c>
       <c r="K451" s="1">
-        <f>J451*F451</f>
+        <f t="shared" si="15"/>
         <v>1.7605161115892918E-2</v>
       </c>
     </row>
@@ -19543,11 +19543,11 @@
         <v>18.782320205479401</v>
       </c>
       <c r="J452" s="1">
-        <f>1-NORMSDIST((I452-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.43772615966849404</v>
       </c>
       <c r="K452" s="1">
-        <f>J452*F452</f>
+        <f t="shared" si="15"/>
         <v>1.7509046386739762E-2</v>
       </c>
     </row>
@@ -19580,11 +19580,11 @@
         <v>20.971117872989701</v>
       </c>
       <c r="J453" s="1">
-        <f>1-NORMSDIST((I453-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>3.941914270055169E-2</v>
       </c>
       <c r="K453" s="1">
-        <f>J453*F453</f>
+        <f t="shared" si="15"/>
         <v>1.7452750203297677E-2</v>
       </c>
     </row>
@@ -19617,11 +19617,11 @@
         <v>19.477575988690798</v>
       </c>
       <c r="J454" s="1">
-        <f>1-NORMSDIST((I454-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.25296222275698466</v>
       </c>
       <c r="K454" s="1">
-        <f>J454*F454</f>
+        <f t="shared" si="15"/>
         <v>1.7360152542145988E-2</v>
       </c>
     </row>
@@ -19654,11 +19654,11 @@
         <v>17.773496695740501</v>
       </c>
       <c r="J455" s="1">
-        <f>1-NORMSDIST((I455-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.71939479323390687</v>
       </c>
       <c r="K455" s="1">
-        <f>J455*F455</f>
+        <f t="shared" si="15"/>
         <v>1.7128447457950158E-2</v>
       </c>
     </row>
@@ -19691,11 +19691,11 @@
         <v>19.574614726027399</v>
       </c>
       <c r="J456" s="1">
-        <f>1-NORMSDIST((I456-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.23081536608145636</v>
       </c>
       <c r="K456" s="1">
-        <f>J456*F456</f>
+        <f t="shared" si="15"/>
         <v>1.7097434524552306E-2</v>
       </c>
     </row>
@@ -19728,11 +19728,11 @@
         <v>17.9889661815068</v>
       </c>
       <c r="J457" s="1">
-        <f>1-NORMSDIST((I457-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.66402220736031015</v>
       </c>
       <c r="K457" s="1">
-        <f>J457*F457</f>
+        <f t="shared" si="15"/>
         <v>1.7026210445136129E-2</v>
       </c>
     </row>
@@ -19765,11 +19765,11 @@
         <v>20.037204340354702</v>
       </c>
       <c r="J458" s="1">
-        <f>1-NORMSDIST((I458-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.14130621765573859</v>
       </c>
       <c r="K458" s="1">
-        <f>J458*F458</f>
+        <f t="shared" si="15"/>
         <v>1.6933389719076021E-2</v>
       </c>
     </row>
@@ -19802,11 +19802,11 @@
         <v>18.129116457241501</v>
       </c>
       <c r="J459" s="1">
-        <f>1-NORMSDIST((I459-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.62588333336793989</v>
       </c>
       <c r="K459" s="1">
-        <f>J459*F459</f>
+        <f t="shared" si="15"/>
         <v>1.6915765766701063E-2</v>
       </c>
     </row>
@@ -19839,11 +19839,11 @@
         <v>17.6238335454515</v>
       </c>
       <c r="J460" s="1">
-        <f>1-NORMSDIST((I460-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.75505930642437202</v>
       </c>
       <c r="K460" s="1">
-        <f>J460*F460</f>
+        <f t="shared" si="15"/>
         <v>1.6904312830396361E-2</v>
       </c>
     </row>
@@ -19876,11 +19876,11 @@
         <v>19.117748047438401</v>
       </c>
       <c r="J461" s="1">
-        <f>1-NORMSDIST((I461-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.34382557375102762</v>
       </c>
       <c r="K461" s="1">
-        <f>J461*F461</f>
+        <f t="shared" si="15"/>
         <v>1.6854194791717021E-2</v>
       </c>
     </row>
@@ -19913,11 +19913,11 @@
         <v>18.654464797450999</v>
       </c>
       <c r="J462" s="1">
-        <f>1-NORMSDIST((I462-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.47479069945453034</v>
       </c>
       <c r="K462" s="1">
-        <f>J462*F462</f>
+        <f t="shared" si="15"/>
         <v>1.675731880427753E-2</v>
       </c>
     </row>
@@ -19950,11 +19950,11 @@
         <v>19.722312989626801</v>
       </c>
       <c r="J463" s="1">
-        <f>1-NORMSDIST((I463-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.19928435473859163</v>
       </c>
       <c r="K463" s="1">
-        <f>J463*F463</f>
+        <f t="shared" si="15"/>
         <v>1.6607029561549295E-2</v>
       </c>
     </row>
@@ -19987,11 +19987,11 @@
         <v>18.258143343192501</v>
       </c>
       <c r="J464" s="1">
-        <f>1-NORMSDIST((I464-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.58963598445911714</v>
       </c>
       <c r="K464" s="1">
-        <f>J464*F464</f>
+        <f t="shared" si="15"/>
         <v>1.6378777346086542E-2</v>
       </c>
     </row>
@@ -20024,11 +20024,11 @@
         <v>19.6078767123287</v>
       </c>
       <c r="J465" s="1">
-        <f>1-NORMSDIST((I465-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.22348095914459121</v>
       </c>
       <c r="K465" s="1">
-        <f>J465*F465</f>
+        <f t="shared" si="15"/>
         <v>1.5962925653185078E-2</v>
       </c>
     </row>
@@ -20061,11 +20061,11 @@
         <v>20.043202213756398</v>
       </c>
       <c r="J466" s="1">
-        <f>1-NORMSDIST((I466-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.14032604547873806</v>
       </c>
       <c r="K466" s="1">
-        <f>J466*F466</f>
+        <f t="shared" si="15"/>
         <v>1.5867256025864307E-2</v>
       </c>
     </row>
@@ -20098,11 +20098,11 @@
         <v>18.191615547297101</v>
       </c>
       <c r="J467" s="1">
-        <f>1-NORMSDIST((I467-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.60844266131484881</v>
       </c>
       <c r="K467" s="1">
-        <f>J467*F467</f>
+        <f t="shared" si="15"/>
         <v>1.5844860971740812E-2</v>
       </c>
     </row>
@@ -20135,11 +20135,11 @@
         <v>18.200558992308899</v>
       </c>
       <c r="J468" s="1">
-        <f>1-NORMSDIST((I468-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.60592810034499311</v>
       </c>
       <c r="K468" s="1">
-        <f>J468*F468</f>
+        <f t="shared" si="15"/>
         <v>1.5841257525359295E-2</v>
       </c>
     </row>
@@ -20172,11 +20172,11 @@
         <v>19.428960309198001</v>
       </c>
       <c r="J469" s="1">
-        <f>1-NORMSDIST((I469-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.26446407387289084</v>
       </c>
       <c r="K469" s="1">
-        <f>J469*F469</f>
+        <f t="shared" si="15"/>
         <v>1.5822636898378074E-2</v>
       </c>
     </row>
@@ -20209,11 +20209,11 @@
         <v>19.054941075233899</v>
       </c>
       <c r="J470" s="1">
-        <f>1-NORMSDIST((I470-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.36087828907538877</v>
       </c>
       <c r="K470" s="1">
-        <f>J470*F470</f>
+        <f t="shared" si="15"/>
         <v>1.5521646841952189E-2</v>
       </c>
     </row>
@@ -20246,11 +20246,11 @@
         <v>20.302784146451</v>
       </c>
       <c r="J471" s="1">
-        <f>1-NORMSDIST((I471-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.10227488311016131</v>
       </c>
       <c r="K471" s="1">
-        <f>J471*F471</f>
+        <f t="shared" si="15"/>
         <v>1.5386486839581772E-2</v>
       </c>
     </row>
@@ -20283,11 +20283,11 @@
         <v>17.606502025053</v>
       </c>
       <c r="J472" s="1">
-        <f>1-NORMSDIST((I472-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.75902588033564433</v>
       </c>
       <c r="K472" s="1">
-        <f>J472*F472</f>
+        <f t="shared" si="15"/>
         <v>1.5385659736533277E-2</v>
       </c>
     </row>
@@ -20320,11 +20320,11 @@
         <v>19.883884584627399</v>
       </c>
       <c r="J473" s="1">
-        <f>1-NORMSDIST((I473-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.16793888971049364</v>
       </c>
       <c r="K473" s="1">
-        <f>J473*F473</f>
+        <f t="shared" si="15"/>
         <v>1.5330521052410208E-2</v>
       </c>
     </row>
@@ -20357,11 +20357,11 @@
         <v>20.5514090960156</v>
       </c>
       <c r="J474" s="1">
-        <f>1-NORMSDIST((I474-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>7.3456535295364001E-2</v>
       </c>
       <c r="K474" s="1">
-        <f>J474*F474</f>
+        <f t="shared" si="15"/>
         <v>1.533005953990205E-2</v>
       </c>
     </row>
@@ -20394,11 +20394,11 @@
         <v>20.525128424657499</v>
       </c>
       <c r="J475" s="1">
-        <f>1-NORMSDIST((I475-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>7.6171843968392272E-2</v>
       </c>
       <c r="K475" s="1">
-        <f>J475*F475</f>
+        <f t="shared" si="15"/>
         <v>1.5234368793678454E-2</v>
       </c>
     </row>
@@ -20431,11 +20431,11 @@
         <v>19.767661734802999</v>
       </c>
       <c r="J476" s="1">
-        <f>1-NORMSDIST((I476-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.19014962745915986</v>
       </c>
       <c r="K476" s="1">
-        <f>J476*F476</f>
+        <f t="shared" si="15"/>
         <v>1.521197019673279E-2</v>
       </c>
     </row>
@@ -20468,11 +20468,11 @@
         <v>19.859673865702501</v>
       </c>
       <c r="J477" s="1">
-        <f>1-NORMSDIST((I477-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.17242233764363091</v>
       </c>
       <c r="K477" s="1">
-        <f>J477*F477</f>
+        <f t="shared" si="15"/>
         <v>1.5166779700134188E-2</v>
       </c>
     </row>
@@ -20505,11 +20505,11 @@
         <v>20.995433288471698</v>
       </c>
       <c r="J478" s="1">
-        <f>1-NORMSDIST((I478-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>3.7928366408710223E-2</v>
       </c>
       <c r="K478" s="1">
-        <f>J478*F478</f>
+        <f t="shared" si="15"/>
         <v>1.50546438976111E-2</v>
       </c>
     </row>
@@ -20542,11 +20542,11 @@
         <v>20.006560890067799</v>
       </c>
       <c r="J479" s="1">
-        <f>1-NORMSDIST((I479-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.14638628928497388</v>
       </c>
       <c r="K479" s="1">
-        <f>J479*F479</f>
+        <f t="shared" si="15"/>
         <v>1.5049057776959932E-2</v>
       </c>
     </row>
@@ -20579,11 +20579,11 @@
         <v>17.9582654280795</v>
       </c>
       <c r="J480" s="1">
-        <f>1-NORMSDIST((I480-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.67217173969682253</v>
       </c>
       <c r="K480" s="1">
-        <f>J480*F480</f>
+        <f t="shared" si="15"/>
         <v>1.5048621037988539E-2</v>
       </c>
     </row>
@@ -20616,11 +20616,11 @@
         <v>19.691007431239299</v>
       </c>
       <c r="J481" s="1">
-        <f>1-NORMSDIST((I481-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.20574181304920636</v>
       </c>
       <c r="K481" s="1">
-        <f>J481*F481</f>
+        <f t="shared" si="15"/>
         <v>1.4963040949033184E-2</v>
       </c>
     </row>
@@ -20653,11 +20653,11 @@
         <v>18.910097411397299</v>
       </c>
       <c r="J482" s="1">
-        <f>1-NORMSDIST((I482-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.40122258340721162</v>
       </c>
       <c r="K482" s="1">
-        <f>J482*F482</f>
+        <f t="shared" si="15"/>
         <v>1.4860095681748564E-2</v>
       </c>
     </row>
@@ -20690,11 +20690,11 @@
         <v>19.214257621024299</v>
       </c>
       <c r="J483" s="1">
-        <f>1-NORMSDIST((I483-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.3182404173057356</v>
       </c>
       <c r="K483" s="1">
-        <f>J483*F483</f>
+        <f t="shared" si="15"/>
         <v>1.485121947426764E-2</v>
       </c>
     </row>
@@ -20727,11 +20727,11 @@
         <v>19.991376426729701</v>
       </c>
       <c r="J484" s="1">
-        <f>1-NORMSDIST((I484-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.14894845864012052</v>
       </c>
       <c r="K484" s="1">
-        <f>J484*F484</f>
+        <f t="shared" si="15"/>
         <v>1.4718227138351822E-2</v>
       </c>
     </row>
@@ -20764,11 +20764,11 @@
         <v>20.7315457292665</v>
       </c>
       <c r="J485" s="1">
-        <f>1-NORMSDIST((I485-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>5.6795020328627155E-2</v>
       </c>
       <c r="K485" s="1">
-        <f>J485*F485</f>
+        <f t="shared" si="15"/>
         <v>1.4555507722411935E-2</v>
       </c>
     </row>
@@ -20801,11 +20801,11 @@
         <v>17.8712713507574</v>
       </c>
       <c r="J486" s="1">
-        <f>1-NORMSDIST((I486-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.69481283080403733</v>
       </c>
       <c r="K486" s="1">
-        <f>J486*F486</f>
+        <f t="shared" si="15"/>
         <v>1.4475267308417422E-2</v>
       </c>
     </row>
@@ -20838,11 +20838,11 @@
         <v>20.1084023182778</v>
       </c>
       <c r="J487" s="1">
-        <f>1-NORMSDIST((I487-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.12996886480173508</v>
       </c>
       <c r="K487" s="1">
-        <f>J487*F487</f>
+        <f t="shared" si="15"/>
         <v>1.444098497797055E-2</v>
       </c>
     </row>
@@ -20875,11 +20875,11 @@
         <v>20.572475790090301</v>
       </c>
       <c r="J488" s="1">
-        <f>1-NORMSDIST((I488-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>7.1333890057246774E-2</v>
       </c>
       <c r="K488" s="1">
-        <f>J488*F488</f>
+        <f t="shared" si="15"/>
         <v>1.4348770988526627E-2</v>
       </c>
     </row>
@@ -20912,11 +20912,11 @@
         <v>19.324168775631001</v>
       </c>
       <c r="J489" s="1">
-        <f>1-NORMSDIST((I489-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.29012964211041914</v>
       </c>
       <c r="K489" s="1">
-        <f>J489*F489</f>
+        <f t="shared" si="15"/>
         <v>1.415266546880092E-2</v>
       </c>
     </row>
@@ -20949,11 +20949,11 @@
         <v>19.5569381559446</v>
       </c>
       <c r="J490" s="1">
-        <f>1-NORMSDIST((I490-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.23476717791422264</v>
       </c>
       <c r="K490" s="1">
-        <f>J490*F490</f>
+        <f t="shared" si="15"/>
         <v>1.4045899533329551E-2</v>
       </c>
     </row>
@@ -20986,11 +20986,11 @@
         <v>19.859124516321501</v>
       </c>
       <c r="J491" s="1">
-        <f>1-NORMSDIST((I491-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.17252494652728978</v>
       </c>
       <c r="K491" s="1">
-        <f>J491*F491</f>
+        <f t="shared" si="15"/>
         <v>1.3948825463908529E-2</v>
       </c>
     </row>
@@ -21023,11 +21023,11 @@
         <v>17.6399818733946</v>
       </c>
       <c r="J492" s="1">
-        <f>1-NORMSDIST((I492-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.75133213823970468</v>
       </c>
       <c r="K492" s="1">
-        <f>J492*F492</f>
+        <f t="shared" si="15"/>
         <v>1.3913558115550072E-2</v>
       </c>
     </row>
@@ -21060,11 +21060,11 @@
         <v>17.949483299314799</v>
       </c>
       <c r="J493" s="1">
-        <f>1-NORMSDIST((I493-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.67448817100551073</v>
       </c>
       <c r="K493" s="1">
-        <f>J493*F493</f>
+        <f t="shared" si="15"/>
         <v>1.3906972598051749E-2</v>
       </c>
     </row>
@@ -21097,11 +21097,11 @@
         <v>18.663079907142901</v>
       </c>
       <c r="J494" s="1">
-        <f>1-NORMSDIST((I494-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.47228270984984277</v>
       </c>
       <c r="K494" s="1">
-        <f>J494*F494</f>
+        <f t="shared" si="15"/>
         <v>1.3755807083005125E-2</v>
       </c>
     </row>
@@ -21134,11 +21134,11 @@
         <v>18.036728309327099</v>
       </c>
       <c r="J495" s="1">
-        <f>1-NORMSDIST((I495-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.65119021918413988</v>
       </c>
       <c r="K495" s="1">
-        <f>J495*F495</f>
+        <f t="shared" si="15"/>
         <v>1.347290108656835E-2</v>
       </c>
     </row>
@@ -21171,11 +21171,11 @@
         <v>17.747237155861999</v>
       </c>
       <c r="J496" s="1">
-        <f>1-NORMSDIST((I496-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.72582982259980577</v>
       </c>
       <c r="K496" s="1">
-        <f>J496*F496</f>
+        <f t="shared" si="15"/>
         <v>1.34412930111075E-2</v>
       </c>
     </row>
@@ -21208,11 +21208,11 @@
         <v>20.8471343611671</v>
       </c>
       <c r="J497" s="1">
-        <f>1-NORMSDIST((I497-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>4.7777679307678178E-2</v>
       </c>
       <c r="K497" s="1">
-        <f>J497*F497</f>
+        <f t="shared" si="15"/>
         <v>1.3423252757871443E-2</v>
       </c>
     </row>
@@ -21245,11 +21245,11 @@
         <v>20.271546422116799</v>
       </c>
       <c r="J498" s="1">
-        <f>1-NORMSDIST((I498-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.10640968972141107</v>
       </c>
       <c r="K498" s="1">
-        <f>J498*F498</f>
+        <f t="shared" si="15"/>
         <v>1.33630773138516E-2</v>
       </c>
     </row>
@@ -21282,11 +21282,11 @@
         <v>19.935159315868901</v>
       </c>
       <c r="J499" s="1">
-        <f>1-NORMSDIST((I499-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.15869378213308916</v>
       </c>
       <c r="K499" s="1">
-        <f>J499*F499</f>
+        <f t="shared" si="15"/>
         <v>1.2893869798313494E-2</v>
       </c>
     </row>
@@ -21319,11 +21319,11 @@
         <v>19.414611368358599</v>
       </c>
       <c r="J500" s="1">
-        <f>1-NORMSDIST((I500-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.26790901529850064</v>
       </c>
       <c r="K500" s="1">
-        <f>J500*F500</f>
+        <f t="shared" si="15"/>
         <v>1.2880241120120203E-2</v>
       </c>
     </row>
@@ -21356,11 +21356,11 @@
         <v>19.0807212756288</v>
       </c>
       <c r="J501" s="1">
-        <f>1-NORMSDIST((I501-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.35384289718833251</v>
       </c>
       <c r="K501" s="1">
-        <f>J501*F501</f>
+        <f t="shared" si="15"/>
         <v>1.2867014443212069E-2</v>
       </c>
     </row>
@@ -21393,11 +21393,11 @@
         <v>18.483774347174599</v>
       </c>
       <c r="J502" s="1">
-        <f>1-NORMSDIST((I502-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.52455864395169804</v>
       </c>
       <c r="K502" s="1">
-        <f>J502*F502</f>
+        <f t="shared" si="15"/>
         <v>1.2794113267114575E-2</v>
       </c>
     </row>
@@ -21430,11 +21430,11 @@
         <v>20.696686186330599</v>
       </c>
       <c r="J503" s="1">
-        <f>1-NORMSDIST((I503-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>5.9762901874070296E-2</v>
       </c>
       <c r="K503" s="1">
-        <f>J503*F503</f>
+        <f t="shared" si="15"/>
         <v>1.2709757412132563E-2</v>
       </c>
     </row>
@@ -21467,11 +21467,11 @@
         <v>19.908959302326998</v>
       </c>
       <c r="J504" s="1">
-        <f>1-NORMSDIST((I504-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.16337529198391798</v>
       </c>
       <c r="K504" s="1">
-        <f>J504*F504</f>
+        <f t="shared" si="15"/>
         <v>1.2664751316582783E-2</v>
       </c>
     </row>
@@ -21504,11 +21504,11 @@
         <v>18.148475960509401</v>
       </c>
       <c r="J505" s="1">
-        <f>1-NORMSDIST((I505-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.62050659962825228</v>
       </c>
       <c r="K505" s="1">
-        <f>J505*F505</f>
+        <f t="shared" si="15"/>
         <v>1.2663399992413298E-2</v>
       </c>
     </row>
@@ -21541,11 +21541,11 @@
         <v>20.7261632278842</v>
       </c>
       <c r="J506" s="1">
-        <f>1-NORMSDIST((I506-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>5.7245546379551038E-2</v>
       </c>
       <c r="K506" s="1">
-        <f>J506*F506</f>
+        <f t="shared" si="15"/>
         <v>1.2566095546730703E-2</v>
       </c>
     </row>
@@ -21578,11 +21578,11 @@
         <v>19.668686319692501</v>
       </c>
       <c r="J507" s="1">
-        <f>1-NORMSDIST((I507-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.21042094721291638</v>
       </c>
       <c r="K507" s="1">
-        <f>J507*F507</f>
+        <f t="shared" si="15"/>
         <v>1.251574407214372E-2</v>
       </c>
     </row>
@@ -21615,11 +21615,11 @@
         <v>20.973384263822901</v>
       </c>
       <c r="J508" s="1">
-        <f>1-NORMSDIST((I508-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>3.9278205910229902E-2</v>
       </c>
       <c r="K508" s="1">
-        <f>J508*F508</f>
+        <f t="shared" si="15"/>
         <v>1.2476606583249483E-2</v>
       </c>
     </row>
@@ -21652,11 +21652,11 @@
         <v>20.8091319186086</v>
       </c>
       <c r="J509" s="1">
-        <f>1-NORMSDIST((I509-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>5.060644149375193E-2</v>
       </c>
       <c r="K509" s="1">
-        <f>J509*F509</f>
+        <f t="shared" si="15"/>
         <v>1.245697021384662E-2</v>
       </c>
     </row>
@@ -21689,11 +21689,11 @@
         <v>19.931580192728401</v>
       </c>
       <c r="J510" s="1">
-        <f>1-NORMSDIST((I510-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.15932807378200786</v>
       </c>
       <c r="K510" s="1">
-        <f>J510*F510</f>
+        <f t="shared" si="15"/>
         <v>1.2374996021903513E-2</v>
       </c>
     </row>
@@ -21726,11 +21726,11 @@
         <v>20.380136986301299</v>
       </c>
       <c r="J511" s="1">
-        <f>1-NORMSDIST((I511-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>9.2541535014576848E-2</v>
       </c>
       <c r="K511" s="1">
-        <f>J511*F511</f>
+        <f t="shared" si="15"/>
         <v>1.2338871335276882E-2</v>
       </c>
     </row>
@@ -21763,11 +21763,11 @@
         <v>19.112863869862998</v>
       </c>
       <c r="J512" s="1">
-        <f>1-NORMSDIST((I512-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.34514087510349811</v>
       </c>
       <c r="K512" s="1">
-        <f>J512*F512</f>
+        <f t="shared" si="15"/>
         <v>1.2326459825124926E-2</v>
       </c>
     </row>
@@ -21800,11 +21800,11 @@
         <v>20.1488245632864</v>
       </c>
       <c r="J513" s="1">
-        <f>1-NORMSDIST((I513-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="14"/>
         <v>0.12382007512208792</v>
       </c>
       <c r="K513" s="1">
-        <f>J513*F513</f>
+        <f t="shared" si="15"/>
         <v>1.2294191856093829E-2</v>
       </c>
     </row>
@@ -21837,11 +21837,11 @@
         <v>20.211719034704998</v>
       </c>
       <c r="J514" s="1">
-        <f>1-NORMSDIST((I514-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J514:J577" si="16">1-NORMSDIST((I514-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>0.1146630179502649</v>
       </c>
       <c r="K514" s="1">
-        <f>J514*F514</f>
+        <f t="shared" ref="K514:K577" si="17">J514*F514</f>
         <v>1.1737159317743601E-2</v>
       </c>
     </row>
@@ -21874,11 +21874,11 @@
         <v>19.899603633826199</v>
       </c>
       <c r="J515" s="1">
-        <f>1-NORMSDIST((I515-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.16506851473488249</v>
       </c>
       <c r="K515" s="1">
-        <f>J515*F515</f>
+        <f t="shared" si="17"/>
         <v>1.1671511142870478E-2</v>
       </c>
     </row>
@@ -21911,11 +21911,11 @@
         <v>21.103442098745798</v>
       </c>
       <c r="J516" s="1">
-        <f>1-NORMSDIST((I516-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>3.185247205438746E-2</v>
       </c>
       <c r="K516" s="1">
-        <f>J516*F516</f>
+        <f t="shared" si="17"/>
         <v>1.1582717110686327E-2</v>
       </c>
     </row>
@@ -21948,11 +21948,11 @@
         <v>18.915154060803001</v>
       </c>
       <c r="J517" s="1">
-        <f>1-NORMSDIST((I517-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.39979338730401415</v>
       </c>
       <c r="K517" s="1">
-        <f>J517*F517</f>
+        <f t="shared" si="17"/>
         <v>1.142266820868609E-2</v>
       </c>
     </row>
@@ -21985,11 +21985,11 @@
         <v>19.288102728296799</v>
       </c>
       <c r="J518" s="1">
-        <f>1-NORMSDIST((I518-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.29922531234889826</v>
       </c>
       <c r="K518" s="1">
-        <f>J518*F518</f>
+        <f t="shared" si="17"/>
         <v>1.1399059518053268E-2</v>
       </c>
     </row>
@@ -22022,11 +22022,11 @@
         <v>20.7950795666465</v>
       </c>
       <c r="J519" s="1">
-        <f>1-NORMSDIST((I519-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>5.1685632002341775E-2</v>
       </c>
       <c r="K519" s="1">
-        <f>J519*F519</f>
+        <f t="shared" si="17"/>
         <v>1.1321614629084386E-2</v>
       </c>
     </row>
@@ -22059,11 +22059,11 @@
         <v>20.539506635273899</v>
       </c>
       <c r="J520" s="1">
-        <f>1-NORMSDIST((I520-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>7.4676978882346479E-2</v>
       </c>
       <c r="K520" s="1">
-        <f>J520*F520</f>
+        <f t="shared" si="17"/>
         <v>1.1314693770052458E-2</v>
       </c>
     </row>
@@ -22096,11 +22096,11 @@
         <v>19.137896736058799</v>
       </c>
       <c r="J521" s="1">
-        <f>1-NORMSDIST((I521-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.33841967185795996</v>
       </c>
       <c r="K521" s="1">
-        <f>J521*F521</f>
+        <f t="shared" si="17"/>
         <v>1.1280655728598654E-2</v>
       </c>
     </row>
@@ -22133,11 +22133,11 @@
         <v>20.546000614325099</v>
       </c>
       <c r="J522" s="1">
-        <f>1-NORMSDIST((I522-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>7.4009200975812428E-2</v>
       </c>
       <c r="K522" s="1">
-        <f>J522*F522</f>
+        <f t="shared" si="17"/>
         <v>1.1181246190590331E-2</v>
       </c>
     </row>
@@ -22170,11 +22170,11 @@
         <v>21.177051317376801</v>
       </c>
       <c r="J523" s="1">
-        <f>1-NORMSDIST((I523-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>2.8190972989746377E-2</v>
       </c>
       <c r="K523" s="1">
-        <f>J523*F523</f>
+        <f t="shared" si="17"/>
         <v>1.1177473501197674E-2</v>
       </c>
     </row>
@@ -22207,11 +22207,11 @@
         <v>21.042788704262499</v>
       </c>
       <c r="J524" s="1">
-        <f>1-NORMSDIST((I524-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>3.5157070241146782E-2</v>
       </c>
       <c r="K524" s="1">
-        <f>J524*F524</f>
+        <f t="shared" si="17"/>
         <v>1.1160974679729121E-2</v>
       </c>
     </row>
@@ -22244,11 +22244,11 @@
         <v>19.075975705684201</v>
       </c>
       <c r="J525" s="1">
-        <f>1-NORMSDIST((I525-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.35513430041313743</v>
       </c>
       <c r="K525" s="1">
-        <f>J525*F525</f>
+        <f t="shared" si="17"/>
         <v>1.1156051321878652E-2</v>
       </c>
     </row>
@@ -22281,11 +22281,11 @@
         <v>21.1341262318596</v>
       </c>
       <c r="J526" s="1">
-        <f>1-NORMSDIST((I526-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>3.0281024253139388E-2</v>
       </c>
       <c r="K526" s="1">
-        <f>J526*F526</f>
+        <f t="shared" si="17"/>
         <v>1.1052573852395876E-2</v>
       </c>
     </row>
@@ -22318,11 +22318,11 @@
         <v>16.100044323766699</v>
       </c>
       <c r="J527" s="1">
-        <f>1-NORMSDIST((I527-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.9644538864161899</v>
       </c>
       <c r="K527" s="1">
-        <f>J527*F527</f>
+        <f t="shared" si="17"/>
         <v>1.0959703254729369E-2</v>
       </c>
     </row>
@@ -22355,11 +22355,11 @@
         <v>21.093189564884</v>
       </c>
       <c r="J528" s="1">
-        <f>1-NORMSDIST((I528-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>3.2392325468193262E-2</v>
       </c>
       <c r="K528" s="1">
-        <f>J528*F528</f>
+        <f t="shared" si="17"/>
         <v>1.0737787448019854E-2</v>
       </c>
     </row>
@@ -22392,11 +22392,11 @@
         <v>19.9680043920694</v>
       </c>
       <c r="J529" s="1">
-        <f>1-NORMSDIST((I529-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.1529503900363981</v>
       </c>
       <c r="K529" s="1">
-        <f>J529*F529</f>
+        <f t="shared" si="17"/>
         <v>1.0720821731523226E-2</v>
       </c>
     </row>
@@ -22429,11 +22429,11 @@
         <v>20.756881097734698</v>
       </c>
       <c r="J530" s="1">
-        <f>1-NORMSDIST((I530-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>5.4711797449732535E-2</v>
       </c>
       <c r="K530" s="1">
-        <f>J530*F530</f>
+        <f t="shared" si="17"/>
         <v>1.0607389301478747E-2</v>
       </c>
     </row>
@@ -22466,11 +22466,11 @@
         <v>20.921432245809701</v>
       </c>
       <c r="J531" s="1">
-        <f>1-NORMSDIST((I531-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>4.2613597201207165E-2</v>
       </c>
       <c r="K531" s="1">
-        <f>J531*F531</f>
+        <f t="shared" si="17"/>
         <v>1.0515043465232904E-2</v>
       </c>
     </row>
@@ -22503,11 +22503,11 @@
         <v>19.526369863013699</v>
       </c>
       <c r="J532" s="1">
-        <f>1-NORMSDIST((I532-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.24168850658024776</v>
       </c>
       <c r="K532" s="1">
-        <f>J532*F532</f>
+        <f t="shared" si="17"/>
         <v>1.0508195938271639E-2</v>
       </c>
     </row>
@@ -22540,11 +22540,11 @@
         <v>20.457170376712298</v>
       </c>
       <c r="J533" s="1">
-        <f>1-NORMSDIST((I533-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>8.3546920263058988E-2</v>
       </c>
       <c r="K533" s="1">
-        <f>J533*F533</f>
+        <f t="shared" si="17"/>
         <v>1.0443365032882373E-2</v>
       </c>
     </row>
@@ -22577,11 +22577,11 @@
         <v>18.895792413084401</v>
       </c>
       <c r="J534" s="1">
-        <f>1-NORMSDIST((I534-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.40527280899737383</v>
       </c>
       <c r="K534" s="1">
-        <f>J534*F534</f>
+        <f t="shared" si="17"/>
         <v>1.0391610487112133E-2</v>
       </c>
     </row>
@@ -22614,11 +22614,11 @@
         <v>18.5183100823646</v>
       </c>
       <c r="J535" s="1">
-        <f>1-NORMSDIST((I535-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.51449491360916288</v>
       </c>
       <c r="K535" s="1">
-        <f>J535*F535</f>
+        <f t="shared" si="17"/>
         <v>1.0358957992130763E-2</v>
       </c>
     </row>
@@ -22651,11 +22651,11 @@
         <v>20.522959588978299</v>
       </c>
       <c r="J536" s="1">
-        <f>1-NORMSDIST((I536-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>7.6399295425671032E-2</v>
       </c>
       <c r="K536" s="1">
-        <f>J536*F536</f>
+        <f t="shared" si="17"/>
         <v>1.024868597173631E-2</v>
       </c>
     </row>
@@ -22688,11 +22688,11 @@
         <v>21.207095241564399</v>
       </c>
       <c r="J537" s="1">
-        <f>1-NORMSDIST((I537-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>2.6800711288135326E-2</v>
       </c>
       <c r="K537" s="1">
-        <f>J537*F537</f>
+        <f t="shared" si="17"/>
         <v>1.0247330786639962E-2</v>
       </c>
     </row>
@@ -22725,11 +22725,11 @@
         <v>20.2267123287671</v>
       </c>
       <c r="J538" s="1">
-        <f>1-NORMSDIST((I538-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.11255309733916607</v>
       </c>
       <c r="K538" s="1">
-        <f>J538*F538</f>
+        <f t="shared" si="17"/>
         <v>1.0232099758106005E-2</v>
       </c>
     </row>
@@ -22762,11 +22762,11 @@
         <v>21.042033464726199</v>
       </c>
       <c r="J539" s="1">
-        <f>1-NORMSDIST((I539-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>3.5199927190841085E-2</v>
       </c>
       <c r="K539" s="1">
-        <f>J539*F539</f>
+        <f t="shared" si="17"/>
         <v>1.0193644073365727E-2</v>
       </c>
     </row>
@@ -22799,11 +22799,11 @@
         <v>19.9809204295982</v>
       </c>
       <c r="J540" s="1">
-        <f>1-NORMSDIST((I540-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.15073008178079494</v>
       </c>
       <c r="K540" s="1">
-        <f>J540*F540</f>
+        <f t="shared" si="17"/>
         <v>1.0093532262106802E-2</v>
       </c>
     </row>
@@ -22836,11 +22836,11 @@
         <v>17.115209430816101</v>
       </c>
       <c r="J541" s="1">
-        <f>1-NORMSDIST((I541-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.85598853649633955</v>
       </c>
       <c r="K541" s="1">
-        <f>J541*F541</f>
+        <f t="shared" si="17"/>
         <v>1.0070453370545135E-2</v>
       </c>
     </row>
@@ -22873,11 +22873,11 @@
         <v>19.950834440653701</v>
       </c>
       <c r="J542" s="1">
-        <f>1-NORMSDIST((I542-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.15593536830028198</v>
       </c>
       <c r="K542" s="1">
-        <f>J542*F542</f>
+        <f t="shared" si="17"/>
         <v>1.0060346341953665E-2</v>
       </c>
     </row>
@@ -22910,11 +22910,11 @@
         <v>21.0169703906355</v>
       </c>
       <c r="J543" s="1">
-        <f>1-NORMSDIST((I543-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>3.6646647905271057E-2</v>
       </c>
       <c r="K543" s="1">
-        <f>J543*F543</f>
+        <f t="shared" si="17"/>
         <v>9.8026012915333957E-3</v>
       </c>
     </row>
@@ -22947,11 +22947,11 @@
         <v>20.991720650178099</v>
       </c>
       <c r="J544" s="1">
-        <f>1-NORMSDIST((I544-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>3.815296654017275E-2</v>
       </c>
       <c r="K544" s="1">
-        <f>J544*F544</f>
+        <f t="shared" si="17"/>
         <v>9.7252659808283199E-3</v>
       </c>
     </row>
@@ -22984,11 +22984,11 @@
         <v>18.600248488334699</v>
       </c>
       <c r="J545" s="1">
-        <f>1-NORMSDIST((I545-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.49059280411578721</v>
       </c>
       <c r="K545" s="1">
-        <f>J545*F545</f>
+        <f t="shared" si="17"/>
         <v>9.6194667473683756E-3</v>
       </c>
     </row>
@@ -23021,11 +23021,11 @@
         <v>19.806018315165399</v>
       </c>
       <c r="J546" s="1">
-        <f>1-NORMSDIST((I546-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.18262773787354292</v>
       </c>
       <c r="K546" s="1">
-        <f>J546*F546</f>
+        <f t="shared" si="17"/>
         <v>9.511861347580355E-3</v>
       </c>
     </row>
@@ -23058,11 +23058,11 @@
         <v>20.623972602739698</v>
       </c>
       <c r="J547" s="1">
-        <f>1-NORMSDIST((I547-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>6.634354373006246E-2</v>
       </c>
       <c r="K547" s="1">
-        <f>J547*F547</f>
+        <f t="shared" si="17"/>
         <v>9.4776491042945794E-3</v>
       </c>
     </row>
@@ -23095,11 +23095,11 @@
         <v>21.1481642741863</v>
       </c>
       <c r="J548" s="1">
-        <f>1-NORMSDIST((I548-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>2.9583807105856508E-2</v>
       </c>
       <c r="K548" s="1">
-        <f>J548*F548</f>
+        <f t="shared" si="17"/>
         <v>9.4668182738740832E-3</v>
       </c>
     </row>
@@ -23132,11 +23132,11 @@
         <v>21.156904082200299</v>
       </c>
       <c r="J549" s="1">
-        <f>1-NORMSDIST((I549-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>2.9156501693733738E-2</v>
       </c>
       <c r="K549" s="1">
-        <f>J549*F549</f>
+        <f t="shared" si="17"/>
         <v>9.4400148926432805E-3</v>
       </c>
     </row>
@@ -23169,11 +23169,11 @@
         <v>21.1627045777063</v>
       </c>
       <c r="J550" s="1">
-        <f>1-NORMSDIST((I550-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>2.8875745142938447E-2</v>
       </c>
       <c r="K550" s="1">
-        <f>J550*F550</f>
+        <f t="shared" si="17"/>
         <v>9.3949792809560461E-3</v>
       </c>
     </row>
@@ -23206,11 +23206,11 @@
         <v>17.288239146809801</v>
       </c>
       <c r="J551" s="1">
-        <f>1-NORMSDIST((I551-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.82534466939769913</v>
       </c>
       <c r="K551" s="1">
-        <f>J551*F551</f>
+        <f t="shared" si="17"/>
         <v>9.3789166977010733E-3</v>
       </c>
     </row>
@@ -23243,11 +23243,11 @@
         <v>19.399050192636899</v>
       </c>
       <c r="J552" s="1">
-        <f>1-NORMSDIST((I552-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.27167036753417273</v>
       </c>
       <c r="K552" s="1">
-        <f>J552*F552</f>
+        <f t="shared" si="17"/>
         <v>9.3679437080749061E-3</v>
       </c>
     </row>
@@ -23280,11 +23280,11 @@
         <v>20.8256680074226</v>
       </c>
       <c r="J553" s="1">
-        <f>1-NORMSDIST((I553-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>4.9359576722641352E-2</v>
       </c>
       <c r="K553" s="1">
-        <f>J553*F553</f>
+        <f t="shared" si="17"/>
         <v>9.3131276835171934E-3</v>
       </c>
     </row>
@@ -23317,11 +23317,11 @@
         <v>19.918547917861599</v>
       </c>
       <c r="J554" s="1">
-        <f>1-NORMSDIST((I554-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.16165165931763215</v>
       </c>
       <c r="K554" s="1">
-        <f>J554*F554</f>
+        <f t="shared" si="17"/>
         <v>9.2372376752932576E-3</v>
       </c>
     </row>
@@ -23354,11 +23354,11 @@
         <v>18.715850017596701</v>
       </c>
       <c r="J555" s="1">
-        <f>1-NORMSDIST((I555-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.45694818326045539</v>
       </c>
       <c r="K555" s="1">
-        <f>J555*F555</f>
+        <f t="shared" si="17"/>
         <v>9.0305965071235915E-3</v>
       </c>
     </row>
@@ -23391,11 +23391,11 @@
         <v>21.085727282221001</v>
       </c>
       <c r="J556" s="1">
-        <f>1-NORMSDIST((I556-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>3.2789985446164294E-2</v>
       </c>
       <c r="K556" s="1">
-        <f>J556*F556</f>
+        <f t="shared" si="17"/>
         <v>9.0208256904294494E-3</v>
       </c>
     </row>
@@ -23428,11 +23428,11 @@
         <v>20.6209175005351</v>
       </c>
       <c r="J557" s="1">
-        <f>1-NORMSDIST((I557-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>6.6631850704135576E-2</v>
       </c>
       <c r="K557" s="1">
-        <f>J557*F557</f>
+        <f t="shared" si="17"/>
         <v>9.0043041492075017E-3</v>
       </c>
     </row>
@@ -23465,11 +23465,11 @@
         <v>20.8229783676077</v>
       </c>
       <c r="J558" s="1">
-        <f>1-NORMSDIST((I558-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>4.9560695873821836E-2</v>
       </c>
       <c r="K558" s="1">
-        <f>J558*F558</f>
+        <f t="shared" si="17"/>
         <v>8.9451012064946343E-3</v>
       </c>
     </row>
@@ -23502,11 +23502,11 @@
         <v>20.859122146403202</v>
       </c>
       <c r="J559" s="1">
-        <f>1-NORMSDIST((I559-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>4.6912098395798352E-2</v>
       </c>
       <c r="K559" s="1">
-        <f>J559*F559</f>
+        <f t="shared" si="17"/>
         <v>8.8752618586645446E-3</v>
       </c>
     </row>
@@ -23539,11 +23539,11 @@
         <v>20.1084866190699</v>
       </c>
       <c r="J560" s="1">
-        <f>1-NORMSDIST((I560-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.12995582532936956</v>
       </c>
       <c r="K560" s="1">
-        <f>J560*F560</f>
+        <f t="shared" si="17"/>
         <v>8.8319492942289871E-3</v>
       </c>
     </row>
@@ -23576,11 +23576,11 @@
         <v>21.154381250290601</v>
       </c>
       <c r="J561" s="1">
-        <f>1-NORMSDIST((I561-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>2.927931794237626E-2</v>
       </c>
       <c r="K561" s="1">
-        <f>J561*F561</f>
+        <f t="shared" si="17"/>
         <v>8.7246452454555236E-3</v>
       </c>
     </row>
@@ -23613,11 +23613,11 @@
         <v>19.9981255299537</v>
       </c>
       <c r="J562" s="1">
-        <f>1-NORMSDIST((I562-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.14780596418469916</v>
       </c>
       <c r="K562" s="1">
-        <f>J562*F562</f>
+        <f t="shared" si="17"/>
         <v>8.53752861716673E-3</v>
       </c>
     </row>
@@ -23650,11 +23650,11 @@
         <v>21.014988616543999</v>
       </c>
       <c r="J563" s="1">
-        <f>1-NORMSDIST((I563-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>3.6763087646200843E-2</v>
       </c>
       <c r="K563" s="1">
-        <f>J563*F563</f>
+        <f t="shared" si="17"/>
         <v>8.4651846553751627E-3</v>
       </c>
     </row>
@@ -23687,11 +23687,11 @@
         <v>19.641416952054701</v>
       </c>
       <c r="J564" s="1">
-        <f>1-NORMSDIST((I564-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.21622131980156112</v>
       </c>
       <c r="K564" s="1">
-        <f>J564*F564</f>
+        <f t="shared" si="17"/>
         <v>8.316204607752337E-3</v>
       </c>
     </row>
@@ -23724,11 +23724,11 @@
         <v>18.068800728859902</v>
       </c>
       <c r="J565" s="1">
-        <f>1-NORMSDIST((I565-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.64247427964597281</v>
       </c>
       <c r="K565" s="1">
-        <f>J565*F565</f>
+        <f t="shared" si="17"/>
         <v>8.2368497390509204E-3</v>
       </c>
     </row>
@@ -23761,11 +23761,11 @@
         <v>20.204541990251698</v>
       </c>
       <c r="J566" s="1">
-        <f>1-NORMSDIST((I566-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.11568290309367468</v>
       </c>
       <c r="K566" s="1">
-        <f>J566*F566</f>
+        <f t="shared" si="17"/>
         <v>8.0930426032611909E-3</v>
       </c>
     </row>
@@ -23798,11 +23798,11 @@
         <v>17.427162691665</v>
       </c>
       <c r="J567" s="1">
-        <f>1-NORMSDIST((I567-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.79795204646973095</v>
       </c>
       <c r="K567" s="1">
-        <f>J567*F567</f>
+        <f t="shared" si="17"/>
         <v>7.9005153115814936E-3</v>
       </c>
     </row>
@@ -23835,11 +23835,11 @@
         <v>20.150050885133901</v>
       </c>
       <c r="J568" s="1">
-        <f>1-NORMSDIST((I568-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.12363677202711743</v>
       </c>
       <c r="K568" s="1">
-        <f>J568*F568</f>
+        <f t="shared" si="17"/>
         <v>7.7881431198184121E-3</v>
       </c>
     </row>
@@ -23872,11 +23872,11 @@
         <v>19.8471063153792</v>
       </c>
       <c r="J569" s="1">
-        <f>1-NORMSDIST((I569-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.17477947612517264</v>
       </c>
       <c r="K569" s="1">
-        <f>J569*F569</f>
+        <f t="shared" si="17"/>
         <v>7.5991076576161993E-3</v>
       </c>
     </row>
@@ -23909,11 +23909,11 @@
         <v>21.1714509156971</v>
       </c>
       <c r="J570" s="1">
-        <f>1-NORMSDIST((I570-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>2.8456655177692691E-2</v>
       </c>
       <c r="K570" s="1">
-        <f>J570*F570</f>
+        <f t="shared" si="17"/>
         <v>7.5257269891418578E-3</v>
       </c>
     </row>
@@ -23946,11 +23946,11 @@
         <v>17.882924394885599</v>
       </c>
       <c r="J571" s="1">
-        <f>1-NORMSDIST((I571-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.6918204148500704</v>
       </c>
       <c r="K571" s="1">
-        <f>J571*F571</f>
+        <f t="shared" si="17"/>
         <v>7.519787117935545E-3</v>
       </c>
     </row>
@@ -23983,11 +23983,11 @@
         <v>19.8200346760655</v>
       </c>
       <c r="J572" s="1">
-        <f>1-NORMSDIST((I572-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.17992607189104892</v>
       </c>
       <c r="K572" s="1">
-        <f>J572*F572</f>
+        <f t="shared" si="17"/>
         <v>7.4969196621270271E-3</v>
       </c>
     </row>
@@ -24020,11 +24020,11 @@
         <v>19.6587573381046</v>
       </c>
       <c r="J573" s="1">
-        <f>1-NORMSDIST((I573-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.21252225609984032</v>
       </c>
       <c r="K573" s="1">
-        <f>J573*F573</f>
+        <f t="shared" si="17"/>
         <v>7.245076912494537E-3</v>
       </c>
     </row>
@@ -24057,11 +24057,11 @@
         <v>21.124069195694901</v>
       </c>
       <c r="J574" s="1">
-        <f>1-NORMSDIST((I574-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>3.0788847902508909E-2</v>
       </c>
       <c r="K574" s="1">
-        <f>J574*F574</f>
+        <f t="shared" si="17"/>
         <v>7.1840645105854016E-3</v>
       </c>
     </row>
@@ -24094,11 +24094,11 @@
         <v>19.206939658546499</v>
       </c>
       <c r="J575" s="1">
-        <f>1-NORMSDIST((I575-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.32015227207152663</v>
       </c>
       <c r="K575" s="1">
-        <f>J575*F575</f>
+        <f t="shared" si="17"/>
         <v>7.1144949349228066E-3</v>
       </c>
     </row>
@@ -24131,11 +24131,11 @@
         <v>17.7825514160198</v>
       </c>
       <c r="J576" s="1">
-        <f>1-NORMSDIST((I576-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.71715906772531279</v>
       </c>
       <c r="K576" s="1">
-        <f>J576*F576</f>
+        <f t="shared" si="17"/>
         <v>7.1005848289634917E-3</v>
       </c>
     </row>
@@ -24168,11 +24168,11 @@
         <v>18.013181472361001</v>
       </c>
       <c r="J577" s="1">
-        <f>1-NORMSDIST((I577-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="16"/>
         <v>0.65753915656097761</v>
       </c>
       <c r="K577" s="1">
-        <f>J577*F577</f>
+        <f t="shared" si="17"/>
         <v>7.0325043482457493E-3</v>
       </c>
     </row>
@@ -24205,11 +24205,11 @@
         <v>18.160212783410799</v>
       </c>
       <c r="J578" s="1">
-        <f>1-NORMSDIST((I578-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J578:J641" si="18">1-NORMSDIST((I578-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>0.61723546110918615</v>
       </c>
       <c r="K578" s="1">
-        <f>J578*F578</f>
+        <f t="shared" ref="K578:K641" si="19">J578*F578</f>
         <v>6.8581717901020607E-3</v>
       </c>
     </row>
@@ -24242,11 +24242,11 @@
         <v>19.121167630218899</v>
       </c>
       <c r="J579" s="1">
-        <f>1-NORMSDIST((I579-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.34290580802055559</v>
       </c>
       <c r="K579" s="1">
-        <f>J579*F579</f>
+        <f t="shared" si="19"/>
         <v>6.7567646900601932E-3</v>
       </c>
     </row>
@@ -24279,11 +24279,11 @@
         <v>19.696686185431101</v>
       </c>
       <c r="J580" s="1">
-        <f>1-NORMSDIST((I580-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.2045613132163141</v>
       </c>
       <c r="K580" s="1">
-        <f>J580*F580</f>
+        <f t="shared" si="19"/>
         <v>6.4940099433750415E-3</v>
       </c>
     </row>
@@ -24316,11 +24316,11 @@
         <v>19.000430893571401</v>
       </c>
       <c r="J581" s="1">
-        <f>1-NORMSDIST((I581-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.37590740258133271</v>
       </c>
       <c r="K581" s="1">
-        <f>J581*F581</f>
+        <f t="shared" si="19"/>
         <v>6.4811621134712432E-3</v>
       </c>
     </row>
@@ -24353,11 +24353,11 @@
         <v>18.1843574191527</v>
       </c>
       <c r="J582" s="1">
-        <f>1-NORMSDIST((I582-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.61048005415505291</v>
       </c>
       <c r="K582" s="1">
-        <f>J582*F582</f>
+        <f t="shared" si="19"/>
         <v>6.2293883077045838E-3</v>
       </c>
     </row>
@@ -24390,11 +24390,11 @@
         <v>18.8878424302216</v>
       </c>
       <c r="J583" s="1">
-        <f>1-NORMSDIST((I583-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.40752813962341883</v>
       </c>
       <c r="K583" s="1">
-        <f>J583*F583</f>
+        <f t="shared" si="19"/>
         <v>6.0825095466181681E-3</v>
       </c>
     </row>
@@ -24427,11 +24427,11 @@
         <v>20.905866708278499</v>
       </c>
       <c r="J584" s="1">
-        <f>1-NORMSDIST((I584-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>4.365636039270071E-2</v>
       </c>
       <c r="K584" s="1">
-        <f>J584*F584</f>
+        <f t="shared" si="19"/>
         <v>5.846833981165255E-3</v>
       </c>
     </row>
@@ -24464,11 +24464,11 @@
         <v>20.1456286829149</v>
       </c>
       <c r="J585" s="1">
-        <f>1-NORMSDIST((I585-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.12429866941869561</v>
       </c>
       <c r="K585" s="1">
-        <f>J585*F585</f>
+        <f t="shared" si="19"/>
         <v>5.7813334613346741E-3</v>
       </c>
     </row>
@@ -24501,11 +24501,11 @@
         <v>18.535448461036101</v>
       </c>
       <c r="J586" s="1">
-        <f>1-NORMSDIST((I586-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.50949695079562907</v>
       </c>
       <c r="K586" s="1">
-        <f>J586*F586</f>
+        <f t="shared" si="19"/>
         <v>5.7246848404002883E-3</v>
       </c>
     </row>
@@ -24538,11 +24538,11 @@
         <v>19.8374763415618</v>
       </c>
       <c r="J587" s="1">
-        <f>1-NORMSDIST((I587-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.17659942446771426</v>
       </c>
       <c r="K587" s="1">
-        <f>J587*F587</f>
+        <f t="shared" si="19"/>
         <v>5.5768239305593881E-3</v>
       </c>
     </row>
@@ -24575,11 +24575,11 @@
         <v>20.779884682784999</v>
       </c>
       <c r="J588" s="1">
-        <f>1-NORMSDIST((I588-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>5.2873069633934011E-2</v>
       </c>
       <c r="K588" s="1">
-        <f>J588*F588</f>
+        <f t="shared" si="19"/>
         <v>5.4566513145340636E-3</v>
       </c>
     </row>
@@ -24612,11 +24612,11 @@
         <v>20.965739295283299</v>
       </c>
       <c r="J589" s="1">
-        <f>1-NORMSDIST((I589-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>3.9755259708435631E-2</v>
       </c>
       <c r="K589" s="1">
-        <f>J589*F589</f>
+        <f t="shared" si="19"/>
         <v>5.2714156519472295E-3</v>
       </c>
     </row>
@@ -24649,11 +24649,11 @@
         <v>19.504990693439201</v>
       </c>
       <c r="J590" s="1">
-        <f>1-NORMSDIST((I590-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.24659427570156311</v>
       </c>
       <c r="K590" s="1">
-        <f>J590*F590</f>
+        <f t="shared" si="19"/>
         <v>5.2466867170545212E-3</v>
       </c>
     </row>
@@ -24686,11 +24686,11 @@
         <v>20.992948487326998</v>
       </c>
       <c r="J591" s="1">
-        <f>1-NORMSDIST((I591-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>3.8078567440367861E-2</v>
       </c>
       <c r="K591" s="1">
-        <f>J591*F591</f>
+        <f t="shared" si="19"/>
         <v>5.1499701866071189E-3</v>
       </c>
     </row>
@@ -24723,11 +24723,11 @@
         <v>20.151374851384901</v>
       </c>
       <c r="J592" s="1">
-        <f>1-NORMSDIST((I592-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.12343908705500106</v>
       </c>
       <c r="K592" s="1">
-        <f>J592*F592</f>
+        <f t="shared" si="19"/>
         <v>5.0961090986009518E-3</v>
       </c>
     </row>
@@ -24760,11 +24760,11 @@
         <v>20.597819292673901</v>
       </c>
       <c r="J593" s="1">
-        <f>1-NORMSDIST((I593-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>6.884308255703786E-2</v>
       </c>
       <c r="K593" s="1">
-        <f>J593*F593</f>
+        <f t="shared" si="19"/>
         <v>4.9425802861463022E-3</v>
       </c>
     </row>
@@ -24797,11 +24797,11 @@
         <v>20.647851442438402</v>
       </c>
       <c r="J594" s="1">
-        <f>1-NORMSDIST((I594-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>6.4123292751306238E-2</v>
       </c>
       <c r="K594" s="1">
-        <f>J594*F594</f>
+        <f t="shared" si="19"/>
         <v>4.8701235000992082E-3</v>
       </c>
     </row>
@@ -24834,11 +24834,11 @@
         <v>18.021135615115</v>
       </c>
       <c r="J595" s="1">
-        <f>1-NORMSDIST((I595-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.65539934575154646</v>
       </c>
       <c r="K595" s="1">
-        <f>J595*F595</f>
+        <f t="shared" si="19"/>
         <v>4.7839368303032584E-3</v>
       </c>
     </row>
@@ -24871,11 +24871,11 @@
         <v>21.209711541399901</v>
       </c>
       <c r="J596" s="1">
-        <f>1-NORMSDIST((I596-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>2.6682401757412211E-2</v>
       </c>
       <c r="K596" s="1">
-        <f>J596*F596</f>
+        <f t="shared" si="19"/>
         <v>4.6209746060322712E-3</v>
       </c>
     </row>
@@ -24908,11 +24908,11 @@
         <v>19.694629565670901</v>
       </c>
       <c r="J597" s="1">
-        <f>1-NORMSDIST((I597-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.20498837721172247</v>
       </c>
       <c r="K597" s="1">
-        <f>J597*F597</f>
+        <f t="shared" si="19"/>
         <v>4.6064803867802706E-3</v>
       </c>
     </row>
@@ -24945,11 +24945,11 @@
         <v>20.740610328001399</v>
       </c>
       <c r="J598" s="1">
-        <f>1-NORMSDIST((I598-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>5.6042612295325478E-2</v>
       </c>
       <c r="K598" s="1">
-        <f>J598*F598</f>
+        <f t="shared" si="19"/>
         <v>4.6062421064651075E-3</v>
       </c>
     </row>
@@ -24982,11 +24982,11 @@
         <v>20.785116740782801</v>
       </c>
       <c r="J599" s="1">
-        <f>1-NORMSDIST((I599-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>5.2461779800703212E-2</v>
       </c>
       <c r="K599" s="1">
-        <f>J599*F599</f>
+        <f t="shared" si="19"/>
         <v>4.5618938957133212E-3</v>
       </c>
     </row>
@@ -25019,11 +25019,11 @@
         <v>20.9760102305159</v>
       </c>
       <c r="J600" s="1">
-        <f>1-NORMSDIST((I600-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>3.9115421787277005E-2</v>
       </c>
       <c r="K600" s="1">
-        <f>J600*F600</f>
+        <f t="shared" si="19"/>
         <v>4.513317898531947E-3</v>
       </c>
     </row>
@@ -25056,11 +25056,11 @@
         <v>20.123807419816099</v>
       </c>
       <c r="J601" s="1">
-        <f>1-NORMSDIST((I601-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.12760106064480414</v>
       </c>
       <c r="K601" s="1">
-        <f>J601*F601</f>
+        <f t="shared" si="19"/>
         <v>4.3500361583455839E-3</v>
       </c>
     </row>
@@ -25093,11 +25093,11 @@
         <v>20.935127679580599</v>
       </c>
       <c r="J602" s="1">
-        <f>1-NORMSDIST((I602-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>4.1712855618814992E-2</v>
       </c>
       <c r="K602" s="1">
-        <f>J602*F602</f>
+        <f t="shared" si="19"/>
         <v>4.3364849900747859E-3</v>
       </c>
     </row>
@@ -25130,11 +25130,11 @@
         <v>19.916284720648399</v>
       </c>
       <c r="J603" s="1">
-        <f>1-NORMSDIST((I603-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.1620574151353833</v>
       </c>
       <c r="K603" s="1">
-        <f>J603*F603</f>
+        <f t="shared" si="19"/>
         <v>4.2929116592154417E-3</v>
       </c>
     </row>
@@ -25167,11 +25167,11 @@
         <v>21.173848743870401</v>
       </c>
       <c r="J604" s="1">
-        <f>1-NORMSDIST((I604-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>2.8342648641696555E-2</v>
       </c>
       <c r="K604" s="1">
-        <f>J604*F604</f>
+        <f t="shared" si="19"/>
         <v>4.2460896841492969E-3</v>
       </c>
     </row>
@@ -25204,11 +25204,11 @@
         <v>20.878185242072501</v>
       </c>
       <c r="J605" s="1">
-        <f>1-NORMSDIST((I605-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>4.5561589618642429E-2</v>
       </c>
       <c r="K605" s="1">
-        <f>J605*F605</f>
+        <f t="shared" si="19"/>
         <v>4.141962692603857E-3</v>
       </c>
     </row>
@@ -25241,11 +25241,11 @@
         <v>18.170374630592701</v>
       </c>
       <c r="J606" s="1">
-        <f>1-NORMSDIST((I606-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.61439649980707123</v>
       </c>
       <c r="K606" s="1">
-        <f>J606*F606</f>
+        <f t="shared" si="19"/>
         <v>3.9133535019558637E-3</v>
       </c>
     </row>
@@ -25278,11 +25278,11 @@
         <v>20.454944037850598</v>
       </c>
       <c r="J607" s="1">
-        <f>1-NORMSDIST((I607-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>8.3797303986436589E-2</v>
       </c>
       <c r="K607" s="1">
-        <f>J607*F607</f>
+        <f t="shared" si="19"/>
         <v>3.8089683630198406E-3</v>
       </c>
     </row>
@@ -25315,11 +25315,11 @@
         <v>20.5839511948089</v>
       </c>
       <c r="J608" s="1">
-        <f>1-NORMSDIST((I608-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>7.0197626699495697E-2</v>
       </c>
       <c r="K608" s="1">
-        <f>J608*F608</f>
+        <f t="shared" si="19"/>
         <v>3.3748858990142109E-3</v>
       </c>
     </row>
@@ -25352,11 +25352,11 @@
         <v>19.181428174909801</v>
       </c>
       <c r="J609" s="1">
-        <f>1-NORMSDIST((I609-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.326854429931834</v>
       </c>
       <c r="K609" s="1">
-        <f>J609*F609</f>
+        <f t="shared" si="19"/>
         <v>3.204455195410137E-3</v>
       </c>
     </row>
@@ -25389,11 +25389,11 @@
         <v>20.192520520601299</v>
       </c>
       <c r="J610" s="1">
-        <f>1-NORMSDIST((I610-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.11740560391487842</v>
       </c>
       <c r="K610" s="1">
-        <f>J610*F610</f>
+        <f t="shared" si="19"/>
         <v>2.2362972174262501E-3</v>
       </c>
     </row>
@@ -25426,11 +25426,11 @@
         <v>20.995794097000001</v>
       </c>
       <c r="J611" s="1">
-        <f>1-NORMSDIST((I611-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>3.790659653615891E-2</v>
       </c>
       <c r="K611" s="1">
-        <f>J611*F611</f>
+        <f t="shared" si="19"/>
         <v>1.1845811417549659E-3</v>
       </c>
     </row>
@@ -25463,11 +25463,11 @@
         <v>15.2191780821917</v>
       </c>
       <c r="J612" s="1">
-        <f>1-NORMSDIST((I612-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.99283912562815357</v>
       </c>
       <c r="K612" s="1">
-        <f>J612*F612</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25500,11 +25500,11 @@
         <v>15.3150684931506</v>
       </c>
       <c r="J613" s="1">
-        <f>1-NORMSDIST((I613-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.99131929173421029</v>
       </c>
       <c r="K613" s="1">
-        <f>J613*F613</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25537,11 +25537,11 @@
         <v>15.317123287671199</v>
       </c>
       <c r="J614" s="1">
-        <f>1-NORMSDIST((I614-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.99128384060762276</v>
       </c>
       <c r="K614" s="1">
-        <f>J614*F614</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25574,11 +25574,11 @@
         <v>15.4619863013698</v>
       </c>
       <c r="J615" s="1">
-        <f>1-NORMSDIST((I615-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.98844217678879276</v>
       </c>
       <c r="K615" s="1">
-        <f>J615*F615</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25611,11 +25611,11 @@
         <v>15.4691780821917</v>
       </c>
       <c r="J616" s="1">
-        <f>1-NORMSDIST((I616-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.98828221401177552</v>
       </c>
       <c r="K616" s="1">
-        <f>J616*F616</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25648,11 +25648,11 @@
         <v>15.658561643835601</v>
       </c>
       <c r="J617" s="1">
-        <f>1-NORMSDIST((I617-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.98332137072242309</v>
       </c>
       <c r="K617" s="1">
-        <f>J617*F617</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25685,11 +25685,11 @@
         <v>15.6618150684931</v>
       </c>
       <c r="J618" s="1">
-        <f>1-NORMSDIST((I618-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.98322243311795798</v>
       </c>
       <c r="K618" s="1">
-        <f>J618*F618</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25722,11 +25722,11 @@
         <v>15.668493150684901</v>
       </c>
       <c r="J619" s="1">
-        <f>1-NORMSDIST((I619-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.98301777702918058</v>
       </c>
       <c r="K619" s="1">
-        <f>J619*F619</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25759,11 +25759,11 @@
         <v>15.674101027397199</v>
       </c>
       <c r="J620" s="1">
-        <f>1-NORMSDIST((I620-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.98284427340263891</v>
       </c>
       <c r="K620" s="1">
-        <f>J620*F620</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25796,11 +25796,11 @@
         <v>15.784931506849301</v>
       </c>
       <c r="J621" s="1">
-        <f>1-NORMSDIST((I621-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.979091605480506</v>
       </c>
       <c r="K621" s="1">
-        <f>J621*F621</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25833,11 +25833,11 @@
         <v>15.8602739726027</v>
       </c>
       <c r="J622" s="1">
-        <f>1-NORMSDIST((I622-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.97616164720966847</v>
       </c>
       <c r="K622" s="1">
-        <f>J622*F622</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25870,11 +25870,11 @@
         <v>15.8657534246575</v>
       </c>
       <c r="J623" s="1">
-        <f>1-NORMSDIST((I623-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.97593571746734042</v>
       </c>
       <c r="K623" s="1">
-        <f>J623*F623</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25907,11 +25907,11 @@
         <v>15.8856164383561</v>
       </c>
       <c r="J624" s="1">
-        <f>1-NORMSDIST((I624-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.97510158623209808</v>
       </c>
       <c r="K624" s="1">
-        <f>J624*F624</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25944,11 +25944,11 @@
         <v>15.897945205479401</v>
       </c>
       <c r="J625" s="1">
-        <f>1-NORMSDIST((I625-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.97457175466141077</v>
       </c>
       <c r="K625" s="1">
-        <f>J625*F625</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -25981,11 +25981,11 @@
         <v>15.9282534246575</v>
       </c>
       <c r="J626" s="1">
-        <f>1-NORMSDIST((I626-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.97322899441794219</v>
       </c>
       <c r="K626" s="1">
-        <f>J626*F626</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26018,11 +26018,11 @@
         <v>15.938356164383499</v>
       </c>
       <c r="J627" s="1">
-        <f>1-NORMSDIST((I627-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.97276845360969244</v>
       </c>
       <c r="K627" s="1">
-        <f>J627*F627</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26055,11 +26055,11 @@
         <v>15.945205479452</v>
       </c>
       <c r="J628" s="1">
-        <f>1-NORMSDIST((I628-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.97245247805251656</v>
       </c>
       <c r="K628" s="1">
-        <f>J628*F628</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26092,11 +26092,11 @@
         <v>15.9917808219178</v>
       </c>
       <c r="J629" s="1">
-        <f>1-NORMSDIST((I629-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.97022184510900955</v>
       </c>
       <c r="K629" s="1">
-        <f>J629*F629</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26129,11 +26129,11 @@
         <v>16.049315068493101</v>
       </c>
       <c r="J630" s="1">
-        <f>1-NORMSDIST((I630-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.96726152088894701</v>
       </c>
       <c r="K630" s="1">
-        <f>J630*F630</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26166,11 +26166,11 @@
         <v>16.067808219178001</v>
       </c>
       <c r="J631" s="1">
-        <f>1-NORMSDIST((I631-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.96625995838816159</v>
       </c>
       <c r="K631" s="1">
-        <f>J631*F631</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26203,11 +26203,11 @@
         <v>16.133581041309899</v>
       </c>
       <c r="J632" s="1">
-        <f>1-NORMSDIST((I632-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.96249159371486925</v>
       </c>
       <c r="K632" s="1">
-        <f>J632*F632</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26240,11 +26240,11 @@
         <v>16.180821917808199</v>
       </c>
       <c r="J633" s="1">
-        <f>1-NORMSDIST((I633-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.95957826898155085</v>
       </c>
       <c r="K633" s="1">
-        <f>J633*F633</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26277,11 +26277,11 @@
         <v>16.184931506849299</v>
       </c>
       <c r="J634" s="1">
-        <f>1-NORMSDIST((I634-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.959316375232665</v>
       </c>
       <c r="K634" s="1">
-        <f>J634*F634</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26314,11 +26314,11 @@
         <v>16.226974529109501</v>
       </c>
       <c r="J635" s="1">
-        <f>1-NORMSDIST((I635-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.95655721441487374</v>
       </c>
       <c r="K635" s="1">
-        <f>J635*F635</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26351,11 +26351,11 @@
         <v>16.2561643835616</v>
       </c>
       <c r="J636" s="1">
-        <f>1-NORMSDIST((I636-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.95455417055004632</v>
       </c>
       <c r="K636" s="1">
-        <f>J636*F636</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26388,11 +26388,11 @@
         <v>16.308219178082101</v>
       </c>
       <c r="J637" s="1">
-        <f>1-NORMSDIST((I637-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.95079830042624058</v>
       </c>
       <c r="K637" s="1">
-        <f>J637*F637</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26425,11 +26425,11 @@
         <v>16.380821917808198</v>
       </c>
       <c r="J638" s="1">
-        <f>1-NORMSDIST((I638-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.94515047063802737</v>
       </c>
       <c r="K638" s="1">
-        <f>J638*F638</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26462,11 +26462,11 @@
         <v>16.381506849314999</v>
       </c>
       <c r="J639" s="1">
-        <f>1-NORMSDIST((I639-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.94509484675865352</v>
       </c>
       <c r="K639" s="1">
-        <f>J639*F639</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26499,11 +26499,11 @@
         <v>16.391780821917799</v>
       </c>
       <c r="J640" s="1">
-        <f>1-NORMSDIST((I640-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.94425512784202437</v>
       </c>
       <c r="K640" s="1">
-        <f>J640*F640</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26536,11 +26536,11 @@
         <v>16.4292808219178</v>
       </c>
       <c r="J641" s="1">
-        <f>1-NORMSDIST((I641-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="18"/>
         <v>0.94110388149635438</v>
       </c>
       <c r="K641" s="1">
-        <f>J641*F641</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -26573,11 +26573,11 @@
         <v>16.439041095890399</v>
       </c>
       <c r="J642" s="1">
-        <f>1-NORMSDIST((I642-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J642:J705" si="20">1-NORMSDIST((I642-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>0.94026118502614486</v>
       </c>
       <c r="K642" s="1">
-        <f>J642*F642</f>
+        <f t="shared" ref="K642:K705" si="21">J642*F642</f>
         <v>0</v>
       </c>
     </row>
@@ -26610,11 +26610,11 @@
         <v>16.4739726027397</v>
       </c>
       <c r="J643" s="1">
-        <f>1-NORMSDIST((I643-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.93716762059577752</v>
       </c>
       <c r="K643" s="1">
-        <f>J643*F643</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -26647,11 +26647,11 @@
         <v>16.480479452054698</v>
       </c>
       <c r="J644" s="1">
-        <f>1-NORMSDIST((I644-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.9365778151662365</v>
       </c>
       <c r="K644" s="1">
-        <f>J644*F644</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -26684,11 +26684,11 @@
         <v>16.531506849315001</v>
       </c>
       <c r="J645" s="1">
-        <f>1-NORMSDIST((I645-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.93180200099502564</v>
       </c>
       <c r="K645" s="1">
-        <f>J645*F645</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -26721,11 +26721,11 @@
         <v>16.647848886986299</v>
       </c>
       <c r="J646" s="1">
-        <f>1-NORMSDIST((I646-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.91987970106373385</v>
       </c>
       <c r="K646" s="1">
-        <f>J646*F646</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -26758,11 +26758,11 @@
         <v>16.660273972602699</v>
       </c>
       <c r="J647" s="1">
-        <f>1-NORMSDIST((I647-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.91851861577910698</v>
       </c>
       <c r="K647" s="1">
-        <f>J647*F647</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -26795,11 +26795,11 @@
         <v>16.701369863013699</v>
       </c>
       <c r="J648" s="1">
-        <f>1-NORMSDIST((I648-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.91389255458889851</v>
       </c>
       <c r="K648" s="1">
-        <f>J648*F648</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -26832,11 +26832,11 @@
         <v>16.704109589041</v>
       </c>
       <c r="J649" s="1">
-        <f>1-NORMSDIST((I649-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.91357730298580098</v>
       </c>
       <c r="K649" s="1">
-        <f>J649*F649</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -26869,11 +26869,11 @@
         <v>16.717808219178</v>
       </c>
       <c r="J650" s="1">
-        <f>1-NORMSDIST((I650-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.91198809045911666</v>
       </c>
       <c r="K650" s="1">
-        <f>J650*F650</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -26906,11 +26906,11 @@
         <v>16.7424657534246</v>
       </c>
       <c r="J651" s="1">
-        <f>1-NORMSDIST((I651-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.90907276211248755</v>
       </c>
       <c r="K651" s="1">
-        <f>J651*F651</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -26943,11 +26943,11 @@
         <v>16.752739726027301</v>
       </c>
       <c r="J652" s="1">
-        <f>1-NORMSDIST((I652-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.9078371193691066</v>
       </c>
       <c r="K652" s="1">
-        <f>J652*F652</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -26980,11 +26980,11 @@
         <v>16.768835616438299</v>
       </c>
       <c r="J653" s="1">
-        <f>1-NORMSDIST((I653-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.90587635441908532</v>
       </c>
       <c r="K653" s="1">
-        <f>J653*F653</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27017,11 +27017,11 @@
         <v>16.788356164383501</v>
       </c>
       <c r="J654" s="1">
-        <f>1-NORMSDIST((I654-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.90345732058262485</v>
       </c>
       <c r="K654" s="1">
-        <f>J654*F654</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27054,11 +27054,11 @@
         <v>16.789041095890401</v>
       </c>
       <c r="J655" s="1">
-        <f>1-NORMSDIST((I655-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.90337162040615804</v>
       </c>
       <c r="K655" s="1">
-        <f>J655*F655</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27091,11 +27091,11 @@
         <v>16.812328767123201</v>
       </c>
       <c r="J656" s="1">
-        <f>1-NORMSDIST((I656-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.90042447656863844</v>
       </c>
       <c r="K656" s="1">
-        <f>J656*F656</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27128,11 +27128,11 @@
         <v>16.828993350512299</v>
       </c>
       <c r="J657" s="1">
-        <f>1-NORMSDIST((I657-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.89827554804673571</v>
       </c>
       <c r="K657" s="1">
-        <f>J657*F657</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27165,11 +27165,11 @@
         <v>16.865068493150599</v>
       </c>
       <c r="J658" s="1">
-        <f>1-NORMSDIST((I658-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.89350834995966899</v>
       </c>
       <c r="K658" s="1">
-        <f>J658*F658</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27202,11 +27202,11 @@
         <v>16.868493150684898</v>
       </c>
       <c r="J659" s="1">
-        <f>1-NORMSDIST((I659-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.89304754768313321</v>
       </c>
       <c r="K659" s="1">
-        <f>J659*F659</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27239,11 +27239,11 @@
         <v>16.871232876712298</v>
       </c>
       <c r="J660" s="1">
-        <f>1-NORMSDIST((I660-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.89267787153725042</v>
       </c>
       <c r="K660" s="1">
-        <f>J660*F660</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27276,11 +27276,11 @@
         <v>16.885616438356099</v>
       </c>
       <c r="J661" s="1">
-        <f>1-NORMSDIST((I661-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.89072195508123275</v>
       </c>
       <c r="K661" s="1">
-        <f>J661*F661</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27313,11 +27313,11 @@
         <v>16.891780821917799</v>
       </c>
       <c r="J662" s="1">
-        <f>1-NORMSDIST((I662-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.8898759120793992</v>
       </c>
       <c r="K662" s="1">
-        <f>J662*F662</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27350,11 +27350,11 @@
         <v>16.907250642123199</v>
       </c>
       <c r="J663" s="1">
-        <f>1-NORMSDIST((I663-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.88773206011470007</v>
       </c>
       <c r="K663" s="1">
-        <f>J663*F663</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27387,11 +27387,11 @@
         <v>16.9210616438356</v>
       </c>
       <c r="J664" s="1">
-        <f>1-NORMSDIST((I664-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.88579303478869376</v>
       </c>
       <c r="K664" s="1">
-        <f>J664*F664</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27424,11 +27424,11 @@
         <v>16.939255136986301</v>
       </c>
       <c r="J665" s="1">
-        <f>1-NORMSDIST((I665-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.88320248164930815</v>
       </c>
       <c r="K665" s="1">
-        <f>J665*F665</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27461,11 +27461,11 @@
         <v>16.9506849315068</v>
       </c>
       <c r="J666" s="1">
-        <f>1-NORMSDIST((I666-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.8815538510120644</v>
       </c>
       <c r="K666" s="1">
-        <f>J666*F666</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27498,11 +27498,11 @@
         <v>16.986301369863</v>
       </c>
       <c r="J667" s="1">
-        <f>1-NORMSDIST((I667-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.87631129250511341</v>
       </c>
       <c r="K667" s="1">
-        <f>J667*F667</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27535,11 +27535,11 @@
         <v>16.999914383561599</v>
       </c>
       <c r="J668" s="1">
-        <f>1-NORMSDIST((I668-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.87426523455755678</v>
       </c>
       <c r="K668" s="1">
-        <f>J668*F668</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27572,11 +27572,11 @@
         <v>17.025171232876701</v>
       </c>
       <c r="J669" s="1">
-        <f>1-NORMSDIST((I669-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.87040681225722394</v>
       </c>
       <c r="K669" s="1">
-        <f>J669*F669</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27609,11 +27609,11 @@
         <v>17.027397260273901</v>
       </c>
       <c r="J670" s="1">
-        <f>1-NORMSDIST((I670-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.87006285685086882</v>
       </c>
       <c r="K670" s="1">
-        <f>J670*F670</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27646,11 +27646,11 @@
         <v>17.030136986301301</v>
       </c>
       <c r="J671" s="1">
-        <f>1-NORMSDIST((I671-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.86963866023514824</v>
       </c>
       <c r="K671" s="1">
-        <f>J671*F671</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27683,11 +27683,11 @@
         <v>17.060380993150599</v>
       </c>
       <c r="J672" s="1">
-        <f>1-NORMSDIST((I672-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.86489223908069746</v>
       </c>
       <c r="K672" s="1">
-        <f>J672*F672</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27720,11 +27720,11 @@
         <v>17.090410958904101</v>
       </c>
       <c r="J673" s="1">
-        <f>1-NORMSDIST((I673-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.86006348244734776</v>
       </c>
       <c r="K673" s="1">
-        <f>J673*F673</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27757,11 +27757,11 @@
         <v>17.104109589040998</v>
       </c>
       <c r="J674" s="1">
-        <f>1-NORMSDIST((I674-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.85782228005244132</v>
       </c>
       <c r="K674" s="1">
-        <f>J674*F674</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27794,11 +27794,11 @@
         <v>17.109589041095798</v>
       </c>
       <c r="J675" s="1">
-        <f>1-NORMSDIST((I675-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.85691903420567372</v>
       </c>
       <c r="K675" s="1">
-        <f>J675*F675</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27831,11 +27831,11 @@
         <v>17.162500000000001</v>
       </c>
       <c r="J676" s="1">
-        <f>1-NORMSDIST((I676-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.84799776273960614</v>
       </c>
       <c r="K676" s="1">
-        <f>J676*F676</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27868,11 +27868,11 @@
         <v>17.187457191780801</v>
       </c>
       <c r="J677" s="1">
-        <f>1-NORMSDIST((I677-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.8436641671161671</v>
       </c>
       <c r="K677" s="1">
-        <f>J677*F677</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27905,11 +27905,11 @@
         <v>17.332272046232799</v>
       </c>
       <c r="J678" s="1">
-        <f>1-NORMSDIST((I678-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.81692930299647215</v>
       </c>
       <c r="K678" s="1">
-        <f>J678*F678</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27942,11 +27942,11 @@
         <v>17.341952054794501</v>
       </c>
       <c r="J679" s="1">
-        <f>1-NORMSDIST((I679-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.81504592935707543</v>
       </c>
       <c r="K679" s="1">
-        <f>J679*F679</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -27979,11 +27979,11 @@
         <v>17.428767123287599</v>
       </c>
       <c r="J680" s="1">
-        <f>1-NORMSDIST((I680-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.79762137313394144</v>
       </c>
       <c r="K680" s="1">
-        <f>J680*F680</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28016,11 +28016,11 @@
         <v>17.460592567757299</v>
       </c>
       <c r="J681" s="1">
-        <f>1-NORMSDIST((I681-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.79099550124066553</v>
       </c>
       <c r="K681" s="1">
-        <f>J681*F681</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28053,11 +28053,11 @@
         <v>17.4767123287671</v>
       </c>
       <c r="J682" s="1">
-        <f>1-NORMSDIST((I682-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.78759128034937076</v>
       </c>
       <c r="K682" s="1">
-        <f>J682*F682</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28090,11 +28090,11 @@
         <v>17.563013698630101</v>
       </c>
       <c r="J683" s="1">
-        <f>1-NORMSDIST((I683-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.76882318062606192</v>
       </c>
       <c r="K683" s="1">
-        <f>J683*F683</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28127,11 +28127,11 @@
         <v>17.617422945205401</v>
       </c>
       <c r="J684" s="1">
-        <f>1-NORMSDIST((I684-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.75653054782061768</v>
       </c>
       <c r="K684" s="1">
-        <f>J684*F684</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28164,11 +28164,11 @@
         <v>17.7</v>
       </c>
       <c r="J685" s="1">
-        <f>1-NORMSDIST((I685-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.73721887126271501</v>
       </c>
       <c r="K685" s="1">
-        <f>J685*F685</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28201,11 +28201,11 @@
         <v>17.727910958904101</v>
       </c>
       <c r="J686" s="1">
-        <f>1-NORMSDIST((I686-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.73051877354387651</v>
       </c>
       <c r="K686" s="1">
-        <f>J686*F686</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28238,11 +28238,11 @@
         <v>17.7561643835616</v>
       </c>
       <c r="J687" s="1">
-        <f>1-NORMSDIST((I687-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.72365036000446026</v>
       </c>
       <c r="K687" s="1">
-        <f>J687*F687</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28275,11 +28275,11 @@
         <v>17.837425969153202</v>
       </c>
       <c r="J688" s="1">
-        <f>1-NORMSDIST((I688-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.70342998661388534</v>
       </c>
       <c r="K688" s="1">
-        <f>J688*F688</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28312,11 +28312,11 @@
         <v>17.8506172911761</v>
       </c>
       <c r="J689" s="1">
-        <f>1-NORMSDIST((I689-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.70008468372173172</v>
       </c>
       <c r="K689" s="1">
-        <f>J689*F689</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28349,11 +28349,11 @@
         <v>17.8624257074643</v>
       </c>
       <c r="J690" s="1">
-        <f>1-NORMSDIST((I690-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.6970756787607072</v>
       </c>
       <c r="K690" s="1">
-        <f>J690*F690</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28386,11 +28386,11 @@
         <v>17.880479452054701</v>
       </c>
       <c r="J691" s="1">
-        <f>1-NORMSDIST((I691-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.69244932502557444</v>
       </c>
       <c r="K691" s="1">
-        <f>J691*F691</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28423,11 +28423,11 @@
         <v>17.884931506849298</v>
       </c>
       <c r="J692" s="1">
-        <f>1-NORMSDIST((I692-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.69130370610894931</v>
       </c>
       <c r="K692" s="1">
-        <f>J692*F692</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28460,11 +28460,11 @@
         <v>18.2134952910958</v>
       </c>
       <c r="J693" s="1">
-        <f>1-NORMSDIST((I693-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.60228309851891859</v>
       </c>
       <c r="K693" s="1">
-        <f>J693*F693</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28497,11 +28497,11 @@
         <v>18.340421660958899</v>
       </c>
       <c r="J694" s="1">
-        <f>1-NORMSDIST((I694-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.566093164107353</v>
       </c>
       <c r="K694" s="1">
-        <f>J694*F694</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28534,11 +28534,11 @@
         <v>18.358797757919501</v>
       </c>
       <c r="J695" s="1">
-        <f>1-NORMSDIST((I695-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.56079978114225271</v>
       </c>
       <c r="K695" s="1">
-        <f>J695*F695</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28571,11 +28571,11 @@
         <v>18.411643835616399</v>
       </c>
       <c r="J696" s="1">
-        <f>1-NORMSDIST((I696-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.54551959532907424</v>
       </c>
       <c r="K696" s="1">
-        <f>J696*F696</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28608,11 +28608,11 @@
         <v>18.551369863013601</v>
       </c>
       <c r="J697" s="1">
-        <f>1-NORMSDIST((I697-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.50485253448843981</v>
       </c>
       <c r="K697" s="1">
-        <f>J697*F697</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28645,11 +28645,11 @@
         <v>18.6004922945205</v>
       </c>
       <c r="J698" s="1">
-        <f>1-NORMSDIST((I698-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.49052169167717863</v>
       </c>
       <c r="K698" s="1">
-        <f>J698*F698</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28682,11 +28682,11 @@
         <v>18.701359160958901</v>
       </c>
       <c r="J699" s="1">
-        <f>1-NORMSDIST((I699-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.46115369279614882</v>
       </c>
       <c r="K699" s="1">
-        <f>J699*F699</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28719,11 +28719,11 @@
         <v>18.701712328767101</v>
       </c>
       <c r="J700" s="1">
-        <f>1-NORMSDIST((I700-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.46105114348694254</v>
       </c>
       <c r="K700" s="1">
-        <f>J700*F700</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28756,11 +28756,11 @@
         <v>18.849315068493102</v>
       </c>
       <c r="J701" s="1">
-        <f>1-NORMSDIST((I701-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.41850012918939905</v>
       </c>
       <c r="K701" s="1">
-        <f>J701*F701</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28793,11 +28793,11 @@
         <v>19.012328767123201</v>
       </c>
       <c r="J702" s="1">
-        <f>1-NORMSDIST((I702-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.37261000285178014</v>
       </c>
       <c r="K702" s="1">
-        <f>J702*F702</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28830,11 +28830,11 @@
         <v>19.078938356164301</v>
       </c>
       <c r="J703" s="1">
-        <f>1-NORMSDIST((I703-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.35432788354372247</v>
       </c>
       <c r="K703" s="1">
-        <f>J703*F703</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28867,11 +28867,11 @@
         <v>19.104109589040998</v>
       </c>
       <c r="J704" s="1">
-        <f>1-NORMSDIST((I704-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.34750306806050335</v>
       </c>
       <c r="K704" s="1">
-        <f>J704*F704</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28904,11 +28904,11 @@
         <v>19.353424657534202</v>
       </c>
       <c r="J705" s="1">
-        <f>1-NORMSDIST((I705-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="20"/>
         <v>0.28284800680759081</v>
       </c>
       <c r="K705" s="1">
-        <f>J705*F705</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -28941,11 +28941,11 @@
         <v>19.379452054794498</v>
       </c>
       <c r="J706" s="1">
-        <f>1-NORMSDIST((I706-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" ref="J706:J769" si="22">1-NORMSDIST((I706-AVERAGE(I:I))/STDEV(I:I))</f>
         <v>0.27644461419828703</v>
       </c>
       <c r="K706" s="1">
-        <f>J706*F706</f>
+        <f t="shared" ref="K706:K769" si="23">J706*F706</f>
         <v>0</v>
       </c>
     </row>
@@ -28978,11 +28978,11 @@
         <v>19.4309232528895</v>
       </c>
       <c r="J707" s="1">
-        <f>1-NORMSDIST((I707-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="22"/>
         <v>0.26399456278226563</v>
       </c>
       <c r="K707" s="1">
-        <f>J707*F707</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -29015,11 +29015,11 @@
         <v>19.504965753424599</v>
       </c>
       <c r="J708" s="1">
-        <f>1-NORMSDIST((I708-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="22"/>
         <v>0.24660002954137505</v>
       </c>
       <c r="K708" s="1">
-        <f>J708*F708</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -29052,11 +29052,11 @@
         <v>19.593150684931501</v>
       </c>
       <c r="J709" s="1">
-        <f>1-NORMSDIST((I709-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="22"/>
         <v>0.22671163561692143</v>
       </c>
       <c r="K709" s="1">
-        <f>J709*F709</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -29089,11 +29089,11 @@
         <v>19.635616438356099</v>
       </c>
       <c r="J710" s="1">
-        <f>1-NORMSDIST((I710-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="22"/>
         <v>0.21746696137746868</v>
       </c>
       <c r="K710" s="1">
-        <f>J710*F710</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -29126,11 +29126,11 @@
         <v>20.142465753424599</v>
       </c>
       <c r="J711" s="1">
-        <f>1-NORMSDIST((I711-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="22"/>
         <v>0.12477360161192408</v>
       </c>
       <c r="K711" s="1">
-        <f>J711*F711</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -29163,11 +29163,11 @@
         <v>20.6270547945205</v>
       </c>
       <c r="J712" s="1">
-        <f>1-NORMSDIST((I712-AVERAGE(I:I))/STDEV(I:I))</f>
+        <f t="shared" si="22"/>
         <v>6.6053660158513994E-2</v>
       </c>
       <c r="K712" s="1">
-        <f>J712*F712</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
